--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1345E9-8CEF-460A-B9CA-7E23AD46E51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF6BC8D-DCE4-4BAE-9866-287544B1833A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70395" yWindow="465" windowWidth="23445" windowHeight="14055" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57690" yWindow="135" windowWidth="26610" windowHeight="18195" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,11 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:U301"/>
+  <dimension ref="A1:V318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="V322" sqref="V322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -19204,7 +19205,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>2795</v>
       </c>
@@ -19269,7 +19270,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>2796</v>
       </c>
@@ -19334,7 +19335,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>2797</v>
       </c>
@@ -19399,7 +19400,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>2798</v>
       </c>
@@ -19464,7 +19465,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>2799</v>
       </c>
@@ -19529,7 +19530,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>2800</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>2801</v>
       </c>
@@ -19659,7 +19660,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>2802</v>
       </c>
@@ -19724,7 +19725,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>2803</v>
       </c>
@@ -19789,7 +19790,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>2804</v>
       </c>
@@ -19854,7 +19855,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>2805</v>
       </c>
@@ -19919,7 +19920,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>2806</v>
       </c>
@@ -19984,7 +19985,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>2807</v>
       </c>
@@ -20048,6 +20049,1065 @@
       <c r="U301">
         <v>99</v>
       </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A302" s="2">
+        <v>2808</v>
+      </c>
+      <c r="B302" s="2">
+        <v>3</v>
+      </c>
+      <c r="C302" s="2">
+        <v>11</v>
+      </c>
+      <c r="D302" s="2">
+        <v>12</v>
+      </c>
+      <c r="E302" s="2">
+        <v>15</v>
+      </c>
+      <c r="F302" s="2">
+        <v>25</v>
+      </c>
+      <c r="G302" s="2">
+        <v>26</v>
+      </c>
+      <c r="H302" s="2">
+        <v>27</v>
+      </c>
+      <c r="I302" s="2">
+        <v>31</v>
+      </c>
+      <c r="J302" s="2">
+        <v>32</v>
+      </c>
+      <c r="K302" s="2">
+        <v>39</v>
+      </c>
+      <c r="L302" s="2">
+        <v>52</v>
+      </c>
+      <c r="M302" s="2">
+        <v>57</v>
+      </c>
+      <c r="N302" s="2">
+        <v>58</v>
+      </c>
+      <c r="O302" s="2">
+        <v>65</v>
+      </c>
+      <c r="P302" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q302" s="2">
+        <v>74</v>
+      </c>
+      <c r="R302" s="2">
+        <v>80</v>
+      </c>
+      <c r="S302" s="2">
+        <v>83</v>
+      </c>
+      <c r="T302" s="2">
+        <v>84</v>
+      </c>
+      <c r="U302" s="2">
+        <v>97</v>
+      </c>
+      <c r="V302" s="2"/>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A303" s="2">
+        <v>2809</v>
+      </c>
+      <c r="B303" s="2">
+        <v>8</v>
+      </c>
+      <c r="C303" s="2">
+        <v>17</v>
+      </c>
+      <c r="D303" s="2">
+        <v>19</v>
+      </c>
+      <c r="E303" s="2">
+        <v>23</v>
+      </c>
+      <c r="F303" s="2">
+        <v>25</v>
+      </c>
+      <c r="G303" s="2">
+        <v>30</v>
+      </c>
+      <c r="H303" s="2">
+        <v>41</v>
+      </c>
+      <c r="I303" s="2">
+        <v>48</v>
+      </c>
+      <c r="J303" s="2">
+        <v>50</v>
+      </c>
+      <c r="K303" s="2">
+        <v>53</v>
+      </c>
+      <c r="L303" s="2">
+        <v>65</v>
+      </c>
+      <c r="M303" s="2">
+        <v>71</v>
+      </c>
+      <c r="N303" s="2">
+        <v>72</v>
+      </c>
+      <c r="O303" s="2">
+        <v>75</v>
+      </c>
+      <c r="P303" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q303" s="2">
+        <v>84</v>
+      </c>
+      <c r="R303" s="2">
+        <v>88</v>
+      </c>
+      <c r="S303" s="2">
+        <v>95</v>
+      </c>
+      <c r="T303" s="2">
+        <v>96</v>
+      </c>
+      <c r="U303" s="2">
+        <v>99</v>
+      </c>
+      <c r="V303" s="2"/>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A304" s="2">
+        <v>2810</v>
+      </c>
+      <c r="B304" s="2">
+        <v>3</v>
+      </c>
+      <c r="C304" s="2">
+        <v>4</v>
+      </c>
+      <c r="D304" s="2">
+        <v>6</v>
+      </c>
+      <c r="E304" s="2">
+        <v>8</v>
+      </c>
+      <c r="F304" s="2">
+        <v>20</v>
+      </c>
+      <c r="G304" s="2">
+        <v>22</v>
+      </c>
+      <c r="H304" s="2">
+        <v>28</v>
+      </c>
+      <c r="I304" s="2">
+        <v>33</v>
+      </c>
+      <c r="J304" s="2">
+        <v>37</v>
+      </c>
+      <c r="K304" s="2">
+        <v>44</v>
+      </c>
+      <c r="L304" s="2">
+        <v>53</v>
+      </c>
+      <c r="M304" s="2">
+        <v>54</v>
+      </c>
+      <c r="N304" s="2">
+        <v>55</v>
+      </c>
+      <c r="O304" s="2">
+        <v>58</v>
+      </c>
+      <c r="P304" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q304" s="2">
+        <v>63</v>
+      </c>
+      <c r="R304" s="2">
+        <v>73</v>
+      </c>
+      <c r="S304" s="2">
+        <v>77</v>
+      </c>
+      <c r="T304" s="2">
+        <v>82</v>
+      </c>
+      <c r="U304" s="2">
+        <v>95</v>
+      </c>
+      <c r="V304" s="2"/>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A305" s="2">
+        <v>2811</v>
+      </c>
+      <c r="B305" s="2">
+        <v>5</v>
+      </c>
+      <c r="C305" s="2">
+        <v>22</v>
+      </c>
+      <c r="D305" s="2">
+        <v>28</v>
+      </c>
+      <c r="E305" s="2">
+        <v>33</v>
+      </c>
+      <c r="F305" s="2">
+        <v>37</v>
+      </c>
+      <c r="G305" s="2">
+        <v>44</v>
+      </c>
+      <c r="H305" s="2">
+        <v>46</v>
+      </c>
+      <c r="I305" s="2">
+        <v>47</v>
+      </c>
+      <c r="J305" s="2">
+        <v>48</v>
+      </c>
+      <c r="K305" s="2">
+        <v>54</v>
+      </c>
+      <c r="L305" s="2">
+        <v>55</v>
+      </c>
+      <c r="M305" s="2">
+        <v>57</v>
+      </c>
+      <c r="N305" s="2">
+        <v>68</v>
+      </c>
+      <c r="O305" s="2">
+        <v>70</v>
+      </c>
+      <c r="P305" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q305" s="2">
+        <v>79</v>
+      </c>
+      <c r="R305" s="2">
+        <v>81</v>
+      </c>
+      <c r="S305" s="2">
+        <v>87</v>
+      </c>
+      <c r="T305" s="2">
+        <v>92</v>
+      </c>
+      <c r="U305" s="2">
+        <v>96</v>
+      </c>
+      <c r="V305" s="2"/>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A306" s="2">
+        <v>2812</v>
+      </c>
+      <c r="B306" s="2">
+        <v>2</v>
+      </c>
+      <c r="C306" s="2">
+        <v>6</v>
+      </c>
+      <c r="D306" s="2">
+        <v>7</v>
+      </c>
+      <c r="E306" s="2">
+        <v>17</v>
+      </c>
+      <c r="F306" s="2">
+        <v>20</v>
+      </c>
+      <c r="G306" s="2">
+        <v>22</v>
+      </c>
+      <c r="H306" s="2">
+        <v>25</v>
+      </c>
+      <c r="I306" s="2">
+        <v>32</v>
+      </c>
+      <c r="J306" s="2">
+        <v>37</v>
+      </c>
+      <c r="K306" s="2">
+        <v>43</v>
+      </c>
+      <c r="L306" s="2">
+        <v>49</v>
+      </c>
+      <c r="M306" s="2">
+        <v>55</v>
+      </c>
+      <c r="N306" s="2">
+        <v>58</v>
+      </c>
+      <c r="O306" s="2">
+        <v>71</v>
+      </c>
+      <c r="P306" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q306" s="2">
+        <v>79</v>
+      </c>
+      <c r="R306" s="2">
+        <v>81</v>
+      </c>
+      <c r="S306" s="2">
+        <v>83</v>
+      </c>
+      <c r="T306" s="2">
+        <v>87</v>
+      </c>
+      <c r="U306" s="2">
+        <v>95</v>
+      </c>
+      <c r="V306" s="2"/>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A307" s="2">
+        <v>2813</v>
+      </c>
+      <c r="B307" s="2">
+        <v>7</v>
+      </c>
+      <c r="C307" s="2">
+        <v>9</v>
+      </c>
+      <c r="D307" s="2">
+        <v>16</v>
+      </c>
+      <c r="E307" s="2">
+        <v>20</v>
+      </c>
+      <c r="F307" s="2">
+        <v>36</v>
+      </c>
+      <c r="G307" s="2">
+        <v>40</v>
+      </c>
+      <c r="H307" s="2">
+        <v>47</v>
+      </c>
+      <c r="I307" s="2">
+        <v>50</v>
+      </c>
+      <c r="J307" s="2">
+        <v>54</v>
+      </c>
+      <c r="K307" s="2">
+        <v>58</v>
+      </c>
+      <c r="L307" s="2">
+        <v>66</v>
+      </c>
+      <c r="M307" s="2">
+        <v>74</v>
+      </c>
+      <c r="N307" s="2">
+        <v>76</v>
+      </c>
+      <c r="O307" s="2">
+        <v>77</v>
+      </c>
+      <c r="P307" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q307" s="2">
+        <v>84</v>
+      </c>
+      <c r="R307" s="2">
+        <v>86</v>
+      </c>
+      <c r="S307" s="2">
+        <v>89</v>
+      </c>
+      <c r="T307" s="2">
+        <v>90</v>
+      </c>
+      <c r="U307" s="2">
+        <v>99</v>
+      </c>
+      <c r="V307" s="2"/>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A308" s="2">
+        <v>2814</v>
+      </c>
+      <c r="B308" s="2">
+        <v>2</v>
+      </c>
+      <c r="C308" s="2">
+        <v>5</v>
+      </c>
+      <c r="D308" s="2">
+        <v>18</v>
+      </c>
+      <c r="E308" s="2">
+        <v>19</v>
+      </c>
+      <c r="F308" s="2">
+        <v>22</v>
+      </c>
+      <c r="G308" s="2">
+        <v>25</v>
+      </c>
+      <c r="H308" s="2">
+        <v>26</v>
+      </c>
+      <c r="I308" s="2">
+        <v>28</v>
+      </c>
+      <c r="J308" s="2">
+        <v>31</v>
+      </c>
+      <c r="K308" s="2">
+        <v>35</v>
+      </c>
+      <c r="L308" s="2">
+        <v>40</v>
+      </c>
+      <c r="M308" s="2">
+        <v>43</v>
+      </c>
+      <c r="N308" s="2">
+        <v>65</v>
+      </c>
+      <c r="O308" s="2">
+        <v>71</v>
+      </c>
+      <c r="P308" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q308" s="2">
+        <v>73</v>
+      </c>
+      <c r="R308" s="2">
+        <v>79</v>
+      </c>
+      <c r="S308" s="2">
+        <v>81</v>
+      </c>
+      <c r="T308" s="2">
+        <v>93</v>
+      </c>
+      <c r="U308" s="2">
+        <v>96</v>
+      </c>
+      <c r="V308" s="2"/>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A309" s="2">
+        <v>2815</v>
+      </c>
+      <c r="B309" s="2">
+        <v>1</v>
+      </c>
+      <c r="C309" s="2">
+        <v>4</v>
+      </c>
+      <c r="D309" s="2">
+        <v>5</v>
+      </c>
+      <c r="E309" s="2">
+        <v>8</v>
+      </c>
+      <c r="F309" s="2">
+        <v>9</v>
+      </c>
+      <c r="G309" s="2">
+        <v>32</v>
+      </c>
+      <c r="H309" s="2">
+        <v>38</v>
+      </c>
+      <c r="I309" s="2">
+        <v>43</v>
+      </c>
+      <c r="J309" s="2">
+        <v>52</v>
+      </c>
+      <c r="K309" s="2">
+        <v>53</v>
+      </c>
+      <c r="L309" s="2">
+        <v>58</v>
+      </c>
+      <c r="M309" s="2">
+        <v>62</v>
+      </c>
+      <c r="N309" s="2">
+        <v>63</v>
+      </c>
+      <c r="O309" s="2">
+        <v>64</v>
+      </c>
+      <c r="P309" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q309" s="2">
+        <v>78</v>
+      </c>
+      <c r="R309" s="2">
+        <v>79</v>
+      </c>
+      <c r="S309" s="2">
+        <v>86</v>
+      </c>
+      <c r="T309" s="2">
+        <v>88</v>
+      </c>
+      <c r="U309" s="2">
+        <v>89</v>
+      </c>
+      <c r="V309" s="2"/>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A310" s="2">
+        <v>2816</v>
+      </c>
+      <c r="B310" s="2">
+        <v>8</v>
+      </c>
+      <c r="C310" s="2">
+        <v>13</v>
+      </c>
+      <c r="D310" s="2">
+        <v>14</v>
+      </c>
+      <c r="E310" s="2">
+        <v>21</v>
+      </c>
+      <c r="F310" s="2">
+        <v>26</v>
+      </c>
+      <c r="G310" s="2">
+        <v>28</v>
+      </c>
+      <c r="H310" s="2">
+        <v>31</v>
+      </c>
+      <c r="I310" s="2">
+        <v>34</v>
+      </c>
+      <c r="J310" s="2">
+        <v>43</v>
+      </c>
+      <c r="K310" s="2">
+        <v>44</v>
+      </c>
+      <c r="L310" s="2">
+        <v>50</v>
+      </c>
+      <c r="M310" s="2">
+        <v>52</v>
+      </c>
+      <c r="N310" s="2">
+        <v>54</v>
+      </c>
+      <c r="O310" s="2">
+        <v>64</v>
+      </c>
+      <c r="P310" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q310" s="2">
+        <v>74</v>
+      </c>
+      <c r="R310" s="2">
+        <v>78</v>
+      </c>
+      <c r="S310" s="2">
+        <v>84</v>
+      </c>
+      <c r="T310" s="2">
+        <v>90</v>
+      </c>
+      <c r="U310" s="2">
+        <v>91</v>
+      </c>
+      <c r="V310" s="2"/>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A311" s="2">
+        <v>2817</v>
+      </c>
+      <c r="B311" s="2">
+        <v>0</v>
+      </c>
+      <c r="C311" s="2">
+        <v>1</v>
+      </c>
+      <c r="D311" s="2">
+        <v>4</v>
+      </c>
+      <c r="E311" s="2">
+        <v>9</v>
+      </c>
+      <c r="F311" s="2">
+        <v>16</v>
+      </c>
+      <c r="G311" s="2">
+        <v>20</v>
+      </c>
+      <c r="H311" s="2">
+        <v>26</v>
+      </c>
+      <c r="I311" s="2">
+        <v>35</v>
+      </c>
+      <c r="J311" s="2">
+        <v>49</v>
+      </c>
+      <c r="K311" s="2">
+        <v>54</v>
+      </c>
+      <c r="L311" s="2">
+        <v>65</v>
+      </c>
+      <c r="M311" s="2">
+        <v>72</v>
+      </c>
+      <c r="N311" s="2">
+        <v>73</v>
+      </c>
+      <c r="O311" s="2">
+        <v>84</v>
+      </c>
+      <c r="P311" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q311" s="2">
+        <v>87</v>
+      </c>
+      <c r="R311" s="2">
+        <v>93</v>
+      </c>
+      <c r="S311" s="2">
+        <v>94</v>
+      </c>
+      <c r="T311" s="2">
+        <v>97</v>
+      </c>
+      <c r="U311" s="2">
+        <v>98</v>
+      </c>
+      <c r="V311" s="2"/>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A312" s="2">
+        <v>2818</v>
+      </c>
+      <c r="B312" s="2">
+        <v>3</v>
+      </c>
+      <c r="C312" s="2">
+        <v>4</v>
+      </c>
+      <c r="D312" s="2">
+        <v>8</v>
+      </c>
+      <c r="E312" s="2">
+        <v>15</v>
+      </c>
+      <c r="F312" s="2">
+        <v>30</v>
+      </c>
+      <c r="G312" s="2">
+        <v>31</v>
+      </c>
+      <c r="H312" s="2">
+        <v>32</v>
+      </c>
+      <c r="I312" s="2">
+        <v>34</v>
+      </c>
+      <c r="J312" s="2">
+        <v>52</v>
+      </c>
+      <c r="K312" s="2">
+        <v>53</v>
+      </c>
+      <c r="L312" s="2">
+        <v>55</v>
+      </c>
+      <c r="M312" s="2">
+        <v>57</v>
+      </c>
+      <c r="N312" s="2">
+        <v>58</v>
+      </c>
+      <c r="O312" s="2">
+        <v>62</v>
+      </c>
+      <c r="P312" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q312" s="2">
+        <v>72</v>
+      </c>
+      <c r="R312" s="2">
+        <v>79</v>
+      </c>
+      <c r="S312" s="2">
+        <v>86</v>
+      </c>
+      <c r="T312" s="2">
+        <v>89</v>
+      </c>
+      <c r="U312" s="2">
+        <v>93</v>
+      </c>
+      <c r="V312" s="2"/>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A313" s="2">
+        <v>2819</v>
+      </c>
+      <c r="B313" s="2">
+        <v>0</v>
+      </c>
+      <c r="C313" s="2">
+        <v>13</v>
+      </c>
+      <c r="D313" s="2">
+        <v>16</v>
+      </c>
+      <c r="E313" s="2">
+        <v>19</v>
+      </c>
+      <c r="F313" s="2">
+        <v>24</v>
+      </c>
+      <c r="G313" s="2">
+        <v>28</v>
+      </c>
+      <c r="H313" s="2">
+        <v>35</v>
+      </c>
+      <c r="I313" s="2">
+        <v>38</v>
+      </c>
+      <c r="J313" s="2">
+        <v>44</v>
+      </c>
+      <c r="K313" s="2">
+        <v>46</v>
+      </c>
+      <c r="L313" s="2">
+        <v>52</v>
+      </c>
+      <c r="M313" s="2">
+        <v>53</v>
+      </c>
+      <c r="N313" s="2">
+        <v>62</v>
+      </c>
+      <c r="O313" s="2">
+        <v>69</v>
+      </c>
+      <c r="P313" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q313" s="2">
+        <v>75</v>
+      </c>
+      <c r="R313" s="2">
+        <v>77</v>
+      </c>
+      <c r="S313" s="2">
+        <v>79</v>
+      </c>
+      <c r="T313" s="2">
+        <v>86</v>
+      </c>
+      <c r="U313" s="2">
+        <v>89</v>
+      </c>
+      <c r="V313" s="2"/>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A314" s="2">
+        <v>2820</v>
+      </c>
+      <c r="B314" s="2">
+        <v>0</v>
+      </c>
+      <c r="C314" s="2">
+        <v>1</v>
+      </c>
+      <c r="D314" s="2">
+        <v>2</v>
+      </c>
+      <c r="E314" s="2">
+        <v>16</v>
+      </c>
+      <c r="F314" s="2">
+        <v>18</v>
+      </c>
+      <c r="G314" s="2">
+        <v>22</v>
+      </c>
+      <c r="H314" s="2">
+        <v>29</v>
+      </c>
+      <c r="I314" s="2">
+        <v>30</v>
+      </c>
+      <c r="J314" s="2">
+        <v>35</v>
+      </c>
+      <c r="K314" s="2">
+        <v>37</v>
+      </c>
+      <c r="L314" s="2">
+        <v>41</v>
+      </c>
+      <c r="M314" s="2">
+        <v>47</v>
+      </c>
+      <c r="N314" s="2">
+        <v>50</v>
+      </c>
+      <c r="O314" s="2">
+        <v>65</v>
+      </c>
+      <c r="P314" s="2">
+        <v>67</v>
+      </c>
+      <c r="Q314" s="2">
+        <v>70</v>
+      </c>
+      <c r="R314" s="2">
+        <v>75</v>
+      </c>
+      <c r="S314" s="2">
+        <v>86</v>
+      </c>
+      <c r="T314" s="2">
+        <v>93</v>
+      </c>
+      <c r="U314" s="2">
+        <v>97</v>
+      </c>
+      <c r="V314" s="2"/>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A315" s="2">
+        <v>2821</v>
+      </c>
+      <c r="B315" s="2">
+        <v>8</v>
+      </c>
+      <c r="C315" s="2">
+        <v>16</v>
+      </c>
+      <c r="D315" s="2">
+        <v>17</v>
+      </c>
+      <c r="E315" s="2">
+        <v>19</v>
+      </c>
+      <c r="F315" s="2">
+        <v>23</v>
+      </c>
+      <c r="G315" s="2">
+        <v>25</v>
+      </c>
+      <c r="H315" s="2">
+        <v>30</v>
+      </c>
+      <c r="I315" s="2">
+        <v>36</v>
+      </c>
+      <c r="J315" s="2">
+        <v>40</v>
+      </c>
+      <c r="K315" s="2">
+        <v>44</v>
+      </c>
+      <c r="L315" s="2">
+        <v>48</v>
+      </c>
+      <c r="M315" s="2">
+        <v>51</v>
+      </c>
+      <c r="N315" s="2">
+        <v>64</v>
+      </c>
+      <c r="O315" s="2">
+        <v>66</v>
+      </c>
+      <c r="P315" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q315" s="2">
+        <v>83</v>
+      </c>
+      <c r="R315" s="2">
+        <v>88</v>
+      </c>
+      <c r="S315" s="2">
+        <v>94</v>
+      </c>
+      <c r="T315" s="2">
+        <v>95</v>
+      </c>
+      <c r="U315" s="2">
+        <v>98</v>
+      </c>
+      <c r="V315" s="2"/>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A316" s="2">
+        <v>2822</v>
+      </c>
+      <c r="B316" s="2">
+        <v>12</v>
+      </c>
+      <c r="C316" s="2">
+        <v>13</v>
+      </c>
+      <c r="D316" s="2">
+        <v>18</v>
+      </c>
+      <c r="E316" s="2">
+        <v>20</v>
+      </c>
+      <c r="F316" s="2">
+        <v>29</v>
+      </c>
+      <c r="G316" s="2">
+        <v>34</v>
+      </c>
+      <c r="H316" s="2">
+        <v>37</v>
+      </c>
+      <c r="I316" s="2">
+        <v>38</v>
+      </c>
+      <c r="J316" s="2">
+        <v>41</v>
+      </c>
+      <c r="K316" s="2">
+        <v>50</v>
+      </c>
+      <c r="L316" s="2">
+        <v>52</v>
+      </c>
+      <c r="M316" s="2">
+        <v>58</v>
+      </c>
+      <c r="N316" s="2">
+        <v>60</v>
+      </c>
+      <c r="O316" s="2">
+        <v>70</v>
+      </c>
+      <c r="P316" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q316" s="2">
+        <v>74</v>
+      </c>
+      <c r="R316" s="2">
+        <v>76</v>
+      </c>
+      <c r="S316" s="2">
+        <v>89</v>
+      </c>
+      <c r="T316" s="2">
+        <v>90</v>
+      </c>
+      <c r="U316" s="2">
+        <v>99</v>
+      </c>
+      <c r="V316" s="2"/>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A317" s="2">
+        <v>2823</v>
+      </c>
+      <c r="B317" s="2">
+        <v>2</v>
+      </c>
+      <c r="C317" s="2">
+        <v>8</v>
+      </c>
+      <c r="D317" s="2">
+        <v>9</v>
+      </c>
+      <c r="E317" s="2">
+        <v>12</v>
+      </c>
+      <c r="F317" s="2">
+        <v>13</v>
+      </c>
+      <c r="G317" s="2">
+        <v>17</v>
+      </c>
+      <c r="H317" s="2">
+        <v>18</v>
+      </c>
+      <c r="I317" s="2">
+        <v>26</v>
+      </c>
+      <c r="J317" s="2">
+        <v>41</v>
+      </c>
+      <c r="K317" s="2">
+        <v>44</v>
+      </c>
+      <c r="L317" s="2">
+        <v>61</v>
+      </c>
+      <c r="M317" s="2">
+        <v>67</v>
+      </c>
+      <c r="N317" s="2">
+        <v>76</v>
+      </c>
+      <c r="O317" s="2">
+        <v>77</v>
+      </c>
+      <c r="P317" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q317" s="2">
+        <v>80</v>
+      </c>
+      <c r="R317" s="2">
+        <v>82</v>
+      </c>
+      <c r="S317" s="2">
+        <v>84</v>
+      </c>
+      <c r="T317" s="2">
+        <v>87</v>
+      </c>
+      <c r="U317" s="2">
+        <v>90</v>
+      </c>
+      <c r="V317" s="2"/>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V318" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -20055,12 +21115,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20232,19 +21293,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20270,12 +21333,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF6BC8D-DCE4-4BAE-9866-287544B1833A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F1A935-B5CF-456B-88FB-0364A2DB3D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57690" yWindow="135" windowWidth="26610" windowHeight="18195" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57960" yWindow="45" windowWidth="30030" windowHeight="12795" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,12 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:V318"/>
+  <dimension ref="A1:U319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="V322" sqref="V322"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="C323" sqref="C323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -19205,7 +19204,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>2795</v>
       </c>
@@ -19270,7 +19269,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>2796</v>
       </c>
@@ -19335,7 +19334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>2797</v>
       </c>
@@ -19400,7 +19399,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>2798</v>
       </c>
@@ -19465,7 +19464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>2799</v>
       </c>
@@ -19530,7 +19529,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>2800</v>
       </c>
@@ -19595,7 +19594,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>2801</v>
       </c>
@@ -19660,7 +19659,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>2802</v>
       </c>
@@ -19725,7 +19724,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>2803</v>
       </c>
@@ -19790,7 +19789,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>2804</v>
       </c>
@@ -19855,7 +19854,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>2805</v>
       </c>
@@ -19920,7 +19919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>2806</v>
       </c>
@@ -19985,7 +19984,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>2807</v>
       </c>
@@ -20050,1064 +20049,1175 @@
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A302" s="2">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A302">
         <v>2808</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302">
         <v>3</v>
       </c>
-      <c r="C302" s="2">
+      <c r="C302">
         <v>11</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302">
         <v>12</v>
       </c>
-      <c r="E302" s="2">
+      <c r="E302">
         <v>15</v>
       </c>
-      <c r="F302" s="2">
+      <c r="F302">
         <v>25</v>
       </c>
-      <c r="G302" s="2">
+      <c r="G302">
         <v>26</v>
       </c>
-      <c r="H302" s="2">
+      <c r="H302">
         <v>27</v>
       </c>
-      <c r="I302" s="2">
+      <c r="I302">
         <v>31</v>
       </c>
-      <c r="J302" s="2">
+      <c r="J302">
         <v>32</v>
       </c>
-      <c r="K302" s="2">
+      <c r="K302">
         <v>39</v>
       </c>
-      <c r="L302" s="2">
+      <c r="L302">
         <v>52</v>
       </c>
-      <c r="M302" s="2">
+      <c r="M302">
         <v>57</v>
       </c>
-      <c r="N302" s="2">
+      <c r="N302">
         <v>58</v>
       </c>
-      <c r="O302" s="2">
+      <c r="O302">
         <v>65</v>
       </c>
-      <c r="P302" s="2">
+      <c r="P302">
         <v>72</v>
       </c>
-      <c r="Q302" s="2">
+      <c r="Q302">
         <v>74</v>
       </c>
-      <c r="R302" s="2">
+      <c r="R302">
         <v>80</v>
       </c>
-      <c r="S302" s="2">
+      <c r="S302">
         <v>83</v>
       </c>
-      <c r="T302" s="2">
+      <c r="T302">
         <v>84</v>
       </c>
-      <c r="U302" s="2">
+      <c r="U302">
         <v>97</v>
       </c>
-      <c r="V302" s="2"/>
-    </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A303" s="2">
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A303">
         <v>2809</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303">
         <v>8</v>
       </c>
-      <c r="C303" s="2">
+      <c r="C303">
         <v>17</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303">
         <v>19</v>
       </c>
-      <c r="E303" s="2">
+      <c r="E303">
         <v>23</v>
       </c>
-      <c r="F303" s="2">
+      <c r="F303">
         <v>25</v>
       </c>
-      <c r="G303" s="2">
+      <c r="G303">
         <v>30</v>
       </c>
-      <c r="H303" s="2">
+      <c r="H303">
         <v>41</v>
       </c>
-      <c r="I303" s="2">
+      <c r="I303">
         <v>48</v>
       </c>
-      <c r="J303" s="2">
+      <c r="J303">
         <v>50</v>
       </c>
-      <c r="K303" s="2">
+      <c r="K303">
         <v>53</v>
       </c>
-      <c r="L303" s="2">
+      <c r="L303">
         <v>65</v>
       </c>
-      <c r="M303" s="2">
+      <c r="M303">
         <v>71</v>
       </c>
-      <c r="N303" s="2">
+      <c r="N303">
         <v>72</v>
       </c>
-      <c r="O303" s="2">
+      <c r="O303">
         <v>75</v>
       </c>
-      <c r="P303" s="2">
+      <c r="P303">
         <v>81</v>
       </c>
-      <c r="Q303" s="2">
+      <c r="Q303">
         <v>84</v>
       </c>
-      <c r="R303" s="2">
+      <c r="R303">
         <v>88</v>
       </c>
-      <c r="S303" s="2">
+      <c r="S303">
         <v>95</v>
       </c>
-      <c r="T303" s="2">
+      <c r="T303">
         <v>96</v>
       </c>
-      <c r="U303" s="2">
+      <c r="U303">
         <v>99</v>
       </c>
-      <c r="V303" s="2"/>
-    </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A304" s="2">
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A304">
         <v>2810</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304">
         <v>3</v>
       </c>
-      <c r="C304" s="2">
+      <c r="C304">
         <v>4</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304">
         <v>6</v>
       </c>
-      <c r="E304" s="2">
+      <c r="E304">
         <v>8</v>
       </c>
-      <c r="F304" s="2">
+      <c r="F304">
         <v>20</v>
       </c>
-      <c r="G304" s="2">
+      <c r="G304">
         <v>22</v>
       </c>
-      <c r="H304" s="2">
+      <c r="H304">
         <v>28</v>
       </c>
-      <c r="I304" s="2">
+      <c r="I304">
         <v>33</v>
       </c>
-      <c r="J304" s="2">
+      <c r="J304">
         <v>37</v>
       </c>
-      <c r="K304" s="2">
+      <c r="K304">
         <v>44</v>
       </c>
-      <c r="L304" s="2">
+      <c r="L304">
         <v>53</v>
       </c>
-      <c r="M304" s="2">
+      <c r="M304">
         <v>54</v>
       </c>
-      <c r="N304" s="2">
+      <c r="N304">
         <v>55</v>
       </c>
-      <c r="O304" s="2">
+      <c r="O304">
         <v>58</v>
       </c>
-      <c r="P304" s="2">
+      <c r="P304">
         <v>61</v>
       </c>
-      <c r="Q304" s="2">
+      <c r="Q304">
         <v>63</v>
       </c>
-      <c r="R304" s="2">
+      <c r="R304">
         <v>73</v>
       </c>
-      <c r="S304" s="2">
+      <c r="S304">
         <v>77</v>
       </c>
-      <c r="T304" s="2">
+      <c r="T304">
         <v>82</v>
       </c>
-      <c r="U304" s="2">
+      <c r="U304">
         <v>95</v>
       </c>
-      <c r="V304" s="2"/>
-    </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A305" s="2">
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A305">
         <v>2811</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305">
         <v>5</v>
       </c>
-      <c r="C305" s="2">
+      <c r="C305">
         <v>22</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305">
         <v>28</v>
       </c>
-      <c r="E305" s="2">
+      <c r="E305">
         <v>33</v>
       </c>
-      <c r="F305" s="2">
+      <c r="F305">
         <v>37</v>
       </c>
-      <c r="G305" s="2">
+      <c r="G305">
         <v>44</v>
       </c>
-      <c r="H305" s="2">
+      <c r="H305">
         <v>46</v>
       </c>
-      <c r="I305" s="2">
+      <c r="I305">
         <v>47</v>
       </c>
-      <c r="J305" s="2">
+      <c r="J305">
         <v>48</v>
       </c>
-      <c r="K305" s="2">
+      <c r="K305">
         <v>54</v>
       </c>
-      <c r="L305" s="2">
+      <c r="L305">
         <v>55</v>
       </c>
-      <c r="M305" s="2">
+      <c r="M305">
         <v>57</v>
       </c>
-      <c r="N305" s="2">
+      <c r="N305">
         <v>68</v>
       </c>
-      <c r="O305" s="2">
+      <c r="O305">
         <v>70</v>
       </c>
-      <c r="P305" s="2">
+      <c r="P305">
         <v>77</v>
       </c>
-      <c r="Q305" s="2">
+      <c r="Q305">
         <v>79</v>
       </c>
-      <c r="R305" s="2">
+      <c r="R305">
         <v>81</v>
       </c>
-      <c r="S305" s="2">
+      <c r="S305">
         <v>87</v>
       </c>
-      <c r="T305" s="2">
+      <c r="T305">
         <v>92</v>
       </c>
-      <c r="U305" s="2">
+      <c r="U305">
         <v>96</v>
       </c>
-      <c r="V305" s="2"/>
-    </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A306" s="2">
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A306">
         <v>2812</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306">
         <v>2</v>
       </c>
-      <c r="C306" s="2">
+      <c r="C306">
         <v>6</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306">
         <v>7</v>
       </c>
-      <c r="E306" s="2">
+      <c r="E306">
         <v>17</v>
       </c>
-      <c r="F306" s="2">
+      <c r="F306">
         <v>20</v>
       </c>
-      <c r="G306" s="2">
+      <c r="G306">
         <v>22</v>
       </c>
-      <c r="H306" s="2">
+      <c r="H306">
         <v>25</v>
       </c>
-      <c r="I306" s="2">
+      <c r="I306">
         <v>32</v>
       </c>
-      <c r="J306" s="2">
+      <c r="J306">
         <v>37</v>
       </c>
-      <c r="K306" s="2">
+      <c r="K306">
         <v>43</v>
       </c>
-      <c r="L306" s="2">
+      <c r="L306">
         <v>49</v>
       </c>
-      <c r="M306" s="2">
+      <c r="M306">
         <v>55</v>
       </c>
-      <c r="N306" s="2">
+      <c r="N306">
         <v>58</v>
       </c>
-      <c r="O306" s="2">
+      <c r="O306">
         <v>71</v>
       </c>
-      <c r="P306" s="2">
+      <c r="P306">
         <v>74</v>
       </c>
-      <c r="Q306" s="2">
+      <c r="Q306">
         <v>79</v>
       </c>
-      <c r="R306" s="2">
+      <c r="R306">
         <v>81</v>
       </c>
-      <c r="S306" s="2">
+      <c r="S306">
         <v>83</v>
       </c>
-      <c r="T306" s="2">
+      <c r="T306">
         <v>87</v>
       </c>
-      <c r="U306" s="2">
+      <c r="U306">
         <v>95</v>
       </c>
-      <c r="V306" s="2"/>
-    </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A307" s="2">
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A307">
         <v>2813</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307">
         <v>7</v>
       </c>
-      <c r="C307" s="2">
+      <c r="C307">
         <v>9</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307">
         <v>16</v>
       </c>
-      <c r="E307" s="2">
+      <c r="E307">
         <v>20</v>
       </c>
-      <c r="F307" s="2">
+      <c r="F307">
         <v>36</v>
       </c>
-      <c r="G307" s="2">
+      <c r="G307">
         <v>40</v>
       </c>
-      <c r="H307" s="2">
+      <c r="H307">
         <v>47</v>
       </c>
-      <c r="I307" s="2">
+      <c r="I307">
         <v>50</v>
       </c>
-      <c r="J307" s="2">
+      <c r="J307">
         <v>54</v>
       </c>
-      <c r="K307" s="2">
+      <c r="K307">
         <v>58</v>
       </c>
-      <c r="L307" s="2">
+      <c r="L307">
         <v>66</v>
       </c>
-      <c r="M307" s="2">
+      <c r="M307">
         <v>74</v>
       </c>
-      <c r="N307" s="2">
+      <c r="N307">
         <v>76</v>
       </c>
-      <c r="O307" s="2">
+      <c r="O307">
         <v>77</v>
       </c>
-      <c r="P307" s="2">
+      <c r="P307">
         <v>80</v>
       </c>
-      <c r="Q307" s="2">
+      <c r="Q307">
         <v>84</v>
       </c>
-      <c r="R307" s="2">
+      <c r="R307">
         <v>86</v>
       </c>
-      <c r="S307" s="2">
+      <c r="S307">
         <v>89</v>
       </c>
-      <c r="T307" s="2">
+      <c r="T307">
         <v>90</v>
       </c>
-      <c r="U307" s="2">
+      <c r="U307">
         <v>99</v>
       </c>
-      <c r="V307" s="2"/>
-    </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A308" s="2">
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A308">
         <v>2814</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308">
         <v>2</v>
       </c>
-      <c r="C308" s="2">
+      <c r="C308">
         <v>5</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D308">
         <v>18</v>
       </c>
-      <c r="E308" s="2">
+      <c r="E308">
         <v>19</v>
       </c>
-      <c r="F308" s="2">
+      <c r="F308">
         <v>22</v>
       </c>
-      <c r="G308" s="2">
+      <c r="G308">
         <v>25</v>
       </c>
-      <c r="H308" s="2">
+      <c r="H308">
         <v>26</v>
       </c>
-      <c r="I308" s="2">
+      <c r="I308">
         <v>28</v>
       </c>
-      <c r="J308" s="2">
+      <c r="J308">
         <v>31</v>
       </c>
-      <c r="K308" s="2">
+      <c r="K308">
         <v>35</v>
       </c>
-      <c r="L308" s="2">
+      <c r="L308">
         <v>40</v>
       </c>
-      <c r="M308" s="2">
+      <c r="M308">
         <v>43</v>
       </c>
-      <c r="N308" s="2">
+      <c r="N308">
         <v>65</v>
       </c>
-      <c r="O308" s="2">
+      <c r="O308">
         <v>71</v>
       </c>
-      <c r="P308" s="2">
+      <c r="P308">
         <v>72</v>
       </c>
-      <c r="Q308" s="2">
+      <c r="Q308">
         <v>73</v>
       </c>
-      <c r="R308" s="2">
+      <c r="R308">
         <v>79</v>
       </c>
-      <c r="S308" s="2">
+      <c r="S308">
         <v>81</v>
       </c>
-      <c r="T308" s="2">
+      <c r="T308">
         <v>93</v>
       </c>
-      <c r="U308" s="2">
+      <c r="U308">
         <v>96</v>
       </c>
-      <c r="V308" s="2"/>
-    </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A309" s="2">
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A309">
         <v>2815</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309">
         <v>1</v>
       </c>
-      <c r="C309" s="2">
+      <c r="C309">
         <v>4</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309">
         <v>5</v>
       </c>
-      <c r="E309" s="2">
+      <c r="E309">
         <v>8</v>
       </c>
-      <c r="F309" s="2">
+      <c r="F309">
         <v>9</v>
       </c>
-      <c r="G309" s="2">
+      <c r="G309">
         <v>32</v>
       </c>
-      <c r="H309" s="2">
+      <c r="H309">
         <v>38</v>
       </c>
-      <c r="I309" s="2">
+      <c r="I309">
         <v>43</v>
       </c>
-      <c r="J309" s="2">
+      <c r="J309">
         <v>52</v>
       </c>
-      <c r="K309" s="2">
+      <c r="K309">
         <v>53</v>
       </c>
-      <c r="L309" s="2">
+      <c r="L309">
         <v>58</v>
       </c>
-      <c r="M309" s="2">
+      <c r="M309">
         <v>62</v>
       </c>
-      <c r="N309" s="2">
+      <c r="N309">
         <v>63</v>
       </c>
-      <c r="O309" s="2">
+      <c r="O309">
         <v>64</v>
       </c>
-      <c r="P309" s="2">
+      <c r="P309">
         <v>68</v>
       </c>
-      <c r="Q309" s="2">
+      <c r="Q309">
         <v>78</v>
       </c>
-      <c r="R309" s="2">
+      <c r="R309">
         <v>79</v>
       </c>
-      <c r="S309" s="2">
+      <c r="S309">
         <v>86</v>
       </c>
-      <c r="T309" s="2">
+      <c r="T309">
         <v>88</v>
       </c>
-      <c r="U309" s="2">
+      <c r="U309">
         <v>89</v>
       </c>
-      <c r="V309" s="2"/>
-    </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A310" s="2">
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A310">
         <v>2816</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310">
         <v>8</v>
       </c>
-      <c r="C310" s="2">
+      <c r="C310">
         <v>13</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310">
         <v>14</v>
       </c>
-      <c r="E310" s="2">
+      <c r="E310">
         <v>21</v>
       </c>
-      <c r="F310" s="2">
+      <c r="F310">
         <v>26</v>
       </c>
-      <c r="G310" s="2">
+      <c r="G310">
         <v>28</v>
       </c>
-      <c r="H310" s="2">
+      <c r="H310">
         <v>31</v>
       </c>
-      <c r="I310" s="2">
+      <c r="I310">
         <v>34</v>
       </c>
-      <c r="J310" s="2">
+      <c r="J310">
         <v>43</v>
       </c>
-      <c r="K310" s="2">
+      <c r="K310">
         <v>44</v>
       </c>
-      <c r="L310" s="2">
+      <c r="L310">
         <v>50</v>
       </c>
-      <c r="M310" s="2">
+      <c r="M310">
         <v>52</v>
       </c>
-      <c r="N310" s="2">
+      <c r="N310">
         <v>54</v>
       </c>
-      <c r="O310" s="2">
+      <c r="O310">
         <v>64</v>
       </c>
-      <c r="P310" s="2">
+      <c r="P310">
         <v>73</v>
       </c>
-      <c r="Q310" s="2">
+      <c r="Q310">
         <v>74</v>
       </c>
-      <c r="R310" s="2">
+      <c r="R310">
         <v>78</v>
       </c>
-      <c r="S310" s="2">
+      <c r="S310">
         <v>84</v>
       </c>
-      <c r="T310" s="2">
+      <c r="T310">
         <v>90</v>
       </c>
-      <c r="U310" s="2">
+      <c r="U310">
         <v>91</v>
       </c>
-      <c r="V310" s="2"/>
-    </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A311" s="2">
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A311">
         <v>2817</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311">
         <v>0</v>
       </c>
-      <c r="C311" s="2">
+      <c r="C311">
         <v>1</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D311">
         <v>4</v>
       </c>
-      <c r="E311" s="2">
+      <c r="E311">
         <v>9</v>
       </c>
-      <c r="F311" s="2">
+      <c r="F311">
         <v>16</v>
       </c>
-      <c r="G311" s="2">
+      <c r="G311">
         <v>20</v>
       </c>
-      <c r="H311" s="2">
+      <c r="H311">
         <v>26</v>
       </c>
-      <c r="I311" s="2">
+      <c r="I311">
         <v>35</v>
       </c>
-      <c r="J311" s="2">
+      <c r="J311">
         <v>49</v>
       </c>
-      <c r="K311" s="2">
+      <c r="K311">
         <v>54</v>
       </c>
-      <c r="L311" s="2">
+      <c r="L311">
         <v>65</v>
       </c>
-      <c r="M311" s="2">
+      <c r="M311">
         <v>72</v>
       </c>
-      <c r="N311" s="2">
+      <c r="N311">
         <v>73</v>
       </c>
-      <c r="O311" s="2">
+      <c r="O311">
         <v>84</v>
       </c>
-      <c r="P311" s="2">
+      <c r="P311">
         <v>85</v>
       </c>
-      <c r="Q311" s="2">
+      <c r="Q311">
         <v>87</v>
       </c>
-      <c r="R311" s="2">
+      <c r="R311">
         <v>93</v>
       </c>
-      <c r="S311" s="2">
+      <c r="S311">
         <v>94</v>
       </c>
-      <c r="T311" s="2">
+      <c r="T311">
         <v>97</v>
       </c>
-      <c r="U311" s="2">
+      <c r="U311">
         <v>98</v>
       </c>
-      <c r="V311" s="2"/>
-    </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A312" s="2">
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A312">
         <v>2818</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312">
         <v>3</v>
       </c>
-      <c r="C312" s="2">
+      <c r="C312">
         <v>4</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312">
         <v>8</v>
       </c>
-      <c r="E312" s="2">
+      <c r="E312">
         <v>15</v>
       </c>
-      <c r="F312" s="2">
+      <c r="F312">
         <v>30</v>
       </c>
-      <c r="G312" s="2">
+      <c r="G312">
         <v>31</v>
       </c>
-      <c r="H312" s="2">
+      <c r="H312">
         <v>32</v>
       </c>
-      <c r="I312" s="2">
+      <c r="I312">
         <v>34</v>
       </c>
-      <c r="J312" s="2">
+      <c r="J312">
         <v>52</v>
       </c>
-      <c r="K312" s="2">
+      <c r="K312">
         <v>53</v>
       </c>
-      <c r="L312" s="2">
+      <c r="L312">
         <v>55</v>
       </c>
-      <c r="M312" s="2">
+      <c r="M312">
         <v>57</v>
       </c>
-      <c r="N312" s="2">
+      <c r="N312">
         <v>58</v>
       </c>
-      <c r="O312" s="2">
+      <c r="O312">
         <v>62</v>
       </c>
-      <c r="P312" s="2">
+      <c r="P312">
         <v>71</v>
       </c>
-      <c r="Q312" s="2">
+      <c r="Q312">
         <v>72</v>
       </c>
-      <c r="R312" s="2">
+      <c r="R312">
         <v>79</v>
       </c>
-      <c r="S312" s="2">
+      <c r="S312">
         <v>86</v>
       </c>
-      <c r="T312" s="2">
+      <c r="T312">
         <v>89</v>
       </c>
-      <c r="U312" s="2">
+      <c r="U312">
         <v>93</v>
       </c>
-      <c r="V312" s="2"/>
-    </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A313" s="2">
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A313">
         <v>2819</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313">
         <v>0</v>
       </c>
-      <c r="C313" s="2">
+      <c r="C313">
         <v>13</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D313">
         <v>16</v>
       </c>
-      <c r="E313" s="2">
+      <c r="E313">
         <v>19</v>
       </c>
-      <c r="F313" s="2">
+      <c r="F313">
         <v>24</v>
       </c>
-      <c r="G313" s="2">
+      <c r="G313">
         <v>28</v>
       </c>
-      <c r="H313" s="2">
+      <c r="H313">
         <v>35</v>
       </c>
-      <c r="I313" s="2">
+      <c r="I313">
         <v>38</v>
       </c>
-      <c r="J313" s="2">
+      <c r="J313">
         <v>44</v>
       </c>
-      <c r="K313" s="2">
+      <c r="K313">
         <v>46</v>
       </c>
-      <c r="L313" s="2">
+      <c r="L313">
         <v>52</v>
       </c>
-      <c r="M313" s="2">
+      <c r="M313">
         <v>53</v>
       </c>
-      <c r="N313" s="2">
+      <c r="N313">
         <v>62</v>
       </c>
-      <c r="O313" s="2">
+      <c r="O313">
         <v>69</v>
       </c>
-      <c r="P313" s="2">
+      <c r="P313">
         <v>71</v>
       </c>
-      <c r="Q313" s="2">
+      <c r="Q313">
         <v>75</v>
       </c>
-      <c r="R313" s="2">
+      <c r="R313">
         <v>77</v>
       </c>
-      <c r="S313" s="2">
+      <c r="S313">
         <v>79</v>
       </c>
-      <c r="T313" s="2">
+      <c r="T313">
         <v>86</v>
       </c>
-      <c r="U313" s="2">
+      <c r="U313">
         <v>89</v>
       </c>
-      <c r="V313" s="2"/>
-    </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A314" s="2">
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A314">
         <v>2820</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314">
         <v>0</v>
       </c>
-      <c r="C314" s="2">
+      <c r="C314">
         <v>1</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314">
         <v>2</v>
       </c>
-      <c r="E314" s="2">
+      <c r="E314">
         <v>16</v>
       </c>
-      <c r="F314" s="2">
+      <c r="F314">
         <v>18</v>
       </c>
-      <c r="G314" s="2">
+      <c r="G314">
         <v>22</v>
       </c>
-      <c r="H314" s="2">
+      <c r="H314">
         <v>29</v>
       </c>
-      <c r="I314" s="2">
+      <c r="I314">
         <v>30</v>
       </c>
-      <c r="J314" s="2">
+      <c r="J314">
         <v>35</v>
       </c>
-      <c r="K314" s="2">
+      <c r="K314">
         <v>37</v>
       </c>
-      <c r="L314" s="2">
+      <c r="L314">
         <v>41</v>
       </c>
-      <c r="M314" s="2">
+      <c r="M314">
         <v>47</v>
       </c>
-      <c r="N314" s="2">
+      <c r="N314">
         <v>50</v>
       </c>
-      <c r="O314" s="2">
+      <c r="O314">
         <v>65</v>
       </c>
-      <c r="P314" s="2">
+      <c r="P314">
         <v>67</v>
       </c>
-      <c r="Q314" s="2">
+      <c r="Q314">
         <v>70</v>
       </c>
-      <c r="R314" s="2">
+      <c r="R314">
         <v>75</v>
       </c>
-      <c r="S314" s="2">
+      <c r="S314">
         <v>86</v>
       </c>
-      <c r="T314" s="2">
+      <c r="T314">
         <v>93</v>
       </c>
-      <c r="U314" s="2">
+      <c r="U314">
         <v>97</v>
       </c>
-      <c r="V314" s="2"/>
-    </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A315" s="2">
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A315">
         <v>2821</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315">
         <v>8</v>
       </c>
-      <c r="C315" s="2">
+      <c r="C315">
         <v>16</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315">
         <v>17</v>
       </c>
-      <c r="E315" s="2">
+      <c r="E315">
         <v>19</v>
       </c>
-      <c r="F315" s="2">
+      <c r="F315">
         <v>23</v>
       </c>
-      <c r="G315" s="2">
+      <c r="G315">
         <v>25</v>
       </c>
-      <c r="H315" s="2">
+      <c r="H315">
         <v>30</v>
       </c>
-      <c r="I315" s="2">
+      <c r="I315">
         <v>36</v>
       </c>
-      <c r="J315" s="2">
+      <c r="J315">
         <v>40</v>
       </c>
-      <c r="K315" s="2">
+      <c r="K315">
         <v>44</v>
       </c>
-      <c r="L315" s="2">
+      <c r="L315">
         <v>48</v>
       </c>
-      <c r="M315" s="2">
+      <c r="M315">
         <v>51</v>
       </c>
-      <c r="N315" s="2">
+      <c r="N315">
         <v>64</v>
       </c>
-      <c r="O315" s="2">
+      <c r="O315">
         <v>66</v>
       </c>
-      <c r="P315" s="2">
+      <c r="P315">
         <v>77</v>
       </c>
-      <c r="Q315" s="2">
+      <c r="Q315">
         <v>83</v>
       </c>
-      <c r="R315" s="2">
+      <c r="R315">
         <v>88</v>
       </c>
-      <c r="S315" s="2">
+      <c r="S315">
         <v>94</v>
       </c>
-      <c r="T315" s="2">
+      <c r="T315">
         <v>95</v>
       </c>
-      <c r="U315" s="2">
+      <c r="U315">
         <v>98</v>
       </c>
-      <c r="V315" s="2"/>
-    </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A316" s="2">
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A316">
         <v>2822</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316">
         <v>12</v>
       </c>
-      <c r="C316" s="2">
+      <c r="C316">
         <v>13</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D316">
         <v>18</v>
       </c>
-      <c r="E316" s="2">
+      <c r="E316">
         <v>20</v>
       </c>
-      <c r="F316" s="2">
+      <c r="F316">
         <v>29</v>
       </c>
-      <c r="G316" s="2">
+      <c r="G316">
         <v>34</v>
       </c>
-      <c r="H316" s="2">
+      <c r="H316">
         <v>37</v>
       </c>
-      <c r="I316" s="2">
+      <c r="I316">
         <v>38</v>
       </c>
-      <c r="J316" s="2">
+      <c r="J316">
         <v>41</v>
       </c>
-      <c r="K316" s="2">
+      <c r="K316">
         <v>50</v>
       </c>
-      <c r="L316" s="2">
+      <c r="L316">
         <v>52</v>
       </c>
-      <c r="M316" s="2">
+      <c r="M316">
         <v>58</v>
       </c>
-      <c r="N316" s="2">
+      <c r="N316">
         <v>60</v>
       </c>
-      <c r="O316" s="2">
+      <c r="O316">
         <v>70</v>
       </c>
-      <c r="P316" s="2">
+      <c r="P316">
         <v>72</v>
       </c>
-      <c r="Q316" s="2">
+      <c r="Q316">
         <v>74</v>
       </c>
-      <c r="R316" s="2">
+      <c r="R316">
         <v>76</v>
       </c>
-      <c r="S316" s="2">
+      <c r="S316">
         <v>89</v>
       </c>
-      <c r="T316" s="2">
+      <c r="T316">
         <v>90</v>
       </c>
-      <c r="U316" s="2">
+      <c r="U316">
         <v>99</v>
       </c>
-      <c r="V316" s="2"/>
-    </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A317" s="2">
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A317">
         <v>2823</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317">
         <v>2</v>
       </c>
-      <c r="C317" s="2">
+      <c r="C317">
         <v>8</v>
       </c>
-      <c r="D317" s="2">
+      <c r="D317">
         <v>9</v>
       </c>
-      <c r="E317" s="2">
+      <c r="E317">
         <v>12</v>
       </c>
-      <c r="F317" s="2">
+      <c r="F317">
         <v>13</v>
       </c>
-      <c r="G317" s="2">
+      <c r="G317">
         <v>17</v>
       </c>
-      <c r="H317" s="2">
+      <c r="H317">
         <v>18</v>
       </c>
-      <c r="I317" s="2">
+      <c r="I317">
         <v>26</v>
       </c>
-      <c r="J317" s="2">
+      <c r="J317">
         <v>41</v>
       </c>
-      <c r="K317" s="2">
+      <c r="K317">
         <v>44</v>
       </c>
-      <c r="L317" s="2">
+      <c r="L317">
         <v>61</v>
       </c>
-      <c r="M317" s="2">
+      <c r="M317">
         <v>67</v>
       </c>
-      <c r="N317" s="2">
+      <c r="N317">
         <v>76</v>
       </c>
-      <c r="O317" s="2">
+      <c r="O317">
         <v>77</v>
       </c>
-      <c r="P317" s="2">
+      <c r="P317">
         <v>79</v>
       </c>
-      <c r="Q317" s="2">
+      <c r="Q317">
         <v>80</v>
       </c>
-      <c r="R317" s="2">
+      <c r="R317">
         <v>82</v>
       </c>
-      <c r="S317" s="2">
+      <c r="S317">
         <v>84</v>
       </c>
-      <c r="T317" s="2">
+      <c r="T317">
         <v>87</v>
       </c>
-      <c r="U317" s="2">
+      <c r="U317">
         <v>90</v>
       </c>
-      <c r="V317" s="2"/>
-    </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="V318" s="2"/>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A318">
+        <v>2824</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>4</v>
+      </c>
+      <c r="D318">
+        <v>8</v>
+      </c>
+      <c r="E318">
+        <v>13</v>
+      </c>
+      <c r="F318">
+        <v>14</v>
+      </c>
+      <c r="G318">
+        <v>23</v>
+      </c>
+      <c r="H318">
+        <v>24</v>
+      </c>
+      <c r="I318">
+        <v>32</v>
+      </c>
+      <c r="J318">
+        <v>42</v>
+      </c>
+      <c r="K318">
+        <v>43</v>
+      </c>
+      <c r="L318">
+        <v>44</v>
+      </c>
+      <c r="M318">
+        <v>48</v>
+      </c>
+      <c r="N318">
+        <v>49</v>
+      </c>
+      <c r="O318">
+        <v>64</v>
+      </c>
+      <c r="P318">
+        <v>67</v>
+      </c>
+      <c r="Q318">
+        <v>68</v>
+      </c>
+      <c r="R318">
+        <v>80</v>
+      </c>
+      <c r="S318">
+        <v>85</v>
+      </c>
+      <c r="T318">
+        <v>87</v>
+      </c>
+      <c r="U318">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A319">
+        <v>2825</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>28</v>
+      </c>
+      <c r="D319">
+        <v>29</v>
+      </c>
+      <c r="E319">
+        <v>30</v>
+      </c>
+      <c r="F319">
+        <v>38</v>
+      </c>
+      <c r="G319">
+        <v>45</v>
+      </c>
+      <c r="H319">
+        <v>50</v>
+      </c>
+      <c r="I319">
+        <v>53</v>
+      </c>
+      <c r="J319">
+        <v>54</v>
+      </c>
+      <c r="K319">
+        <v>57</v>
+      </c>
+      <c r="L319">
+        <v>59</v>
+      </c>
+      <c r="M319">
+        <v>60</v>
+      </c>
+      <c r="N319">
+        <v>61</v>
+      </c>
+      <c r="O319">
+        <v>62</v>
+      </c>
+      <c r="P319">
+        <v>80</v>
+      </c>
+      <c r="Q319">
+        <v>83</v>
+      </c>
+      <c r="R319">
+        <v>84</v>
+      </c>
+      <c r="S319">
+        <v>89</v>
+      </c>
+      <c r="T319">
+        <v>91</v>
+      </c>
+      <c r="U319">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -21115,13 +21225,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21293,21 +21402,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21333,9 +21440,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F1A935-B5CF-456B-88FB-0364A2DB3D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45AB55F-B6B5-4065-B012-ED7CEDC1D0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57960" yWindow="45" windowWidth="30030" windowHeight="12795" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="76785" yWindow="915" windowWidth="18255" windowHeight="17505" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -145,11 +145,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:U319"/>
+  <dimension ref="A1:U336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="C323" sqref="C323"/>
+      <selection activeCell="B326" sqref="B326:U336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -21217,6 +21219,1111 @@
       </c>
       <c r="U319">
         <v>95</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A320">
+        <v>2826</v>
+      </c>
+      <c r="B320">
+        <v>9</v>
+      </c>
+      <c r="C320">
+        <v>10</v>
+      </c>
+      <c r="D320">
+        <v>15</v>
+      </c>
+      <c r="E320">
+        <v>16</v>
+      </c>
+      <c r="F320">
+        <v>17</v>
+      </c>
+      <c r="G320">
+        <v>24</v>
+      </c>
+      <c r="H320">
+        <v>25</v>
+      </c>
+      <c r="I320">
+        <v>26</v>
+      </c>
+      <c r="J320">
+        <v>31</v>
+      </c>
+      <c r="K320">
+        <v>32</v>
+      </c>
+      <c r="L320">
+        <v>41</v>
+      </c>
+      <c r="M320">
+        <v>42</v>
+      </c>
+      <c r="N320">
+        <v>45</v>
+      </c>
+      <c r="O320">
+        <v>48</v>
+      </c>
+      <c r="P320">
+        <v>71</v>
+      </c>
+      <c r="Q320">
+        <v>72</v>
+      </c>
+      <c r="R320">
+        <v>79</v>
+      </c>
+      <c r="S320">
+        <v>84</v>
+      </c>
+      <c r="T320">
+        <v>87</v>
+      </c>
+      <c r="U320">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A321">
+        <v>2827</v>
+      </c>
+      <c r="B321">
+        <v>10</v>
+      </c>
+      <c r="C321">
+        <v>11</v>
+      </c>
+      <c r="D321">
+        <v>17</v>
+      </c>
+      <c r="E321">
+        <v>18</v>
+      </c>
+      <c r="F321">
+        <v>19</v>
+      </c>
+      <c r="G321">
+        <v>24</v>
+      </c>
+      <c r="H321">
+        <v>27</v>
+      </c>
+      <c r="I321">
+        <v>31</v>
+      </c>
+      <c r="J321">
+        <v>37</v>
+      </c>
+      <c r="K321">
+        <v>42</v>
+      </c>
+      <c r="L321">
+        <v>43</v>
+      </c>
+      <c r="M321">
+        <v>57</v>
+      </c>
+      <c r="N321">
+        <v>58</v>
+      </c>
+      <c r="O321">
+        <v>64</v>
+      </c>
+      <c r="P321">
+        <v>66</v>
+      </c>
+      <c r="Q321">
+        <v>71</v>
+      </c>
+      <c r="R321">
+        <v>85</v>
+      </c>
+      <c r="S321">
+        <v>93</v>
+      </c>
+      <c r="T321">
+        <v>94</v>
+      </c>
+      <c r="U321">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A322">
+        <v>2828</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>5</v>
+      </c>
+      <c r="D322">
+        <v>10</v>
+      </c>
+      <c r="E322">
+        <v>17</v>
+      </c>
+      <c r="F322">
+        <v>22</v>
+      </c>
+      <c r="G322">
+        <v>23</v>
+      </c>
+      <c r="H322">
+        <v>29</v>
+      </c>
+      <c r="I322">
+        <v>39</v>
+      </c>
+      <c r="J322">
+        <v>48</v>
+      </c>
+      <c r="K322">
+        <v>56</v>
+      </c>
+      <c r="L322">
+        <v>57</v>
+      </c>
+      <c r="M322">
+        <v>63</v>
+      </c>
+      <c r="N322">
+        <v>67</v>
+      </c>
+      <c r="O322">
+        <v>71</v>
+      </c>
+      <c r="P322">
+        <v>74</v>
+      </c>
+      <c r="Q322">
+        <v>82</v>
+      </c>
+      <c r="R322">
+        <v>84</v>
+      </c>
+      <c r="S322">
+        <v>87</v>
+      </c>
+      <c r="T322">
+        <v>94</v>
+      </c>
+      <c r="U322">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A323">
+        <v>2829</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323">
+        <v>7</v>
+      </c>
+      <c r="D323">
+        <v>9</v>
+      </c>
+      <c r="E323">
+        <v>16</v>
+      </c>
+      <c r="F323">
+        <v>22</v>
+      </c>
+      <c r="G323">
+        <v>24</v>
+      </c>
+      <c r="H323">
+        <v>27</v>
+      </c>
+      <c r="I323">
+        <v>40</v>
+      </c>
+      <c r="J323">
+        <v>45</v>
+      </c>
+      <c r="K323">
+        <v>57</v>
+      </c>
+      <c r="L323">
+        <v>62</v>
+      </c>
+      <c r="M323">
+        <v>64</v>
+      </c>
+      <c r="N323">
+        <v>65</v>
+      </c>
+      <c r="O323">
+        <v>72</v>
+      </c>
+      <c r="P323">
+        <v>75</v>
+      </c>
+      <c r="Q323">
+        <v>86</v>
+      </c>
+      <c r="R323">
+        <v>90</v>
+      </c>
+      <c r="S323">
+        <v>94</v>
+      </c>
+      <c r="T323">
+        <v>96</v>
+      </c>
+      <c r="U323">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A324">
+        <v>2830</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>12</v>
+      </c>
+      <c r="D324">
+        <v>14</v>
+      </c>
+      <c r="E324">
+        <v>18</v>
+      </c>
+      <c r="F324">
+        <v>22</v>
+      </c>
+      <c r="G324">
+        <v>23</v>
+      </c>
+      <c r="H324">
+        <v>25</v>
+      </c>
+      <c r="I324">
+        <v>29</v>
+      </c>
+      <c r="J324">
+        <v>30</v>
+      </c>
+      <c r="K324">
+        <v>33</v>
+      </c>
+      <c r="L324">
+        <v>34</v>
+      </c>
+      <c r="M324">
+        <v>49</v>
+      </c>
+      <c r="N324">
+        <v>55</v>
+      </c>
+      <c r="O324">
+        <v>67</v>
+      </c>
+      <c r="P324">
+        <v>71</v>
+      </c>
+      <c r="Q324">
+        <v>80</v>
+      </c>
+      <c r="R324">
+        <v>83</v>
+      </c>
+      <c r="S324">
+        <v>84</v>
+      </c>
+      <c r="T324">
+        <v>92</v>
+      </c>
+      <c r="U324">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A325">
+        <v>2831</v>
+      </c>
+      <c r="B325">
+        <v>4</v>
+      </c>
+      <c r="C325">
+        <v>5</v>
+      </c>
+      <c r="D325">
+        <v>7</v>
+      </c>
+      <c r="E325">
+        <v>15</v>
+      </c>
+      <c r="F325">
+        <v>16</v>
+      </c>
+      <c r="G325">
+        <v>24</v>
+      </c>
+      <c r="H325">
+        <v>25</v>
+      </c>
+      <c r="I325">
+        <v>28</v>
+      </c>
+      <c r="J325">
+        <v>38</v>
+      </c>
+      <c r="K325">
+        <v>41</v>
+      </c>
+      <c r="L325">
+        <v>43</v>
+      </c>
+      <c r="M325">
+        <v>47</v>
+      </c>
+      <c r="N325">
+        <v>61</v>
+      </c>
+      <c r="O325">
+        <v>64</v>
+      </c>
+      <c r="P325">
+        <v>69</v>
+      </c>
+      <c r="Q325">
+        <v>70</v>
+      </c>
+      <c r="R325">
+        <v>77</v>
+      </c>
+      <c r="S325">
+        <v>81</v>
+      </c>
+      <c r="T325">
+        <v>85</v>
+      </c>
+      <c r="U325">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A326" s="2">
+        <v>2832</v>
+      </c>
+      <c r="B326" s="3">
+        <v>3</v>
+      </c>
+      <c r="C326" s="3">
+        <v>14</v>
+      </c>
+      <c r="D326" s="3">
+        <v>18</v>
+      </c>
+      <c r="E326" s="3">
+        <v>20</v>
+      </c>
+      <c r="F326" s="3">
+        <v>22</v>
+      </c>
+      <c r="G326" s="3">
+        <v>23</v>
+      </c>
+      <c r="H326" s="3">
+        <v>25</v>
+      </c>
+      <c r="I326" s="3">
+        <v>30</v>
+      </c>
+      <c r="J326" s="3">
+        <v>40</v>
+      </c>
+      <c r="K326" s="3">
+        <v>47</v>
+      </c>
+      <c r="L326" s="3">
+        <v>49</v>
+      </c>
+      <c r="M326" s="3">
+        <v>53</v>
+      </c>
+      <c r="N326" s="3">
+        <v>63</v>
+      </c>
+      <c r="O326" s="3">
+        <v>66</v>
+      </c>
+      <c r="P326" s="3">
+        <v>82</v>
+      </c>
+      <c r="Q326" s="3">
+        <v>87</v>
+      </c>
+      <c r="R326" s="3">
+        <v>90</v>
+      </c>
+      <c r="S326" s="3">
+        <v>92</v>
+      </c>
+      <c r="T326" s="3">
+        <v>93</v>
+      </c>
+      <c r="U326" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A327" s="2">
+        <v>2833</v>
+      </c>
+      <c r="B327" s="3">
+        <v>15</v>
+      </c>
+      <c r="C327" s="3">
+        <v>19</v>
+      </c>
+      <c r="D327" s="3">
+        <v>22</v>
+      </c>
+      <c r="E327" s="3">
+        <v>30</v>
+      </c>
+      <c r="F327" s="3">
+        <v>33</v>
+      </c>
+      <c r="G327" s="3">
+        <v>40</v>
+      </c>
+      <c r="H327" s="3">
+        <v>44</v>
+      </c>
+      <c r="I327" s="3">
+        <v>46</v>
+      </c>
+      <c r="J327" s="3">
+        <v>49</v>
+      </c>
+      <c r="K327" s="3">
+        <v>54</v>
+      </c>
+      <c r="L327" s="3">
+        <v>57</v>
+      </c>
+      <c r="M327" s="3">
+        <v>61</v>
+      </c>
+      <c r="N327" s="3">
+        <v>66</v>
+      </c>
+      <c r="O327" s="3">
+        <v>70</v>
+      </c>
+      <c r="P327" s="3">
+        <v>71</v>
+      </c>
+      <c r="Q327" s="3">
+        <v>75</v>
+      </c>
+      <c r="R327" s="3">
+        <v>81</v>
+      </c>
+      <c r="S327" s="3">
+        <v>82</v>
+      </c>
+      <c r="T327" s="3">
+        <v>97</v>
+      </c>
+      <c r="U327" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A328" s="2">
+        <v>2834</v>
+      </c>
+      <c r="B328" s="3">
+        <v>9</v>
+      </c>
+      <c r="C328" s="3">
+        <v>13</v>
+      </c>
+      <c r="D328" s="3">
+        <v>27</v>
+      </c>
+      <c r="E328" s="3">
+        <v>40</v>
+      </c>
+      <c r="F328" s="3">
+        <v>41</v>
+      </c>
+      <c r="G328" s="3">
+        <v>42</v>
+      </c>
+      <c r="H328" s="3">
+        <v>43</v>
+      </c>
+      <c r="I328" s="3">
+        <v>47</v>
+      </c>
+      <c r="J328" s="3">
+        <v>53</v>
+      </c>
+      <c r="K328" s="3">
+        <v>61</v>
+      </c>
+      <c r="L328" s="3">
+        <v>62</v>
+      </c>
+      <c r="M328" s="3">
+        <v>65</v>
+      </c>
+      <c r="N328" s="3">
+        <v>66</v>
+      </c>
+      <c r="O328" s="3">
+        <v>67</v>
+      </c>
+      <c r="P328" s="3">
+        <v>72</v>
+      </c>
+      <c r="Q328" s="3">
+        <v>77</v>
+      </c>
+      <c r="R328" s="3">
+        <v>88</v>
+      </c>
+      <c r="S328" s="3">
+        <v>92</v>
+      </c>
+      <c r="T328" s="3">
+        <v>93</v>
+      </c>
+      <c r="U328" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A329" s="2">
+        <v>2835</v>
+      </c>
+      <c r="B329" s="3">
+        <v>7</v>
+      </c>
+      <c r="C329" s="3">
+        <v>8</v>
+      </c>
+      <c r="D329" s="3">
+        <v>24</v>
+      </c>
+      <c r="E329" s="3">
+        <v>27</v>
+      </c>
+      <c r="F329" s="3">
+        <v>29</v>
+      </c>
+      <c r="G329" s="3">
+        <v>33</v>
+      </c>
+      <c r="H329" s="3">
+        <v>40</v>
+      </c>
+      <c r="I329" s="3">
+        <v>46</v>
+      </c>
+      <c r="J329" s="3">
+        <v>49</v>
+      </c>
+      <c r="K329" s="3">
+        <v>50</v>
+      </c>
+      <c r="L329" s="3">
+        <v>66</v>
+      </c>
+      <c r="M329" s="3">
+        <v>68</v>
+      </c>
+      <c r="N329" s="3">
+        <v>75</v>
+      </c>
+      <c r="O329" s="3">
+        <v>81</v>
+      </c>
+      <c r="P329" s="3">
+        <v>82</v>
+      </c>
+      <c r="Q329" s="3">
+        <v>86</v>
+      </c>
+      <c r="R329" s="3">
+        <v>88</v>
+      </c>
+      <c r="S329" s="3">
+        <v>92</v>
+      </c>
+      <c r="T329" s="3">
+        <v>98</v>
+      </c>
+      <c r="U329" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A330" s="2">
+        <v>2836</v>
+      </c>
+      <c r="B330" s="3">
+        <v>15</v>
+      </c>
+      <c r="C330" s="3">
+        <v>20</v>
+      </c>
+      <c r="D330" s="3">
+        <v>24</v>
+      </c>
+      <c r="E330" s="3">
+        <v>26</v>
+      </c>
+      <c r="F330" s="3">
+        <v>27</v>
+      </c>
+      <c r="G330" s="3">
+        <v>46</v>
+      </c>
+      <c r="H330" s="3">
+        <v>47</v>
+      </c>
+      <c r="I330" s="3">
+        <v>50</v>
+      </c>
+      <c r="J330" s="3">
+        <v>51</v>
+      </c>
+      <c r="K330" s="3">
+        <v>54</v>
+      </c>
+      <c r="L330" s="3">
+        <v>55</v>
+      </c>
+      <c r="M330" s="3">
+        <v>56</v>
+      </c>
+      <c r="N330" s="3">
+        <v>58</v>
+      </c>
+      <c r="O330" s="3">
+        <v>59</v>
+      </c>
+      <c r="P330" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q330" s="3">
+        <v>82</v>
+      </c>
+      <c r="R330" s="3">
+        <v>85</v>
+      </c>
+      <c r="S330" s="3">
+        <v>88</v>
+      </c>
+      <c r="T330" s="3">
+        <v>90</v>
+      </c>
+      <c r="U330" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A331" s="2">
+        <v>2837</v>
+      </c>
+      <c r="B331" s="3">
+        <v>1</v>
+      </c>
+      <c r="C331" s="3">
+        <v>6</v>
+      </c>
+      <c r="D331" s="3">
+        <v>8</v>
+      </c>
+      <c r="E331" s="3">
+        <v>10</v>
+      </c>
+      <c r="F331" s="3">
+        <v>11</v>
+      </c>
+      <c r="G331" s="3">
+        <v>15</v>
+      </c>
+      <c r="H331" s="3">
+        <v>19</v>
+      </c>
+      <c r="I331" s="3">
+        <v>22</v>
+      </c>
+      <c r="J331" s="3">
+        <v>38</v>
+      </c>
+      <c r="K331" s="3">
+        <v>43</v>
+      </c>
+      <c r="L331" s="3">
+        <v>50</v>
+      </c>
+      <c r="M331" s="3">
+        <v>61</v>
+      </c>
+      <c r="N331" s="3">
+        <v>62</v>
+      </c>
+      <c r="O331" s="3">
+        <v>65</v>
+      </c>
+      <c r="P331" s="3">
+        <v>69</v>
+      </c>
+      <c r="Q331" s="3">
+        <v>74</v>
+      </c>
+      <c r="R331" s="3">
+        <v>77</v>
+      </c>
+      <c r="S331" s="3">
+        <v>84</v>
+      </c>
+      <c r="T331" s="3">
+        <v>85</v>
+      </c>
+      <c r="U331" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A332" s="2">
+        <v>2838</v>
+      </c>
+      <c r="B332" s="3">
+        <v>5</v>
+      </c>
+      <c r="C332" s="3">
+        <v>6</v>
+      </c>
+      <c r="D332" s="3">
+        <v>12</v>
+      </c>
+      <c r="E332" s="3">
+        <v>16</v>
+      </c>
+      <c r="F332" s="3">
+        <v>23</v>
+      </c>
+      <c r="G332" s="3">
+        <v>24</v>
+      </c>
+      <c r="H332" s="3">
+        <v>31</v>
+      </c>
+      <c r="I332" s="3">
+        <v>34</v>
+      </c>
+      <c r="J332" s="3">
+        <v>35</v>
+      </c>
+      <c r="K332" s="3">
+        <v>36</v>
+      </c>
+      <c r="L332" s="3">
+        <v>43</v>
+      </c>
+      <c r="M332" s="3">
+        <v>53</v>
+      </c>
+      <c r="N332" s="3">
+        <v>58</v>
+      </c>
+      <c r="O332" s="3">
+        <v>63</v>
+      </c>
+      <c r="P332" s="3">
+        <v>82</v>
+      </c>
+      <c r="Q332" s="3">
+        <v>85</v>
+      </c>
+      <c r="R332" s="3">
+        <v>86</v>
+      </c>
+      <c r="S332" s="3">
+        <v>87</v>
+      </c>
+      <c r="T332" s="3">
+        <v>97</v>
+      </c>
+      <c r="U332" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A333" s="2">
+        <v>2839</v>
+      </c>
+      <c r="B333" s="3">
+        <v>2</v>
+      </c>
+      <c r="C333" s="3">
+        <v>9</v>
+      </c>
+      <c r="D333" s="3">
+        <v>13</v>
+      </c>
+      <c r="E333" s="3">
+        <v>23</v>
+      </c>
+      <c r="F333" s="3">
+        <v>26</v>
+      </c>
+      <c r="G333" s="3">
+        <v>38</v>
+      </c>
+      <c r="H333" s="3">
+        <v>45</v>
+      </c>
+      <c r="I333" s="3">
+        <v>48</v>
+      </c>
+      <c r="J333" s="3">
+        <v>51</v>
+      </c>
+      <c r="K333" s="3">
+        <v>56</v>
+      </c>
+      <c r="L333" s="3">
+        <v>61</v>
+      </c>
+      <c r="M333" s="3">
+        <v>69</v>
+      </c>
+      <c r="N333" s="3">
+        <v>73</v>
+      </c>
+      <c r="O333" s="3">
+        <v>76</v>
+      </c>
+      <c r="P333" s="3">
+        <v>77</v>
+      </c>
+      <c r="Q333" s="3">
+        <v>83</v>
+      </c>
+      <c r="R333" s="3">
+        <v>87</v>
+      </c>
+      <c r="S333" s="3">
+        <v>93</v>
+      </c>
+      <c r="T333" s="3">
+        <v>95</v>
+      </c>
+      <c r="U333" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A334" s="2">
+        <v>2840</v>
+      </c>
+      <c r="B334" s="3">
+        <v>3</v>
+      </c>
+      <c r="C334" s="3">
+        <v>4</v>
+      </c>
+      <c r="D334" s="3">
+        <v>7</v>
+      </c>
+      <c r="E334" s="3">
+        <v>19</v>
+      </c>
+      <c r="F334" s="3">
+        <v>22</v>
+      </c>
+      <c r="G334" s="3">
+        <v>24</v>
+      </c>
+      <c r="H334" s="3">
+        <v>30</v>
+      </c>
+      <c r="I334" s="3">
+        <v>32</v>
+      </c>
+      <c r="J334" s="3">
+        <v>38</v>
+      </c>
+      <c r="K334" s="3">
+        <v>39</v>
+      </c>
+      <c r="L334" s="3">
+        <v>42</v>
+      </c>
+      <c r="M334" s="3">
+        <v>43</v>
+      </c>
+      <c r="N334" s="3">
+        <v>46</v>
+      </c>
+      <c r="O334" s="3">
+        <v>47</v>
+      </c>
+      <c r="P334" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q334" s="3">
+        <v>51</v>
+      </c>
+      <c r="R334" s="3">
+        <v>62</v>
+      </c>
+      <c r="S334" s="3">
+        <v>68</v>
+      </c>
+      <c r="T334" s="3">
+        <v>72</v>
+      </c>
+      <c r="U334" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A335" s="2">
+        <v>2841</v>
+      </c>
+      <c r="B335" s="3">
+        <v>0</v>
+      </c>
+      <c r="C335" s="3">
+        <v>7</v>
+      </c>
+      <c r="D335" s="3">
+        <v>8</v>
+      </c>
+      <c r="E335" s="3">
+        <v>10</v>
+      </c>
+      <c r="F335" s="3">
+        <v>13</v>
+      </c>
+      <c r="G335" s="3">
+        <v>16</v>
+      </c>
+      <c r="H335" s="3">
+        <v>24</v>
+      </c>
+      <c r="I335" s="3">
+        <v>26</v>
+      </c>
+      <c r="J335" s="3">
+        <v>31</v>
+      </c>
+      <c r="K335" s="3">
+        <v>37</v>
+      </c>
+      <c r="L335" s="3">
+        <v>39</v>
+      </c>
+      <c r="M335" s="3">
+        <v>41</v>
+      </c>
+      <c r="N335" s="3">
+        <v>42</v>
+      </c>
+      <c r="O335" s="3">
+        <v>43</v>
+      </c>
+      <c r="P335" s="3">
+        <v>52</v>
+      </c>
+      <c r="Q335" s="3">
+        <v>57</v>
+      </c>
+      <c r="R335" s="3">
+        <v>70</v>
+      </c>
+      <c r="S335" s="3">
+        <v>73</v>
+      </c>
+      <c r="T335" s="3">
+        <v>75</v>
+      </c>
+      <c r="U335" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A336" s="2">
+        <v>2842</v>
+      </c>
+      <c r="B336" s="3">
+        <v>5</v>
+      </c>
+      <c r="C336" s="3">
+        <v>6</v>
+      </c>
+      <c r="D336" s="3">
+        <v>10</v>
+      </c>
+      <c r="E336" s="3">
+        <v>11</v>
+      </c>
+      <c r="F336" s="3">
+        <v>12</v>
+      </c>
+      <c r="G336" s="3">
+        <v>21</v>
+      </c>
+      <c r="H336" s="3">
+        <v>25</v>
+      </c>
+      <c r="I336" s="3">
+        <v>27</v>
+      </c>
+      <c r="J336" s="3">
+        <v>35</v>
+      </c>
+      <c r="K336" s="3">
+        <v>44</v>
+      </c>
+      <c r="L336" s="3">
+        <v>48</v>
+      </c>
+      <c r="M336" s="3">
+        <v>54</v>
+      </c>
+      <c r="N336" s="3">
+        <v>63</v>
+      </c>
+      <c r="O336" s="3">
+        <v>64</v>
+      </c>
+      <c r="P336" s="3">
+        <v>67</v>
+      </c>
+      <c r="Q336" s="3">
+        <v>75</v>
+      </c>
+      <c r="R336" s="3">
+        <v>76</v>
+      </c>
+      <c r="S336" s="3">
+        <v>83</v>
+      </c>
+      <c r="T336" s="3">
+        <v>84</v>
+      </c>
+      <c r="U336" s="3">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45AB55F-B6B5-4065-B012-ED7CEDC1D0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811C3CDC-7F99-46A2-A5BB-54070718FBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76785" yWindow="915" windowWidth="18255" windowHeight="17505" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57975" yWindow="330" windowWidth="23685" windowHeight="13800" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:U336"/>
+  <dimension ref="A1:U340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="B326" sqref="B326:U336"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="B337" sqref="B337:U340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -21612,718 +21612,978 @@
       </c>
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A326" s="2">
+      <c r="A326">
         <v>2832</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326">
         <v>3</v>
       </c>
-      <c r="C326" s="3">
+      <c r="C326">
         <v>14</v>
       </c>
-      <c r="D326" s="3">
+      <c r="D326">
         <v>18</v>
       </c>
-      <c r="E326" s="3">
+      <c r="E326">
         <v>20</v>
       </c>
-      <c r="F326" s="3">
+      <c r="F326">
         <v>22</v>
       </c>
-      <c r="G326" s="3">
+      <c r="G326">
         <v>23</v>
       </c>
-      <c r="H326" s="3">
+      <c r="H326">
         <v>25</v>
       </c>
-      <c r="I326" s="3">
+      <c r="I326">
         <v>30</v>
       </c>
-      <c r="J326" s="3">
+      <c r="J326">
         <v>40</v>
       </c>
-      <c r="K326" s="3">
+      <c r="K326">
         <v>47</v>
       </c>
-      <c r="L326" s="3">
+      <c r="L326">
         <v>49</v>
       </c>
-      <c r="M326" s="3">
+      <c r="M326">
         <v>53</v>
       </c>
-      <c r="N326" s="3">
+      <c r="N326">
         <v>63</v>
       </c>
-      <c r="O326" s="3">
+      <c r="O326">
         <v>66</v>
       </c>
-      <c r="P326" s="3">
+      <c r="P326">
         <v>82</v>
       </c>
-      <c r="Q326" s="3">
+      <c r="Q326">
         <v>87</v>
       </c>
-      <c r="R326" s="3">
+      <c r="R326">
         <v>90</v>
       </c>
-      <c r="S326" s="3">
+      <c r="S326">
         <v>92</v>
       </c>
-      <c r="T326" s="3">
+      <c r="T326">
         <v>93</v>
       </c>
-      <c r="U326" s="3">
+      <c r="U326">
         <v>98</v>
       </c>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A327" s="2">
+      <c r="A327">
         <v>2833</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327">
         <v>15</v>
       </c>
-      <c r="C327" s="3">
+      <c r="C327">
         <v>19</v>
       </c>
-      <c r="D327" s="3">
+      <c r="D327">
         <v>22</v>
       </c>
-      <c r="E327" s="3">
+      <c r="E327">
         <v>30</v>
       </c>
-      <c r="F327" s="3">
+      <c r="F327">
         <v>33</v>
       </c>
-      <c r="G327" s="3">
+      <c r="G327">
         <v>40</v>
       </c>
-      <c r="H327" s="3">
+      <c r="H327">
         <v>44</v>
       </c>
-      <c r="I327" s="3">
+      <c r="I327">
         <v>46</v>
       </c>
-      <c r="J327" s="3">
+      <c r="J327">
         <v>49</v>
       </c>
-      <c r="K327" s="3">
+      <c r="K327">
         <v>54</v>
       </c>
-      <c r="L327" s="3">
+      <c r="L327">
         <v>57</v>
       </c>
-      <c r="M327" s="3">
+      <c r="M327">
         <v>61</v>
       </c>
-      <c r="N327" s="3">
+      <c r="N327">
         <v>66</v>
       </c>
-      <c r="O327" s="3">
+      <c r="O327">
         <v>70</v>
       </c>
-      <c r="P327" s="3">
+      <c r="P327">
         <v>71</v>
       </c>
-      <c r="Q327" s="3">
+      <c r="Q327">
         <v>75</v>
       </c>
-      <c r="R327" s="3">
+      <c r="R327">
         <v>81</v>
       </c>
-      <c r="S327" s="3">
+      <c r="S327">
         <v>82</v>
       </c>
-      <c r="T327" s="3">
+      <c r="T327">
         <v>97</v>
       </c>
-      <c r="U327" s="3">
+      <c r="U327">
         <v>99</v>
       </c>
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A328" s="2">
+      <c r="A328">
         <v>2834</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328">
         <v>9</v>
       </c>
-      <c r="C328" s="3">
+      <c r="C328">
         <v>13</v>
       </c>
-      <c r="D328" s="3">
+      <c r="D328">
         <v>27</v>
       </c>
-      <c r="E328" s="3">
+      <c r="E328">
         <v>40</v>
       </c>
-      <c r="F328" s="3">
+      <c r="F328">
         <v>41</v>
       </c>
-      <c r="G328" s="3">
+      <c r="G328">
         <v>42</v>
       </c>
-      <c r="H328" s="3">
+      <c r="H328">
         <v>43</v>
       </c>
-      <c r="I328" s="3">
+      <c r="I328">
         <v>47</v>
       </c>
-      <c r="J328" s="3">
+      <c r="J328">
         <v>53</v>
       </c>
-      <c r="K328" s="3">
+      <c r="K328">
         <v>61</v>
       </c>
-      <c r="L328" s="3">
+      <c r="L328">
         <v>62</v>
       </c>
-      <c r="M328" s="3">
+      <c r="M328">
         <v>65</v>
       </c>
-      <c r="N328" s="3">
+      <c r="N328">
         <v>66</v>
       </c>
-      <c r="O328" s="3">
+      <c r="O328">
         <v>67</v>
       </c>
-      <c r="P328" s="3">
+      <c r="P328">
         <v>72</v>
       </c>
-      <c r="Q328" s="3">
+      <c r="Q328">
         <v>77</v>
       </c>
-      <c r="R328" s="3">
+      <c r="R328">
         <v>88</v>
       </c>
-      <c r="S328" s="3">
+      <c r="S328">
         <v>92</v>
       </c>
-      <c r="T328" s="3">
+      <c r="T328">
         <v>93</v>
       </c>
-      <c r="U328" s="3">
+      <c r="U328">
         <v>94</v>
       </c>
     </row>
     <row r="329" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A329" s="2">
+      <c r="A329">
         <v>2835</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329">
         <v>7</v>
       </c>
-      <c r="C329" s="3">
+      <c r="C329">
         <v>8</v>
       </c>
-      <c r="D329" s="3">
+      <c r="D329">
         <v>24</v>
       </c>
-      <c r="E329" s="3">
+      <c r="E329">
         <v>27</v>
       </c>
-      <c r="F329" s="3">
+      <c r="F329">
         <v>29</v>
       </c>
-      <c r="G329" s="3">
+      <c r="G329">
         <v>33</v>
       </c>
-      <c r="H329" s="3">
+      <c r="H329">
         <v>40</v>
       </c>
-      <c r="I329" s="3">
+      <c r="I329">
         <v>46</v>
       </c>
-      <c r="J329" s="3">
+      <c r="J329">
         <v>49</v>
       </c>
-      <c r="K329" s="3">
+      <c r="K329">
         <v>50</v>
       </c>
-      <c r="L329" s="3">
+      <c r="L329">
         <v>66</v>
       </c>
-      <c r="M329" s="3">
+      <c r="M329">
         <v>68</v>
       </c>
-      <c r="N329" s="3">
+      <c r="N329">
         <v>75</v>
       </c>
-      <c r="O329" s="3">
+      <c r="O329">
         <v>81</v>
       </c>
-      <c r="P329" s="3">
+      <c r="P329">
         <v>82</v>
       </c>
-      <c r="Q329" s="3">
+      <c r="Q329">
         <v>86</v>
       </c>
-      <c r="R329" s="3">
+      <c r="R329">
         <v>88</v>
       </c>
-      <c r="S329" s="3">
+      <c r="S329">
         <v>92</v>
       </c>
-      <c r="T329" s="3">
+      <c r="T329">
         <v>98</v>
       </c>
-      <c r="U329" s="3">
+      <c r="U329">
         <v>99</v>
       </c>
     </row>
     <row r="330" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A330" s="2">
+      <c r="A330">
         <v>2836</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330">
         <v>15</v>
       </c>
-      <c r="C330" s="3">
+      <c r="C330">
         <v>20</v>
       </c>
-      <c r="D330" s="3">
+      <c r="D330">
         <v>24</v>
       </c>
-      <c r="E330" s="3">
+      <c r="E330">
         <v>26</v>
       </c>
-      <c r="F330" s="3">
+      <c r="F330">
         <v>27</v>
       </c>
-      <c r="G330" s="3">
+      <c r="G330">
         <v>46</v>
       </c>
-      <c r="H330" s="3">
+      <c r="H330">
         <v>47</v>
       </c>
-      <c r="I330" s="3">
+      <c r="I330">
         <v>50</v>
       </c>
-      <c r="J330" s="3">
+      <c r="J330">
         <v>51</v>
       </c>
-      <c r="K330" s="3">
+      <c r="K330">
         <v>54</v>
       </c>
-      <c r="L330" s="3">
+      <c r="L330">
         <v>55</v>
       </c>
-      <c r="M330" s="3">
+      <c r="M330">
         <v>56</v>
       </c>
-      <c r="N330" s="3">
+      <c r="N330">
         <v>58</v>
       </c>
-      <c r="O330" s="3">
+      <c r="O330">
         <v>59</v>
       </c>
-      <c r="P330" s="3">
+      <c r="P330">
         <v>66</v>
       </c>
-      <c r="Q330" s="3">
+      <c r="Q330">
         <v>82</v>
       </c>
-      <c r="R330" s="3">
+      <c r="R330">
         <v>85</v>
       </c>
-      <c r="S330" s="3">
+      <c r="S330">
         <v>88</v>
       </c>
-      <c r="T330" s="3">
+      <c r="T330">
         <v>90</v>
       </c>
-      <c r="U330" s="3">
+      <c r="U330">
         <v>99</v>
       </c>
     </row>
     <row r="331" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A331" s="2">
+      <c r="A331">
         <v>2837</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331">
         <v>1</v>
       </c>
-      <c r="C331" s="3">
+      <c r="C331">
         <v>6</v>
       </c>
-      <c r="D331" s="3">
+      <c r="D331">
         <v>8</v>
       </c>
-      <c r="E331" s="3">
+      <c r="E331">
         <v>10</v>
       </c>
-      <c r="F331" s="3">
+      <c r="F331">
         <v>11</v>
       </c>
-      <c r="G331" s="3">
+      <c r="G331">
         <v>15</v>
       </c>
-      <c r="H331" s="3">
+      <c r="H331">
         <v>19</v>
       </c>
-      <c r="I331" s="3">
+      <c r="I331">
         <v>22</v>
       </c>
-      <c r="J331" s="3">
+      <c r="J331">
         <v>38</v>
       </c>
-      <c r="K331" s="3">
+      <c r="K331">
         <v>43</v>
       </c>
-      <c r="L331" s="3">
+      <c r="L331">
         <v>50</v>
       </c>
-      <c r="M331" s="3">
+      <c r="M331">
         <v>61</v>
       </c>
-      <c r="N331" s="3">
+      <c r="N331">
         <v>62</v>
       </c>
-      <c r="O331" s="3">
+      <c r="O331">
         <v>65</v>
       </c>
-      <c r="P331" s="3">
+      <c r="P331">
         <v>69</v>
       </c>
-      <c r="Q331" s="3">
+      <c r="Q331">
         <v>74</v>
       </c>
-      <c r="R331" s="3">
+      <c r="R331">
         <v>77</v>
       </c>
-      <c r="S331" s="3">
+      <c r="S331">
         <v>84</v>
       </c>
-      <c r="T331" s="3">
+      <c r="T331">
         <v>85</v>
       </c>
-      <c r="U331" s="3">
+      <c r="U331">
         <v>99</v>
       </c>
     </row>
     <row r="332" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A332" s="2">
+      <c r="A332">
         <v>2838</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332">
         <v>5</v>
       </c>
-      <c r="C332" s="3">
+      <c r="C332">
         <v>6</v>
       </c>
-      <c r="D332" s="3">
+      <c r="D332">
         <v>12</v>
       </c>
-      <c r="E332" s="3">
+      <c r="E332">
         <v>16</v>
       </c>
-      <c r="F332" s="3">
+      <c r="F332">
         <v>23</v>
       </c>
-      <c r="G332" s="3">
+      <c r="G332">
         <v>24</v>
       </c>
-      <c r="H332" s="3">
+      <c r="H332">
         <v>31</v>
       </c>
-      <c r="I332" s="3">
+      <c r="I332">
         <v>34</v>
       </c>
-      <c r="J332" s="3">
+      <c r="J332">
         <v>35</v>
       </c>
-      <c r="K332" s="3">
+      <c r="K332">
         <v>36</v>
       </c>
-      <c r="L332" s="3">
+      <c r="L332">
         <v>43</v>
       </c>
-      <c r="M332" s="3">
+      <c r="M332">
         <v>53</v>
       </c>
-      <c r="N332" s="3">
+      <c r="N332">
         <v>58</v>
       </c>
-      <c r="O332" s="3">
+      <c r="O332">
         <v>63</v>
       </c>
-      <c r="P332" s="3">
+      <c r="P332">
         <v>82</v>
       </c>
-      <c r="Q332" s="3">
+      <c r="Q332">
         <v>85</v>
       </c>
-      <c r="R332" s="3">
+      <c r="R332">
         <v>86</v>
       </c>
-      <c r="S332" s="3">
+      <c r="S332">
         <v>87</v>
       </c>
-      <c r="T332" s="3">
+      <c r="T332">
         <v>97</v>
       </c>
-      <c r="U332" s="3">
+      <c r="U332">
         <v>99</v>
       </c>
     </row>
     <row r="333" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A333" s="2">
+      <c r="A333">
         <v>2839</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333">
         <v>2</v>
       </c>
-      <c r="C333" s="3">
+      <c r="C333">
         <v>9</v>
       </c>
-      <c r="D333" s="3">
+      <c r="D333">
         <v>13</v>
       </c>
-      <c r="E333" s="3">
+      <c r="E333">
         <v>23</v>
       </c>
-      <c r="F333" s="3">
+      <c r="F333">
         <v>26</v>
       </c>
-      <c r="G333" s="3">
+      <c r="G333">
         <v>38</v>
       </c>
-      <c r="H333" s="3">
+      <c r="H333">
         <v>45</v>
       </c>
-      <c r="I333" s="3">
+      <c r="I333">
         <v>48</v>
       </c>
-      <c r="J333" s="3">
+      <c r="J333">
         <v>51</v>
       </c>
-      <c r="K333" s="3">
+      <c r="K333">
         <v>56</v>
       </c>
-      <c r="L333" s="3">
+      <c r="L333">
         <v>61</v>
       </c>
-      <c r="M333" s="3">
+      <c r="M333">
         <v>69</v>
       </c>
-      <c r="N333" s="3">
+      <c r="N333">
         <v>73</v>
       </c>
-      <c r="O333" s="3">
+      <c r="O333">
         <v>76</v>
       </c>
-      <c r="P333" s="3">
+      <c r="P333">
         <v>77</v>
       </c>
-      <c r="Q333" s="3">
+      <c r="Q333">
         <v>83</v>
       </c>
-      <c r="R333" s="3">
+      <c r="R333">
         <v>87</v>
       </c>
-      <c r="S333" s="3">
+      <c r="S333">
         <v>93</v>
       </c>
-      <c r="T333" s="3">
+      <c r="T333">
         <v>95</v>
       </c>
-      <c r="U333" s="3">
+      <c r="U333">
         <v>98</v>
       </c>
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A334" s="2">
+      <c r="A334">
         <v>2840</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334">
         <v>3</v>
       </c>
-      <c r="C334" s="3">
+      <c r="C334">
         <v>4</v>
       </c>
-      <c r="D334" s="3">
+      <c r="D334">
         <v>7</v>
       </c>
-      <c r="E334" s="3">
+      <c r="E334">
         <v>19</v>
       </c>
-      <c r="F334" s="3">
+      <c r="F334">
         <v>22</v>
       </c>
-      <c r="G334" s="3">
+      <c r="G334">
         <v>24</v>
       </c>
-      <c r="H334" s="3">
+      <c r="H334">
         <v>30</v>
       </c>
-      <c r="I334" s="3">
+      <c r="I334">
         <v>32</v>
       </c>
-      <c r="J334" s="3">
+      <c r="J334">
         <v>38</v>
       </c>
-      <c r="K334" s="3">
+      <c r="K334">
         <v>39</v>
       </c>
-      <c r="L334" s="3">
+      <c r="L334">
         <v>42</v>
       </c>
-      <c r="M334" s="3">
+      <c r="M334">
         <v>43</v>
       </c>
-      <c r="N334" s="3">
+      <c r="N334">
         <v>46</v>
       </c>
-      <c r="O334" s="3">
+      <c r="O334">
         <v>47</v>
       </c>
-      <c r="P334" s="3">
+      <c r="P334">
         <v>50</v>
       </c>
-      <c r="Q334" s="3">
+      <c r="Q334">
         <v>51</v>
       </c>
-      <c r="R334" s="3">
+      <c r="R334">
         <v>62</v>
       </c>
-      <c r="S334" s="3">
+      <c r="S334">
         <v>68</v>
       </c>
-      <c r="T334" s="3">
+      <c r="T334">
         <v>72</v>
       </c>
-      <c r="U334" s="3">
+      <c r="U334">
         <v>95</v>
       </c>
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A335" s="2">
+      <c r="A335">
         <v>2841</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335">
         <v>0</v>
       </c>
-      <c r="C335" s="3">
+      <c r="C335">
         <v>7</v>
       </c>
-      <c r="D335" s="3">
+      <c r="D335">
         <v>8</v>
       </c>
-      <c r="E335" s="3">
+      <c r="E335">
         <v>10</v>
       </c>
-      <c r="F335" s="3">
+      <c r="F335">
         <v>13</v>
       </c>
-      <c r="G335" s="3">
+      <c r="G335">
         <v>16</v>
       </c>
-      <c r="H335" s="3">
+      <c r="H335">
         <v>24</v>
       </c>
-      <c r="I335" s="3">
+      <c r="I335">
         <v>26</v>
       </c>
-      <c r="J335" s="3">
+      <c r="J335">
         <v>31</v>
       </c>
-      <c r="K335" s="3">
+      <c r="K335">
         <v>37</v>
       </c>
-      <c r="L335" s="3">
+      <c r="L335">
         <v>39</v>
       </c>
-      <c r="M335" s="3">
+      <c r="M335">
         <v>41</v>
       </c>
-      <c r="N335" s="3">
+      <c r="N335">
         <v>42</v>
       </c>
-      <c r="O335" s="3">
+      <c r="O335">
         <v>43</v>
       </c>
-      <c r="P335" s="3">
+      <c r="P335">
         <v>52</v>
       </c>
-      <c r="Q335" s="3">
+      <c r="Q335">
         <v>57</v>
       </c>
-      <c r="R335" s="3">
+      <c r="R335">
         <v>70</v>
       </c>
-      <c r="S335" s="3">
+      <c r="S335">
         <v>73</v>
       </c>
-      <c r="T335" s="3">
+      <c r="T335">
         <v>75</v>
       </c>
-      <c r="U335" s="3">
+      <c r="U335">
         <v>82</v>
       </c>
     </row>
     <row r="336" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A336" s="2">
+      <c r="A336">
         <v>2842</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336">
         <v>5</v>
       </c>
-      <c r="C336" s="3">
+      <c r="C336">
         <v>6</v>
       </c>
-      <c r="D336" s="3">
+      <c r="D336">
         <v>10</v>
       </c>
-      <c r="E336" s="3">
+      <c r="E336">
         <v>11</v>
       </c>
-      <c r="F336" s="3">
+      <c r="F336">
         <v>12</v>
       </c>
-      <c r="G336" s="3">
+      <c r="G336">
         <v>21</v>
       </c>
-      <c r="H336" s="3">
+      <c r="H336">
         <v>25</v>
       </c>
-      <c r="I336" s="3">
+      <c r="I336">
         <v>27</v>
       </c>
-      <c r="J336" s="3">
+      <c r="J336">
         <v>35</v>
       </c>
-      <c r="K336" s="3">
+      <c r="K336">
         <v>44</v>
       </c>
-      <c r="L336" s="3">
+      <c r="L336">
         <v>48</v>
       </c>
-      <c r="M336" s="3">
+      <c r="M336">
         <v>54</v>
       </c>
-      <c r="N336" s="3">
+      <c r="N336">
         <v>63</v>
       </c>
-      <c r="O336" s="3">
+      <c r="O336">
         <v>64</v>
       </c>
-      <c r="P336" s="3">
+      <c r="P336">
         <v>67</v>
       </c>
-      <c r="Q336" s="3">
+      <c r="Q336">
         <v>75</v>
       </c>
-      <c r="R336" s="3">
+      <c r="R336">
         <v>76</v>
       </c>
-      <c r="S336" s="3">
+      <c r="S336">
         <v>83</v>
       </c>
-      <c r="T336" s="3">
+      <c r="T336">
         <v>84</v>
       </c>
-      <c r="U336" s="3">
+      <c r="U336">
         <v>86</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A337" s="2">
+        <v>2843</v>
+      </c>
+      <c r="B337" s="3">
+        <v>1</v>
+      </c>
+      <c r="C337" s="3">
+        <v>5</v>
+      </c>
+      <c r="D337" s="3">
+        <v>19</v>
+      </c>
+      <c r="E337" s="3">
+        <v>24</v>
+      </c>
+      <c r="F337" s="3">
+        <v>27</v>
+      </c>
+      <c r="G337" s="3">
+        <v>30</v>
+      </c>
+      <c r="H337" s="3">
+        <v>38</v>
+      </c>
+      <c r="I337" s="3">
+        <v>43</v>
+      </c>
+      <c r="J337" s="3">
+        <v>47</v>
+      </c>
+      <c r="K337" s="3">
+        <v>52</v>
+      </c>
+      <c r="L337" s="3">
+        <v>54</v>
+      </c>
+      <c r="M337" s="3">
+        <v>57</v>
+      </c>
+      <c r="N337" s="3">
+        <v>61</v>
+      </c>
+      <c r="O337" s="3">
+        <v>62</v>
+      </c>
+      <c r="P337" s="3">
+        <v>73</v>
+      </c>
+      <c r="Q337" s="3">
+        <v>74</v>
+      </c>
+      <c r="R337" s="3">
+        <v>85</v>
+      </c>
+      <c r="S337" s="3">
+        <v>92</v>
+      </c>
+      <c r="T337" s="3">
+        <v>94</v>
+      </c>
+      <c r="U337" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A338" s="2">
+        <v>2844</v>
+      </c>
+      <c r="B338" s="3">
+        <v>1</v>
+      </c>
+      <c r="C338" s="3">
+        <v>2</v>
+      </c>
+      <c r="D338" s="3">
+        <v>5</v>
+      </c>
+      <c r="E338" s="3">
+        <v>14</v>
+      </c>
+      <c r="F338" s="3">
+        <v>16</v>
+      </c>
+      <c r="G338" s="3">
+        <v>26</v>
+      </c>
+      <c r="H338" s="3">
+        <v>31</v>
+      </c>
+      <c r="I338" s="3">
+        <v>32</v>
+      </c>
+      <c r="J338" s="3">
+        <v>34</v>
+      </c>
+      <c r="K338" s="3">
+        <v>49</v>
+      </c>
+      <c r="L338" s="3">
+        <v>51</v>
+      </c>
+      <c r="M338" s="3">
+        <v>54</v>
+      </c>
+      <c r="N338" s="3">
+        <v>61</v>
+      </c>
+      <c r="O338" s="3">
+        <v>66</v>
+      </c>
+      <c r="P338" s="3">
+        <v>70</v>
+      </c>
+      <c r="Q338" s="3">
+        <v>77</v>
+      </c>
+      <c r="R338" s="3">
+        <v>91</v>
+      </c>
+      <c r="S338" s="3">
+        <v>95</v>
+      </c>
+      <c r="T338" s="3">
+        <v>96</v>
+      </c>
+      <c r="U338" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A339" s="2">
+        <v>2845</v>
+      </c>
+      <c r="B339" s="3">
+        <v>16</v>
+      </c>
+      <c r="C339" s="3">
+        <v>21</v>
+      </c>
+      <c r="D339" s="3">
+        <v>30</v>
+      </c>
+      <c r="E339" s="3">
+        <v>31</v>
+      </c>
+      <c r="F339" s="3">
+        <v>37</v>
+      </c>
+      <c r="G339" s="3">
+        <v>39</v>
+      </c>
+      <c r="H339" s="3">
+        <v>44</v>
+      </c>
+      <c r="I339" s="3">
+        <v>53</v>
+      </c>
+      <c r="J339" s="3">
+        <v>54</v>
+      </c>
+      <c r="K339" s="3">
+        <v>58</v>
+      </c>
+      <c r="L339" s="3">
+        <v>68</v>
+      </c>
+      <c r="M339" s="3">
+        <v>69</v>
+      </c>
+      <c r="N339" s="3">
+        <v>73</v>
+      </c>
+      <c r="O339" s="3">
+        <v>75</v>
+      </c>
+      <c r="P339" s="3">
+        <v>81</v>
+      </c>
+      <c r="Q339" s="3">
+        <v>83</v>
+      </c>
+      <c r="R339" s="3">
+        <v>85</v>
+      </c>
+      <c r="S339" s="3">
+        <v>86</v>
+      </c>
+      <c r="T339" s="3">
+        <v>90</v>
+      </c>
+      <c r="U339" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A340" s="2">
+        <v>2846</v>
+      </c>
+      <c r="B340" s="3">
+        <v>12</v>
+      </c>
+      <c r="C340" s="3">
+        <v>13</v>
+      </c>
+      <c r="D340" s="3">
+        <v>14</v>
+      </c>
+      <c r="E340" s="3">
+        <v>16</v>
+      </c>
+      <c r="F340" s="3">
+        <v>25</v>
+      </c>
+      <c r="G340" s="3">
+        <v>28</v>
+      </c>
+      <c r="H340" s="3">
+        <v>33</v>
+      </c>
+      <c r="I340" s="3">
+        <v>39</v>
+      </c>
+      <c r="J340" s="3">
+        <v>41</v>
+      </c>
+      <c r="K340" s="3">
+        <v>42</v>
+      </c>
+      <c r="L340" s="3">
+        <v>53</v>
+      </c>
+      <c r="M340" s="3">
+        <v>60</v>
+      </c>
+      <c r="N340" s="3">
+        <v>67</v>
+      </c>
+      <c r="O340" s="3">
+        <v>68</v>
+      </c>
+      <c r="P340" s="3">
+        <v>73</v>
+      </c>
+      <c r="Q340" s="3">
+        <v>74</v>
+      </c>
+      <c r="R340" s="3">
+        <v>76</v>
+      </c>
+      <c r="S340" s="3">
+        <v>92</v>
+      </c>
+      <c r="T340" s="3">
+        <v>93</v>
+      </c>
+      <c r="U340" s="3">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -22332,15 +22592,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22508,6 +22759,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -22519,14 +22779,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDEE3BD0-E82A-45EA-BF5A-733EBB4C31D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22546,6 +22798,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>

--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811C3CDC-7F99-46A2-A5BB-54070718FBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEE164A-1E62-463A-B1F3-8F2E69CC369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57975" yWindow="330" windowWidth="23685" windowHeight="13800" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57690" yWindow="420" windowWidth="26025" windowHeight="10515" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -145,13 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:U340"/>
+  <dimension ref="A1:U341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="B337" sqref="B337:U340"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="V341" sqref="V341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22327,263 +22325,328 @@
       </c>
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A337" s="2">
+      <c r="A337">
         <v>2843</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337">
         <v>1</v>
       </c>
-      <c r="C337" s="3">
+      <c r="C337">
         <v>5</v>
       </c>
-      <c r="D337" s="3">
+      <c r="D337">
         <v>19</v>
       </c>
-      <c r="E337" s="3">
+      <c r="E337">
         <v>24</v>
       </c>
-      <c r="F337" s="3">
+      <c r="F337">
         <v>27</v>
       </c>
-      <c r="G337" s="3">
+      <c r="G337">
         <v>30</v>
       </c>
-      <c r="H337" s="3">
+      <c r="H337">
         <v>38</v>
       </c>
-      <c r="I337" s="3">
+      <c r="I337">
         <v>43</v>
       </c>
-      <c r="J337" s="3">
+      <c r="J337">
         <v>47</v>
       </c>
-      <c r="K337" s="3">
+      <c r="K337">
         <v>52</v>
       </c>
-      <c r="L337" s="3">
+      <c r="L337">
         <v>54</v>
       </c>
-      <c r="M337" s="3">
+      <c r="M337">
         <v>57</v>
       </c>
-      <c r="N337" s="3">
+      <c r="N337">
         <v>61</v>
       </c>
-      <c r="O337" s="3">
+      <c r="O337">
         <v>62</v>
       </c>
-      <c r="P337" s="3">
+      <c r="P337">
         <v>73</v>
       </c>
-      <c r="Q337" s="3">
+      <c r="Q337">
         <v>74</v>
       </c>
-      <c r="R337" s="3">
+      <c r="R337">
         <v>85</v>
       </c>
-      <c r="S337" s="3">
+      <c r="S337">
         <v>92</v>
       </c>
-      <c r="T337" s="3">
+      <c r="T337">
         <v>94</v>
       </c>
-      <c r="U337" s="3">
+      <c r="U337">
         <v>96</v>
       </c>
     </row>
     <row r="338" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A338" s="2">
+      <c r="A338">
         <v>2844</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338">
         <v>1</v>
       </c>
-      <c r="C338" s="3">
+      <c r="C338">
         <v>2</v>
       </c>
-      <c r="D338" s="3">
+      <c r="D338">
         <v>5</v>
       </c>
-      <c r="E338" s="3">
+      <c r="E338">
         <v>14</v>
       </c>
-      <c r="F338" s="3">
+      <c r="F338">
         <v>16</v>
       </c>
-      <c r="G338" s="3">
+      <c r="G338">
         <v>26</v>
       </c>
-      <c r="H338" s="3">
+      <c r="H338">
         <v>31</v>
       </c>
-      <c r="I338" s="3">
+      <c r="I338">
         <v>32</v>
       </c>
-      <c r="J338" s="3">
+      <c r="J338">
         <v>34</v>
       </c>
-      <c r="K338" s="3">
+      <c r="K338">
         <v>49</v>
       </c>
-      <c r="L338" s="3">
+      <c r="L338">
         <v>51</v>
       </c>
-      <c r="M338" s="3">
+      <c r="M338">
         <v>54</v>
       </c>
-      <c r="N338" s="3">
+      <c r="N338">
         <v>61</v>
       </c>
-      <c r="O338" s="3">
+      <c r="O338">
         <v>66</v>
       </c>
-      <c r="P338" s="3">
+      <c r="P338">
         <v>70</v>
       </c>
-      <c r="Q338" s="3">
+      <c r="Q338">
         <v>77</v>
       </c>
-      <c r="R338" s="3">
+      <c r="R338">
         <v>91</v>
       </c>
-      <c r="S338" s="3">
+      <c r="S338">
         <v>95</v>
       </c>
-      <c r="T338" s="3">
+      <c r="T338">
         <v>96</v>
       </c>
-      <c r="U338" s="3">
+      <c r="U338">
         <v>97</v>
       </c>
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A339" s="2">
+      <c r="A339">
         <v>2845</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339">
         <v>16</v>
       </c>
-      <c r="C339" s="3">
+      <c r="C339">
         <v>21</v>
       </c>
-      <c r="D339" s="3">
+      <c r="D339">
         <v>30</v>
       </c>
-      <c r="E339" s="3">
+      <c r="E339">
         <v>31</v>
       </c>
-      <c r="F339" s="3">
+      <c r="F339">
         <v>37</v>
       </c>
-      <c r="G339" s="3">
+      <c r="G339">
         <v>39</v>
       </c>
-      <c r="H339" s="3">
+      <c r="H339">
         <v>44</v>
       </c>
-      <c r="I339" s="3">
+      <c r="I339">
         <v>53</v>
       </c>
-      <c r="J339" s="3">
+      <c r="J339">
         <v>54</v>
       </c>
-      <c r="K339" s="3">
+      <c r="K339">
         <v>58</v>
       </c>
-      <c r="L339" s="3">
+      <c r="L339">
         <v>68</v>
       </c>
-      <c r="M339" s="3">
+      <c r="M339">
         <v>69</v>
       </c>
-      <c r="N339" s="3">
+      <c r="N339">
         <v>73</v>
       </c>
-      <c r="O339" s="3">
+      <c r="O339">
         <v>75</v>
       </c>
-      <c r="P339" s="3">
+      <c r="P339">
         <v>81</v>
       </c>
-      <c r="Q339" s="3">
+      <c r="Q339">
         <v>83</v>
       </c>
-      <c r="R339" s="3">
+      <c r="R339">
         <v>85</v>
       </c>
-      <c r="S339" s="3">
+      <c r="S339">
         <v>86</v>
       </c>
-      <c r="T339" s="3">
+      <c r="T339">
         <v>90</v>
       </c>
-      <c r="U339" s="3">
+      <c r="U339">
         <v>96</v>
       </c>
     </row>
     <row r="340" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A340" s="2">
+      <c r="A340">
         <v>2846</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340">
         <v>12</v>
       </c>
-      <c r="C340" s="3">
+      <c r="C340">
         <v>13</v>
       </c>
-      <c r="D340" s="3">
+      <c r="D340">
         <v>14</v>
       </c>
-      <c r="E340" s="3">
+      <c r="E340">
         <v>16</v>
       </c>
-      <c r="F340" s="3">
+      <c r="F340">
         <v>25</v>
       </c>
-      <c r="G340" s="3">
+      <c r="G340">
         <v>28</v>
       </c>
-      <c r="H340" s="3">
+      <c r="H340">
         <v>33</v>
       </c>
-      <c r="I340" s="3">
+      <c r="I340">
         <v>39</v>
       </c>
-      <c r="J340" s="3">
+      <c r="J340">
         <v>41</v>
       </c>
-      <c r="K340" s="3">
+      <c r="K340">
         <v>42</v>
       </c>
-      <c r="L340" s="3">
+      <c r="L340">
         <v>53</v>
       </c>
-      <c r="M340" s="3">
+      <c r="M340">
         <v>60</v>
       </c>
-      <c r="N340" s="3">
+      <c r="N340">
         <v>67</v>
       </c>
-      <c r="O340" s="3">
+      <c r="O340">
         <v>68</v>
       </c>
-      <c r="P340" s="3">
+      <c r="P340">
         <v>73</v>
       </c>
-      <c r="Q340" s="3">
+      <c r="Q340">
         <v>74</v>
       </c>
-      <c r="R340" s="3">
+      <c r="R340">
         <v>76</v>
       </c>
-      <c r="S340" s="3">
+      <c r="S340">
         <v>92</v>
       </c>
-      <c r="T340" s="3">
+      <c r="T340">
         <v>93</v>
       </c>
-      <c r="U340" s="3">
+      <c r="U340">
         <v>97</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A341">
+        <v>2847</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>5</v>
+      </c>
+      <c r="D341">
+        <v>7</v>
+      </c>
+      <c r="E341">
+        <v>13</v>
+      </c>
+      <c r="F341">
+        <v>20</v>
+      </c>
+      <c r="G341">
+        <v>23</v>
+      </c>
+      <c r="H341">
+        <v>25</v>
+      </c>
+      <c r="I341">
+        <v>26</v>
+      </c>
+      <c r="J341">
+        <v>27</v>
+      </c>
+      <c r="K341">
+        <v>43</v>
+      </c>
+      <c r="L341">
+        <v>44</v>
+      </c>
+      <c r="M341">
+        <v>48</v>
+      </c>
+      <c r="N341">
+        <v>51</v>
+      </c>
+      <c r="O341">
+        <v>55</v>
+      </c>
+      <c r="P341">
+        <v>70</v>
+      </c>
+      <c r="Q341">
+        <v>71</v>
+      </c>
+      <c r="R341">
+        <v>72</v>
+      </c>
+      <c r="S341">
+        <v>74</v>
+      </c>
+      <c r="T341">
+        <v>82</v>
+      </c>
+      <c r="U341">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -22592,6 +22655,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22759,15 +22831,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -22779,6 +22842,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDEE3BD0-E82A-45EA-BF5A-733EBB4C31D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22798,14 +22869,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>

--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEE164A-1E62-463A-B1F3-8F2E69CC369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BABD4F0-5117-4D0E-98FB-740362AB22A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57690" yWindow="420" windowWidth="26025" windowHeight="10515" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="67755" yWindow="3675" windowWidth="28800" windowHeight="15150" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:U341"/>
+  <dimension ref="A1:U342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="V341" sqref="V341"/>
+      <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22649,21 +22649,77 @@
         <v>87</v>
       </c>
     </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A342">
+        <v>2848</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>7</v>
+      </c>
+      <c r="E342">
+        <v>8</v>
+      </c>
+      <c r="F342">
+        <v>19</v>
+      </c>
+      <c r="G342">
+        <v>21</v>
+      </c>
+      <c r="H342">
+        <v>25</v>
+      </c>
+      <c r="I342">
+        <v>27</v>
+      </c>
+      <c r="J342">
+        <v>37</v>
+      </c>
+      <c r="K342">
+        <v>38</v>
+      </c>
+      <c r="L342">
+        <v>47</v>
+      </c>
+      <c r="M342">
+        <v>49</v>
+      </c>
+      <c r="N342">
+        <v>52</v>
+      </c>
+      <c r="O342">
+        <v>59</v>
+      </c>
+      <c r="P342">
+        <v>64</v>
+      </c>
+      <c r="Q342">
+        <v>66</v>
+      </c>
+      <c r="R342">
+        <v>74</v>
+      </c>
+      <c r="S342">
+        <v>85</v>
+      </c>
+      <c r="T342">
+        <v>88</v>
+      </c>
+      <c r="U342">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22831,6 +22887,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -22842,14 +22907,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDEE3BD0-E82A-45EA-BF5A-733EBB4C31D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22869,6 +22926,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>

--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BABD4F0-5117-4D0E-98FB-740362AB22A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F663936B-F5C2-49BF-ACF2-D13AD58E4E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67755" yWindow="3675" windowWidth="28800" windowHeight="15150" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="62925" yWindow="2535" windowWidth="26385" windowHeight="16995" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Concurso</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Bola20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:U342"/>
+  <dimension ref="A1:V344"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="C353" sqref="C353"/>
+      <selection activeCell="P343" sqref="P343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22324,7 +22327,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>2843</v>
       </c>
@@ -22389,7 +22392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>2844</v>
       </c>
@@ -22454,7 +22457,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>2845</v>
       </c>
@@ -22519,7 +22522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>2846</v>
       </c>
@@ -22584,7 +22587,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>2847</v>
       </c>
@@ -22649,7 +22652,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>2848</v>
       </c>
@@ -22712,6 +22715,139 @@
       </c>
       <c r="U342">
         <v>92</v>
+      </c>
+    </row>
+    <row r="343" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A343">
+        <v>2848</v>
+      </c>
+      <c r="B343">
+        <v>11</v>
+      </c>
+      <c r="C343">
+        <v>16</v>
+      </c>
+      <c r="D343">
+        <v>18</v>
+      </c>
+      <c r="E343">
+        <v>23</v>
+      </c>
+      <c r="F343">
+        <v>25</v>
+      </c>
+      <c r="G343">
+        <v>34</v>
+      </c>
+      <c r="H343">
+        <v>35</v>
+      </c>
+      <c r="I343">
+        <v>39</v>
+      </c>
+      <c r="J343">
+        <v>42</v>
+      </c>
+      <c r="K343">
+        <v>53</v>
+      </c>
+      <c r="L343">
+        <v>54</v>
+      </c>
+      <c r="M343">
+        <v>58</v>
+      </c>
+      <c r="N343">
+        <v>60</v>
+      </c>
+      <c r="O343">
+        <v>66</v>
+      </c>
+      <c r="P343">
+        <v>67</v>
+      </c>
+      <c r="Q343">
+        <v>71</v>
+      </c>
+      <c r="R343">
+        <v>74</v>
+      </c>
+      <c r="S343">
+        <v>88</v>
+      </c>
+      <c r="T343">
+        <v>90</v>
+      </c>
+      <c r="U343">
+        <v>91</v>
+      </c>
+      <c r="V343" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A344">
+        <v>2850</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>15</v>
+      </c>
+      <c r="D344">
+        <v>18</v>
+      </c>
+      <c r="E344">
+        <v>28</v>
+      </c>
+      <c r="F344">
+        <v>31</v>
+      </c>
+      <c r="G344">
+        <v>32</v>
+      </c>
+      <c r="H344">
+        <v>24</v>
+      </c>
+      <c r="I344">
+        <v>41</v>
+      </c>
+      <c r="J344">
+        <v>52</v>
+      </c>
+      <c r="K344">
+        <v>58</v>
+      </c>
+      <c r="L344">
+        <v>61</v>
+      </c>
+      <c r="M344">
+        <v>62</v>
+      </c>
+      <c r="N344">
+        <v>64</v>
+      </c>
+      <c r="O344">
+        <v>68</v>
+      </c>
+      <c r="P344">
+        <v>71</v>
+      </c>
+      <c r="Q344">
+        <v>72</v>
+      </c>
+      <c r="R344">
+        <v>75</v>
+      </c>
+      <c r="S344">
+        <v>83</v>
+      </c>
+      <c r="T344">
+        <v>85</v>
+      </c>
+      <c r="U344">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -22720,6 +22856,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22887,26 +23042,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDEE3BD0-E82A-45EA-BF5A-733EBB4C31D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22924,23 +23079,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F663936B-F5C2-49BF-ACF2-D13AD58E4E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37629CF-83A8-4DF5-AC5C-EA20185992C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62925" yWindow="2535" windowWidth="26385" windowHeight="16995" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="69915" yWindow="0" windowWidth="24690" windowHeight="10050" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -148,11 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:V344"/>
+  <dimension ref="A1:V350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="P343" sqref="P343"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345:U350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22850,12 +22852,411 @@
         <v>91</v>
       </c>
     </row>
+    <row r="345" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A345" s="2">
+        <v>2851</v>
+      </c>
+      <c r="B345" s="3">
+        <v>2</v>
+      </c>
+      <c r="C345" s="3">
+        <v>8</v>
+      </c>
+      <c r="D345" s="3">
+        <v>15</v>
+      </c>
+      <c r="E345" s="3">
+        <v>20</v>
+      </c>
+      <c r="F345" s="3">
+        <v>24</v>
+      </c>
+      <c r="G345" s="3">
+        <v>25</v>
+      </c>
+      <c r="H345" s="3">
+        <v>30</v>
+      </c>
+      <c r="I345" s="3">
+        <v>34</v>
+      </c>
+      <c r="J345" s="3">
+        <v>37</v>
+      </c>
+      <c r="K345" s="3">
+        <v>40</v>
+      </c>
+      <c r="L345" s="3">
+        <v>43</v>
+      </c>
+      <c r="M345" s="3">
+        <v>51</v>
+      </c>
+      <c r="N345" s="3">
+        <v>60</v>
+      </c>
+      <c r="O345" s="3">
+        <v>62</v>
+      </c>
+      <c r="P345" s="3">
+        <v>67</v>
+      </c>
+      <c r="Q345" s="3">
+        <v>77</v>
+      </c>
+      <c r="R345" s="3">
+        <v>81</v>
+      </c>
+      <c r="S345" s="3">
+        <v>85</v>
+      </c>
+      <c r="T345" s="3">
+        <v>87</v>
+      </c>
+      <c r="U345" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="346" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A346" s="2">
+        <v>2852</v>
+      </c>
+      <c r="B346" s="3">
+        <v>1</v>
+      </c>
+      <c r="C346" s="3">
+        <v>2</v>
+      </c>
+      <c r="D346" s="3">
+        <v>4</v>
+      </c>
+      <c r="E346" s="3">
+        <v>6</v>
+      </c>
+      <c r="F346" s="3">
+        <v>17</v>
+      </c>
+      <c r="G346" s="3">
+        <v>20</v>
+      </c>
+      <c r="H346" s="3">
+        <v>21</v>
+      </c>
+      <c r="I346" s="3">
+        <v>25</v>
+      </c>
+      <c r="J346" s="3">
+        <v>33</v>
+      </c>
+      <c r="K346" s="3">
+        <v>37</v>
+      </c>
+      <c r="L346" s="3">
+        <v>38</v>
+      </c>
+      <c r="M346" s="3">
+        <v>43</v>
+      </c>
+      <c r="N346" s="3">
+        <v>53</v>
+      </c>
+      <c r="O346" s="3">
+        <v>55</v>
+      </c>
+      <c r="P346" s="3">
+        <v>67</v>
+      </c>
+      <c r="Q346" s="3">
+        <v>75</v>
+      </c>
+      <c r="R346" s="3">
+        <v>83</v>
+      </c>
+      <c r="S346" s="3">
+        <v>90</v>
+      </c>
+      <c r="T346" s="3">
+        <v>94</v>
+      </c>
+      <c r="U346" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="347" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A347" s="2">
+        <v>2853</v>
+      </c>
+      <c r="B347" s="3">
+        <v>11</v>
+      </c>
+      <c r="C347" s="3">
+        <v>27</v>
+      </c>
+      <c r="D347" s="3">
+        <v>37</v>
+      </c>
+      <c r="E347" s="3">
+        <v>41</v>
+      </c>
+      <c r="F347" s="3">
+        <v>43</v>
+      </c>
+      <c r="G347" s="3">
+        <v>52</v>
+      </c>
+      <c r="H347" s="3">
+        <v>53</v>
+      </c>
+      <c r="I347" s="3">
+        <v>57</v>
+      </c>
+      <c r="J347" s="3">
+        <v>60</v>
+      </c>
+      <c r="K347" s="3">
+        <v>62</v>
+      </c>
+      <c r="L347" s="3">
+        <v>66</v>
+      </c>
+      <c r="M347" s="3">
+        <v>68</v>
+      </c>
+      <c r="N347" s="3">
+        <v>71</v>
+      </c>
+      <c r="O347" s="3">
+        <v>73</v>
+      </c>
+      <c r="P347" s="3">
+        <v>77</v>
+      </c>
+      <c r="Q347" s="3">
+        <v>79</v>
+      </c>
+      <c r="R347" s="3">
+        <v>82</v>
+      </c>
+      <c r="S347" s="3">
+        <v>87</v>
+      </c>
+      <c r="T347" s="3">
+        <v>90</v>
+      </c>
+      <c r="U347" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A348" s="2">
+        <v>2854</v>
+      </c>
+      <c r="B348" s="3">
+        <v>2</v>
+      </c>
+      <c r="C348" s="3">
+        <v>4</v>
+      </c>
+      <c r="D348" s="3">
+        <v>5</v>
+      </c>
+      <c r="E348" s="3">
+        <v>7</v>
+      </c>
+      <c r="F348" s="3">
+        <v>18</v>
+      </c>
+      <c r="G348" s="3">
+        <v>25</v>
+      </c>
+      <c r="H348" s="3">
+        <v>26</v>
+      </c>
+      <c r="I348" s="3">
+        <v>28</v>
+      </c>
+      <c r="J348" s="3">
+        <v>37</v>
+      </c>
+      <c r="K348" s="3">
+        <v>38</v>
+      </c>
+      <c r="L348" s="3">
+        <v>40</v>
+      </c>
+      <c r="M348" s="3">
+        <v>42</v>
+      </c>
+      <c r="N348" s="3">
+        <v>50</v>
+      </c>
+      <c r="O348" s="3">
+        <v>54</v>
+      </c>
+      <c r="P348" s="3">
+        <v>57</v>
+      </c>
+      <c r="Q348" s="3">
+        <v>68</v>
+      </c>
+      <c r="R348" s="3">
+        <v>73</v>
+      </c>
+      <c r="S348" s="3">
+        <v>76</v>
+      </c>
+      <c r="T348" s="3">
+        <v>88</v>
+      </c>
+      <c r="U348" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A349" s="2">
+        <v>2855</v>
+      </c>
+      <c r="B349" s="3">
+        <v>3</v>
+      </c>
+      <c r="C349" s="3">
+        <v>8</v>
+      </c>
+      <c r="D349" s="3">
+        <v>12</v>
+      </c>
+      <c r="E349" s="3">
+        <v>15</v>
+      </c>
+      <c r="F349" s="3">
+        <v>20</v>
+      </c>
+      <c r="G349" s="3">
+        <v>29</v>
+      </c>
+      <c r="H349" s="3">
+        <v>42</v>
+      </c>
+      <c r="I349" s="3">
+        <v>43</v>
+      </c>
+      <c r="J349" s="3">
+        <v>45</v>
+      </c>
+      <c r="K349" s="3">
+        <v>47</v>
+      </c>
+      <c r="L349" s="3">
+        <v>50</v>
+      </c>
+      <c r="M349" s="3">
+        <v>53</v>
+      </c>
+      <c r="N349" s="3">
+        <v>62</v>
+      </c>
+      <c r="O349" s="3">
+        <v>67</v>
+      </c>
+      <c r="P349" s="3">
+        <v>73</v>
+      </c>
+      <c r="Q349" s="3">
+        <v>75</v>
+      </c>
+      <c r="R349" s="3">
+        <v>81</v>
+      </c>
+      <c r="S349" s="3">
+        <v>86</v>
+      </c>
+      <c r="T349" s="3">
+        <v>87</v>
+      </c>
+      <c r="U349" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A350" s="2">
+        <v>2856</v>
+      </c>
+      <c r="B350" s="3">
+        <v>0</v>
+      </c>
+      <c r="C350" s="3">
+        <v>2</v>
+      </c>
+      <c r="D350" s="3">
+        <v>4</v>
+      </c>
+      <c r="E350" s="3">
+        <v>8</v>
+      </c>
+      <c r="F350" s="3">
+        <v>9</v>
+      </c>
+      <c r="G350" s="3">
+        <v>10</v>
+      </c>
+      <c r="H350" s="3">
+        <v>12</v>
+      </c>
+      <c r="I350" s="3">
+        <v>14</v>
+      </c>
+      <c r="J350" s="3">
+        <v>15</v>
+      </c>
+      <c r="K350" s="3">
+        <v>42</v>
+      </c>
+      <c r="L350" s="3">
+        <v>43</v>
+      </c>
+      <c r="M350" s="3">
+        <v>53</v>
+      </c>
+      <c r="N350" s="3">
+        <v>67</v>
+      </c>
+      <c r="O350" s="3">
+        <v>69</v>
+      </c>
+      <c r="P350" s="3">
+        <v>72</v>
+      </c>
+      <c r="Q350" s="3">
+        <v>79</v>
+      </c>
+      <c r="R350" s="3">
+        <v>85</v>
+      </c>
+      <c r="S350" s="3">
+        <v>93</v>
+      </c>
+      <c r="T350" s="3">
+        <v>98</v>
+      </c>
+      <c r="U350" s="3">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -22863,15 +23264,6 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23043,20 +23435,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37629CF-83A8-4DF5-AC5C-EA20185992C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513E662-6C38-4932-BAC6-6CEABFB3A6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69915" yWindow="0" windowWidth="24690" windowHeight="10050" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="76200" yWindow="3630" windowWidth="19545" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:V350"/>
+  <dimension ref="A1:V355"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="B345" sqref="B345:U350"/>
+      <selection activeCell="B351" sqref="B351:U355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22853,392 +22853,717 @@
       </c>
     </row>
     <row r="345" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A345" s="2">
+      <c r="A345">
         <v>2851</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B345">
         <v>2</v>
       </c>
-      <c r="C345" s="3">
+      <c r="C345">
         <v>8</v>
       </c>
-      <c r="D345" s="3">
+      <c r="D345">
         <v>15</v>
       </c>
-      <c r="E345" s="3">
+      <c r="E345">
         <v>20</v>
       </c>
-      <c r="F345" s="3">
+      <c r="F345">
         <v>24</v>
       </c>
-      <c r="G345" s="3">
+      <c r="G345">
         <v>25</v>
       </c>
-      <c r="H345" s="3">
+      <c r="H345">
         <v>30</v>
       </c>
-      <c r="I345" s="3">
+      <c r="I345">
         <v>34</v>
       </c>
-      <c r="J345" s="3">
+      <c r="J345">
         <v>37</v>
       </c>
-      <c r="K345" s="3">
+      <c r="K345">
         <v>40</v>
       </c>
-      <c r="L345" s="3">
+      <c r="L345">
         <v>43</v>
       </c>
-      <c r="M345" s="3">
+      <c r="M345">
         <v>51</v>
       </c>
-      <c r="N345" s="3">
+      <c r="N345">
         <v>60</v>
       </c>
-      <c r="O345" s="3">
+      <c r="O345">
         <v>62</v>
       </c>
-      <c r="P345" s="3">
+      <c r="P345">
         <v>67</v>
       </c>
-      <c r="Q345" s="3">
+      <c r="Q345">
         <v>77</v>
       </c>
-      <c r="R345" s="3">
+      <c r="R345">
         <v>81</v>
       </c>
-      <c r="S345" s="3">
+      <c r="S345">
         <v>85</v>
       </c>
-      <c r="T345" s="3">
+      <c r="T345">
         <v>87</v>
       </c>
-      <c r="U345" s="3">
+      <c r="U345">
         <v>94</v>
       </c>
     </row>
     <row r="346" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A346" s="2">
+      <c r="A346">
         <v>2852</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346">
         <v>1</v>
       </c>
-      <c r="C346" s="3">
+      <c r="C346">
         <v>2</v>
       </c>
-      <c r="D346" s="3">
+      <c r="D346">
         <v>4</v>
       </c>
-      <c r="E346" s="3">
+      <c r="E346">
         <v>6</v>
       </c>
-      <c r="F346" s="3">
+      <c r="F346">
         <v>17</v>
       </c>
-      <c r="G346" s="3">
+      <c r="G346">
         <v>20</v>
       </c>
-      <c r="H346" s="3">
+      <c r="H346">
         <v>21</v>
       </c>
-      <c r="I346" s="3">
+      <c r="I346">
         <v>25</v>
       </c>
-      <c r="J346" s="3">
+      <c r="J346">
         <v>33</v>
       </c>
-      <c r="K346" s="3">
+      <c r="K346">
         <v>37</v>
       </c>
-      <c r="L346" s="3">
+      <c r="L346">
         <v>38</v>
       </c>
-      <c r="M346" s="3">
+      <c r="M346">
         <v>43</v>
       </c>
-      <c r="N346" s="3">
+      <c r="N346">
         <v>53</v>
       </c>
-      <c r="O346" s="3">
+      <c r="O346">
         <v>55</v>
       </c>
-      <c r="P346" s="3">
+      <c r="P346">
         <v>67</v>
       </c>
-      <c r="Q346" s="3">
+      <c r="Q346">
         <v>75</v>
       </c>
-      <c r="R346" s="3">
+      <c r="R346">
         <v>83</v>
       </c>
-      <c r="S346" s="3">
+      <c r="S346">
         <v>90</v>
       </c>
-      <c r="T346" s="3">
+      <c r="T346">
         <v>94</v>
       </c>
-      <c r="U346" s="3">
+      <c r="U346">
         <v>99</v>
       </c>
     </row>
     <row r="347" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A347" s="2">
+      <c r="A347">
         <v>2853</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347">
         <v>11</v>
       </c>
-      <c r="C347" s="3">
+      <c r="C347">
         <v>27</v>
       </c>
-      <c r="D347" s="3">
+      <c r="D347">
         <v>37</v>
       </c>
-      <c r="E347" s="3">
+      <c r="E347">
         <v>41</v>
       </c>
-      <c r="F347" s="3">
+      <c r="F347">
         <v>43</v>
       </c>
-      <c r="G347" s="3">
+      <c r="G347">
         <v>52</v>
       </c>
-      <c r="H347" s="3">
+      <c r="H347">
         <v>53</v>
       </c>
-      <c r="I347" s="3">
+      <c r="I347">
         <v>57</v>
       </c>
-      <c r="J347" s="3">
+      <c r="J347">
         <v>60</v>
       </c>
-      <c r="K347" s="3">
+      <c r="K347">
         <v>62</v>
       </c>
-      <c r="L347" s="3">
+      <c r="L347">
         <v>66</v>
       </c>
-      <c r="M347" s="3">
+      <c r="M347">
         <v>68</v>
       </c>
-      <c r="N347" s="3">
+      <c r="N347">
         <v>71</v>
       </c>
-      <c r="O347" s="3">
+      <c r="O347">
         <v>73</v>
       </c>
-      <c r="P347" s="3">
+      <c r="P347">
         <v>77</v>
       </c>
-      <c r="Q347" s="3">
+      <c r="Q347">
         <v>79</v>
       </c>
-      <c r="R347" s="3">
+      <c r="R347">
         <v>82</v>
       </c>
-      <c r="S347" s="3">
+      <c r="S347">
         <v>87</v>
       </c>
-      <c r="T347" s="3">
+      <c r="T347">
         <v>90</v>
       </c>
-      <c r="U347" s="3">
+      <c r="U347">
         <v>95</v>
       </c>
     </row>
     <row r="348" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A348" s="2">
+      <c r="A348">
         <v>2854</v>
       </c>
-      <c r="B348" s="3">
+      <c r="B348">
         <v>2</v>
       </c>
-      <c r="C348" s="3">
+      <c r="C348">
         <v>4</v>
       </c>
-      <c r="D348" s="3">
+      <c r="D348">
         <v>5</v>
       </c>
-      <c r="E348" s="3">
+      <c r="E348">
         <v>7</v>
       </c>
-      <c r="F348" s="3">
+      <c r="F348">
         <v>18</v>
       </c>
-      <c r="G348" s="3">
+      <c r="G348">
         <v>25</v>
       </c>
-      <c r="H348" s="3">
+      <c r="H348">
         <v>26</v>
       </c>
-      <c r="I348" s="3">
+      <c r="I348">
         <v>28</v>
       </c>
-      <c r="J348" s="3">
+      <c r="J348">
         <v>37</v>
       </c>
-      <c r="K348" s="3">
+      <c r="K348">
         <v>38</v>
       </c>
-      <c r="L348" s="3">
+      <c r="L348">
         <v>40</v>
       </c>
-      <c r="M348" s="3">
+      <c r="M348">
         <v>42</v>
       </c>
-      <c r="N348" s="3">
+      <c r="N348">
         <v>50</v>
       </c>
-      <c r="O348" s="3">
+      <c r="O348">
         <v>54</v>
       </c>
-      <c r="P348" s="3">
+      <c r="P348">
         <v>57</v>
       </c>
-      <c r="Q348" s="3">
+      <c r="Q348">
         <v>68</v>
       </c>
-      <c r="R348" s="3">
+      <c r="R348">
         <v>73</v>
       </c>
-      <c r="S348" s="3">
+      <c r="S348">
         <v>76</v>
       </c>
-      <c r="T348" s="3">
+      <c r="T348">
         <v>88</v>
       </c>
-      <c r="U348" s="3">
+      <c r="U348">
         <v>89</v>
       </c>
     </row>
     <row r="349" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A349" s="2">
+      <c r="A349">
         <v>2855</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349">
         <v>3</v>
       </c>
-      <c r="C349" s="3">
+      <c r="C349">
         <v>8</v>
       </c>
-      <c r="D349" s="3">
+      <c r="D349">
         <v>12</v>
       </c>
-      <c r="E349" s="3">
+      <c r="E349">
         <v>15</v>
       </c>
-      <c r="F349" s="3">
+      <c r="F349">
         <v>20</v>
       </c>
-      <c r="G349" s="3">
+      <c r="G349">
         <v>29</v>
       </c>
-      <c r="H349" s="3">
+      <c r="H349">
         <v>42</v>
       </c>
-      <c r="I349" s="3">
+      <c r="I349">
         <v>43</v>
       </c>
-      <c r="J349" s="3">
+      <c r="J349">
         <v>45</v>
       </c>
-      <c r="K349" s="3">
+      <c r="K349">
         <v>47</v>
       </c>
-      <c r="L349" s="3">
+      <c r="L349">
         <v>50</v>
       </c>
-      <c r="M349" s="3">
+      <c r="M349">
         <v>53</v>
       </c>
-      <c r="N349" s="3">
+      <c r="N349">
         <v>62</v>
       </c>
-      <c r="O349" s="3">
+      <c r="O349">
         <v>67</v>
       </c>
-      <c r="P349" s="3">
+      <c r="P349">
         <v>73</v>
       </c>
-      <c r="Q349" s="3">
+      <c r="Q349">
         <v>75</v>
       </c>
-      <c r="R349" s="3">
+      <c r="R349">
         <v>81</v>
       </c>
-      <c r="S349" s="3">
+      <c r="S349">
         <v>86</v>
       </c>
-      <c r="T349" s="3">
+      <c r="T349">
         <v>87</v>
       </c>
-      <c r="U349" s="3">
+      <c r="U349">
         <v>96</v>
       </c>
     </row>
     <row r="350" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A350" s="2">
+      <c r="A350">
         <v>2856</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350">
         <v>0</v>
       </c>
-      <c r="C350" s="3">
+      <c r="C350">
         <v>2</v>
       </c>
-      <c r="D350" s="3">
+      <c r="D350">
         <v>4</v>
       </c>
-      <c r="E350" s="3">
+      <c r="E350">
         <v>8</v>
       </c>
-      <c r="F350" s="3">
+      <c r="F350">
         <v>9</v>
       </c>
-      <c r="G350" s="3">
+      <c r="G350">
         <v>10</v>
       </c>
-      <c r="H350" s="3">
+      <c r="H350">
         <v>12</v>
       </c>
-      <c r="I350" s="3">
+      <c r="I350">
         <v>14</v>
       </c>
-      <c r="J350" s="3">
+      <c r="J350">
         <v>15</v>
       </c>
-      <c r="K350" s="3">
+      <c r="K350">
         <v>42</v>
       </c>
-      <c r="L350" s="3">
+      <c r="L350">
         <v>43</v>
       </c>
-      <c r="M350" s="3">
+      <c r="M350">
         <v>53</v>
       </c>
-      <c r="N350" s="3">
+      <c r="N350">
         <v>67</v>
       </c>
-      <c r="O350" s="3">
+      <c r="O350">
         <v>69</v>
       </c>
-      <c r="P350" s="3">
+      <c r="P350">
         <v>72</v>
       </c>
-      <c r="Q350" s="3">
+      <c r="Q350">
         <v>79</v>
       </c>
-      <c r="R350" s="3">
+      <c r="R350">
         <v>85</v>
       </c>
-      <c r="S350" s="3">
+      <c r="S350">
         <v>93</v>
       </c>
-      <c r="T350" s="3">
+      <c r="T350">
         <v>98</v>
       </c>
-      <c r="U350" s="3">
+      <c r="U350">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="351" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A351" s="2">
+        <v>2857</v>
+      </c>
+      <c r="B351" s="3">
+        <v>4</v>
+      </c>
+      <c r="C351" s="3">
+        <v>12</v>
+      </c>
+      <c r="D351" s="3">
+        <v>13</v>
+      </c>
+      <c r="E351" s="3">
+        <v>20</v>
+      </c>
+      <c r="F351" s="3">
+        <v>22</v>
+      </c>
+      <c r="G351" s="3">
+        <v>26</v>
+      </c>
+      <c r="H351" s="3">
+        <v>30</v>
+      </c>
+      <c r="I351" s="3">
+        <v>34</v>
+      </c>
+      <c r="J351" s="3">
+        <v>36</v>
+      </c>
+      <c r="K351" s="3">
+        <v>52</v>
+      </c>
+      <c r="L351" s="3">
+        <v>69</v>
+      </c>
+      <c r="M351" s="3">
+        <v>74</v>
+      </c>
+      <c r="N351" s="3">
+        <v>77</v>
+      </c>
+      <c r="O351" s="3">
+        <v>80</v>
+      </c>
+      <c r="P351" s="3">
+        <v>82</v>
+      </c>
+      <c r="Q351" s="3">
+        <v>87</v>
+      </c>
+      <c r="R351" s="3">
+        <v>92</v>
+      </c>
+      <c r="S351" s="3">
+        <v>95</v>
+      </c>
+      <c r="T351" s="3">
+        <v>96</v>
+      </c>
+      <c r="U351" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="352" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A352" s="2">
+        <v>2858</v>
+      </c>
+      <c r="B352" s="3">
+        <v>1</v>
+      </c>
+      <c r="C352" s="3">
+        <v>3</v>
+      </c>
+      <c r="D352" s="3">
+        <v>6</v>
+      </c>
+      <c r="E352" s="3">
+        <v>8</v>
+      </c>
+      <c r="F352" s="3">
+        <v>9</v>
+      </c>
+      <c r="G352" s="3">
+        <v>20</v>
+      </c>
+      <c r="H352" s="3">
+        <v>24</v>
+      </c>
+      <c r="I352" s="3">
+        <v>25</v>
+      </c>
+      <c r="J352" s="3">
+        <v>43</v>
+      </c>
+      <c r="K352" s="3">
+        <v>44</v>
+      </c>
+      <c r="L352" s="3">
+        <v>52</v>
+      </c>
+      <c r="M352" s="3">
+        <v>58</v>
+      </c>
+      <c r="N352" s="3">
+        <v>61</v>
+      </c>
+      <c r="O352" s="3">
+        <v>66</v>
+      </c>
+      <c r="P352" s="3">
+        <v>67</v>
+      </c>
+      <c r="Q352" s="3">
+        <v>77</v>
+      </c>
+      <c r="R352" s="3">
+        <v>88</v>
+      </c>
+      <c r="S352" s="3">
+        <v>89</v>
+      </c>
+      <c r="T352" s="3">
+        <v>90</v>
+      </c>
+      <c r="U352" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A353" s="2">
+        <v>2859</v>
+      </c>
+      <c r="B353" s="3">
+        <v>2</v>
+      </c>
+      <c r="C353" s="3">
+        <v>11</v>
+      </c>
+      <c r="D353" s="3">
+        <v>12</v>
+      </c>
+      <c r="E353" s="3">
+        <v>14</v>
+      </c>
+      <c r="F353" s="3">
+        <v>17</v>
+      </c>
+      <c r="G353" s="3">
+        <v>19</v>
+      </c>
+      <c r="H353" s="3">
+        <v>20</v>
+      </c>
+      <c r="I353" s="3">
+        <v>28</v>
+      </c>
+      <c r="J353" s="3">
+        <v>31</v>
+      </c>
+      <c r="K353" s="3">
+        <v>32</v>
+      </c>
+      <c r="L353" s="3">
+        <v>41</v>
+      </c>
+      <c r="M353" s="3">
+        <v>51</v>
+      </c>
+      <c r="N353" s="3">
+        <v>55</v>
+      </c>
+      <c r="O353" s="3">
+        <v>68</v>
+      </c>
+      <c r="P353" s="3">
+        <v>73</v>
+      </c>
+      <c r="Q353" s="3">
+        <v>75</v>
+      </c>
+      <c r="R353" s="3">
+        <v>77</v>
+      </c>
+      <c r="S353" s="3">
+        <v>90</v>
+      </c>
+      <c r="T353" s="3">
+        <v>98</v>
+      </c>
+      <c r="U353" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A354" s="2">
+        <v>2860</v>
+      </c>
+      <c r="B354" s="3">
+        <v>0</v>
+      </c>
+      <c r="C354" s="3">
+        <v>1</v>
+      </c>
+      <c r="D354" s="3">
+        <v>5</v>
+      </c>
+      <c r="E354" s="3">
+        <v>6</v>
+      </c>
+      <c r="F354" s="3">
+        <v>9</v>
+      </c>
+      <c r="G354" s="3">
+        <v>12</v>
+      </c>
+      <c r="H354" s="3">
+        <v>14</v>
+      </c>
+      <c r="I354" s="3">
+        <v>22</v>
+      </c>
+      <c r="J354" s="3">
+        <v>25</v>
+      </c>
+      <c r="K354" s="3">
+        <v>29</v>
+      </c>
+      <c r="L354" s="3">
+        <v>31</v>
+      </c>
+      <c r="M354" s="3">
+        <v>34</v>
+      </c>
+      <c r="N354" s="3">
+        <v>39</v>
+      </c>
+      <c r="O354" s="3">
+        <v>47</v>
+      </c>
+      <c r="P354" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q354" s="3">
+        <v>67</v>
+      </c>
+      <c r="R354" s="3">
+        <v>72</v>
+      </c>
+      <c r="S354" s="3">
+        <v>79</v>
+      </c>
+      <c r="T354" s="3">
+        <v>80</v>
+      </c>
+      <c r="U354" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A355" s="2">
+        <v>2861</v>
+      </c>
+      <c r="B355" s="3">
+        <v>4</v>
+      </c>
+      <c r="C355" s="3">
+        <v>13</v>
+      </c>
+      <c r="D355" s="3">
+        <v>17</v>
+      </c>
+      <c r="E355" s="3">
+        <v>22</v>
+      </c>
+      <c r="F355" s="3">
+        <v>29</v>
+      </c>
+      <c r="G355" s="3">
+        <v>32</v>
+      </c>
+      <c r="H355" s="3">
+        <v>36</v>
+      </c>
+      <c r="I355" s="3">
+        <v>46</v>
+      </c>
+      <c r="J355" s="3">
+        <v>50</v>
+      </c>
+      <c r="K355" s="3">
+        <v>57</v>
+      </c>
+      <c r="L355" s="3">
+        <v>66</v>
+      </c>
+      <c r="M355" s="3">
+        <v>71</v>
+      </c>
+      <c r="N355" s="3">
+        <v>75</v>
+      </c>
+      <c r="O355" s="3">
+        <v>77</v>
+      </c>
+      <c r="P355" s="3">
+        <v>81</v>
+      </c>
+      <c r="Q355" s="3">
+        <v>86</v>
+      </c>
+      <c r="R355" s="3">
+        <v>89</v>
+      </c>
+      <c r="S355" s="3">
+        <v>90</v>
+      </c>
+      <c r="T355" s="3">
+        <v>95</v>
+      </c>
+      <c r="U355" s="3">
         <v>99</v>
       </c>
     </row>
@@ -23248,15 +23573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -23264,6 +23580,15 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23435,20 +23760,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513E662-6C38-4932-BAC6-6CEABFB3A6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25004AA3-955C-4B75-960B-EF77726922C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76200" yWindow="3630" windowWidth="19545" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="58110" yWindow="5310" windowWidth="19545" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:V355"/>
+  <dimension ref="A1:V357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="B351" sqref="B351:U355"/>
+    <sheetView tabSelected="1" topLeftCell="F333" workbookViewId="0">
+      <selection activeCell="B356" sqref="B356:U357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -23243,328 +23243,458 @@
       </c>
     </row>
     <row r="351" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A351" s="2">
+      <c r="A351">
         <v>2857</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351">
         <v>4</v>
       </c>
-      <c r="C351" s="3">
+      <c r="C351">
         <v>12</v>
       </c>
-      <c r="D351" s="3">
+      <c r="D351">
         <v>13</v>
       </c>
-      <c r="E351" s="3">
+      <c r="E351">
         <v>20</v>
       </c>
-      <c r="F351" s="3">
+      <c r="F351">
         <v>22</v>
       </c>
-      <c r="G351" s="3">
+      <c r="G351">
         <v>26</v>
       </c>
-      <c r="H351" s="3">
+      <c r="H351">
         <v>30</v>
       </c>
-      <c r="I351" s="3">
+      <c r="I351">
         <v>34</v>
       </c>
-      <c r="J351" s="3">
+      <c r="J351">
         <v>36</v>
       </c>
-      <c r="K351" s="3">
+      <c r="K351">
         <v>52</v>
       </c>
-      <c r="L351" s="3">
+      <c r="L351">
         <v>69</v>
       </c>
-      <c r="M351" s="3">
+      <c r="M351">
         <v>74</v>
       </c>
-      <c r="N351" s="3">
+      <c r="N351">
         <v>77</v>
       </c>
-      <c r="O351" s="3">
+      <c r="O351">
         <v>80</v>
       </c>
-      <c r="P351" s="3">
+      <c r="P351">
         <v>82</v>
       </c>
-      <c r="Q351" s="3">
+      <c r="Q351">
         <v>87</v>
       </c>
-      <c r="R351" s="3">
+      <c r="R351">
         <v>92</v>
       </c>
-      <c r="S351" s="3">
+      <c r="S351">
         <v>95</v>
       </c>
-      <c r="T351" s="3">
+      <c r="T351">
         <v>96</v>
       </c>
-      <c r="U351" s="3">
+      <c r="U351">
         <v>99</v>
       </c>
     </row>
     <row r="352" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A352" s="2">
+      <c r="A352">
         <v>2858</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352">
         <v>1</v>
       </c>
-      <c r="C352" s="3">
+      <c r="C352">
         <v>3</v>
       </c>
-      <c r="D352" s="3">
+      <c r="D352">
         <v>6</v>
       </c>
-      <c r="E352" s="3">
+      <c r="E352">
         <v>8</v>
       </c>
-      <c r="F352" s="3">
+      <c r="F352">
         <v>9</v>
       </c>
-      <c r="G352" s="3">
+      <c r="G352">
         <v>20</v>
       </c>
-      <c r="H352" s="3">
+      <c r="H352">
         <v>24</v>
       </c>
-      <c r="I352" s="3">
+      <c r="I352">
         <v>25</v>
       </c>
-      <c r="J352" s="3">
+      <c r="J352">
         <v>43</v>
       </c>
-      <c r="K352" s="3">
+      <c r="K352">
         <v>44</v>
       </c>
-      <c r="L352" s="3">
+      <c r="L352">
         <v>52</v>
       </c>
-      <c r="M352" s="3">
+      <c r="M352">
         <v>58</v>
       </c>
-      <c r="N352" s="3">
+      <c r="N352">
         <v>61</v>
       </c>
-      <c r="O352" s="3">
+      <c r="O352">
         <v>66</v>
       </c>
-      <c r="P352" s="3">
+      <c r="P352">
         <v>67</v>
       </c>
-      <c r="Q352" s="3">
+      <c r="Q352">
         <v>77</v>
       </c>
-      <c r="R352" s="3">
+      <c r="R352">
         <v>88</v>
       </c>
-      <c r="S352" s="3">
+      <c r="S352">
         <v>89</v>
       </c>
-      <c r="T352" s="3">
+      <c r="T352">
         <v>90</v>
       </c>
-      <c r="U352" s="3">
+      <c r="U352">
         <v>93</v>
       </c>
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A353" s="2">
+      <c r="A353">
         <v>2859</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353">
         <v>2</v>
       </c>
-      <c r="C353" s="3">
+      <c r="C353">
         <v>11</v>
       </c>
-      <c r="D353" s="3">
+      <c r="D353">
         <v>12</v>
       </c>
-      <c r="E353" s="3">
+      <c r="E353">
         <v>14</v>
       </c>
-      <c r="F353" s="3">
+      <c r="F353">
         <v>17</v>
       </c>
-      <c r="G353" s="3">
+      <c r="G353">
         <v>19</v>
       </c>
-      <c r="H353" s="3">
+      <c r="H353">
         <v>20</v>
       </c>
-      <c r="I353" s="3">
+      <c r="I353">
         <v>28</v>
       </c>
-      <c r="J353" s="3">
+      <c r="J353">
         <v>31</v>
       </c>
-      <c r="K353" s="3">
+      <c r="K353">
         <v>32</v>
       </c>
-      <c r="L353" s="3">
+      <c r="L353">
         <v>41</v>
       </c>
-      <c r="M353" s="3">
+      <c r="M353">
         <v>51</v>
       </c>
-      <c r="N353" s="3">
+      <c r="N353">
         <v>55</v>
       </c>
-      <c r="O353" s="3">
+      <c r="O353">
         <v>68</v>
       </c>
-      <c r="P353" s="3">
+      <c r="P353">
         <v>73</v>
       </c>
-      <c r="Q353" s="3">
+      <c r="Q353">
         <v>75</v>
       </c>
-      <c r="R353" s="3">
+      <c r="R353">
         <v>77</v>
       </c>
-      <c r="S353" s="3">
+      <c r="S353">
         <v>90</v>
       </c>
-      <c r="T353" s="3">
+      <c r="T353">
         <v>98</v>
       </c>
-      <c r="U353" s="3">
+      <c r="U353">
         <v>99</v>
       </c>
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A354" s="2">
+      <c r="A354">
         <v>2860</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354">
         <v>0</v>
       </c>
-      <c r="C354" s="3">
+      <c r="C354">
         <v>1</v>
       </c>
-      <c r="D354" s="3">
+      <c r="D354">
         <v>5</v>
       </c>
-      <c r="E354" s="3">
+      <c r="E354">
         <v>6</v>
       </c>
-      <c r="F354" s="3">
+      <c r="F354">
         <v>9</v>
       </c>
-      <c r="G354" s="3">
+      <c r="G354">
         <v>12</v>
       </c>
-      <c r="H354" s="3">
+      <c r="H354">
         <v>14</v>
       </c>
-      <c r="I354" s="3">
+      <c r="I354">
         <v>22</v>
       </c>
-      <c r="J354" s="3">
+      <c r="J354">
         <v>25</v>
       </c>
-      <c r="K354" s="3">
+      <c r="K354">
         <v>29</v>
       </c>
-      <c r="L354" s="3">
+      <c r="L354">
         <v>31</v>
       </c>
-      <c r="M354" s="3">
+      <c r="M354">
         <v>34</v>
       </c>
-      <c r="N354" s="3">
+      <c r="N354">
         <v>39</v>
       </c>
-      <c r="O354" s="3">
+      <c r="O354">
         <v>47</v>
       </c>
-      <c r="P354" s="3">
+      <c r="P354">
         <v>66</v>
       </c>
-      <c r="Q354" s="3">
+      <c r="Q354">
         <v>67</v>
       </c>
-      <c r="R354" s="3">
+      <c r="R354">
         <v>72</v>
       </c>
-      <c r="S354" s="3">
+      <c r="S354">
         <v>79</v>
       </c>
-      <c r="T354" s="3">
+      <c r="T354">
         <v>80</v>
       </c>
-      <c r="U354" s="3">
+      <c r="U354">
         <v>98</v>
       </c>
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A355" s="2">
+      <c r="A355">
         <v>2861</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355">
         <v>4</v>
       </c>
-      <c r="C355" s="3">
+      <c r="C355">
         <v>13</v>
       </c>
-      <c r="D355" s="3">
+      <c r="D355">
         <v>17</v>
       </c>
-      <c r="E355" s="3">
+      <c r="E355">
         <v>22</v>
       </c>
-      <c r="F355" s="3">
+      <c r="F355">
         <v>29</v>
       </c>
-      <c r="G355" s="3">
+      <c r="G355">
         <v>32</v>
       </c>
-      <c r="H355" s="3">
+      <c r="H355">
         <v>36</v>
       </c>
-      <c r="I355" s="3">
+      <c r="I355">
         <v>46</v>
       </c>
-      <c r="J355" s="3">
+      <c r="J355">
         <v>50</v>
       </c>
-      <c r="K355" s="3">
+      <c r="K355">
         <v>57</v>
       </c>
-      <c r="L355" s="3">
+      <c r="L355">
         <v>66</v>
       </c>
-      <c r="M355" s="3">
+      <c r="M355">
         <v>71</v>
       </c>
-      <c r="N355" s="3">
+      <c r="N355">
         <v>75</v>
       </c>
-      <c r="O355" s="3">
+      <c r="O355">
         <v>77</v>
       </c>
-      <c r="P355" s="3">
+      <c r="P355">
         <v>81</v>
       </c>
-      <c r="Q355" s="3">
+      <c r="Q355">
         <v>86</v>
       </c>
-      <c r="R355" s="3">
+      <c r="R355">
         <v>89</v>
       </c>
-      <c r="S355" s="3">
+      <c r="S355">
         <v>90</v>
       </c>
-      <c r="T355" s="3">
+      <c r="T355">
         <v>95</v>
       </c>
-      <c r="U355" s="3">
+      <c r="U355">
         <v>99</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A356" s="2">
+        <v>2862</v>
+      </c>
+      <c r="B356" s="3">
+        <v>1</v>
+      </c>
+      <c r="C356" s="3">
+        <v>3</v>
+      </c>
+      <c r="D356" s="3">
+        <v>4</v>
+      </c>
+      <c r="E356" s="3">
+        <v>6</v>
+      </c>
+      <c r="F356" s="3">
+        <v>16</v>
+      </c>
+      <c r="G356" s="3">
+        <v>18</v>
+      </c>
+      <c r="H356" s="3">
+        <v>25</v>
+      </c>
+      <c r="I356" s="3">
+        <v>27</v>
+      </c>
+      <c r="J356" s="3">
+        <v>28</v>
+      </c>
+      <c r="K356" s="3">
+        <v>35</v>
+      </c>
+      <c r="L356" s="3">
+        <v>42</v>
+      </c>
+      <c r="M356" s="3">
+        <v>54</v>
+      </c>
+      <c r="N356" s="3">
+        <v>59</v>
+      </c>
+      <c r="O356" s="3">
+        <v>63</v>
+      </c>
+      <c r="P356" s="3">
+        <v>74</v>
+      </c>
+      <c r="Q356" s="3">
+        <v>76</v>
+      </c>
+      <c r="R356" s="3">
+        <v>80</v>
+      </c>
+      <c r="S356" s="3">
+        <v>88</v>
+      </c>
+      <c r="T356" s="3">
+        <v>93</v>
+      </c>
+      <c r="U356" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A357" s="2">
+        <v>2863</v>
+      </c>
+      <c r="B357" s="3">
+        <v>18</v>
+      </c>
+      <c r="C357" s="3">
+        <v>28</v>
+      </c>
+      <c r="D357" s="3">
+        <v>29</v>
+      </c>
+      <c r="E357" s="3">
+        <v>30</v>
+      </c>
+      <c r="F357" s="3">
+        <v>32</v>
+      </c>
+      <c r="G357" s="3">
+        <v>37</v>
+      </c>
+      <c r="H357" s="3">
+        <v>47</v>
+      </c>
+      <c r="I357" s="3">
+        <v>60</v>
+      </c>
+      <c r="J357" s="3">
+        <v>61</v>
+      </c>
+      <c r="K357" s="3">
+        <v>71</v>
+      </c>
+      <c r="L357" s="3">
+        <v>72</v>
+      </c>
+      <c r="M357" s="3">
+        <v>78</v>
+      </c>
+      <c r="N357" s="3">
+        <v>81</v>
+      </c>
+      <c r="O357" s="3">
+        <v>82</v>
+      </c>
+      <c r="P357" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q357" s="3">
+        <v>87</v>
+      </c>
+      <c r="R357" s="3">
+        <v>88</v>
+      </c>
+      <c r="S357" s="3">
+        <v>89</v>
+      </c>
+      <c r="T357" s="3">
+        <v>93</v>
+      </c>
+      <c r="U357" s="3">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -23573,6 +23703,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -23580,15 +23719,6 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23760,20 +23890,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25004AA3-955C-4B75-960B-EF77726922C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871E7098-AAA9-4AFC-9808-50141B65F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58110" yWindow="5310" windowWidth="19545" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="69420" yWindow="330" windowWidth="25020" windowHeight="11430" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -148,13 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:V357"/>
+  <dimension ref="A1:V358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F333" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356:U357"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="K358" sqref="K358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -23568,133 +23566,198 @@
       </c>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A356" s="2">
+      <c r="A356">
         <v>2862</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356">
         <v>1</v>
       </c>
-      <c r="C356" s="3">
+      <c r="C356">
         <v>3</v>
       </c>
-      <c r="D356" s="3">
+      <c r="D356">
         <v>4</v>
       </c>
-      <c r="E356" s="3">
+      <c r="E356">
         <v>6</v>
       </c>
-      <c r="F356" s="3">
+      <c r="F356">
         <v>16</v>
       </c>
-      <c r="G356" s="3">
+      <c r="G356">
         <v>18</v>
       </c>
-      <c r="H356" s="3">
+      <c r="H356">
         <v>25</v>
       </c>
-      <c r="I356" s="3">
+      <c r="I356">
         <v>27</v>
       </c>
-      <c r="J356" s="3">
+      <c r="J356">
         <v>28</v>
       </c>
-      <c r="K356" s="3">
+      <c r="K356">
         <v>35</v>
       </c>
-      <c r="L356" s="3">
+      <c r="L356">
         <v>42</v>
       </c>
-      <c r="M356" s="3">
+      <c r="M356">
         <v>54</v>
       </c>
-      <c r="N356" s="3">
+      <c r="N356">
         <v>59</v>
       </c>
-      <c r="O356" s="3">
+      <c r="O356">
         <v>63</v>
       </c>
-      <c r="P356" s="3">
+      <c r="P356">
         <v>74</v>
       </c>
-      <c r="Q356" s="3">
+      <c r="Q356">
         <v>76</v>
       </c>
-      <c r="R356" s="3">
+      <c r="R356">
         <v>80</v>
       </c>
-      <c r="S356" s="3">
+      <c r="S356">
         <v>88</v>
       </c>
-      <c r="T356" s="3">
+      <c r="T356">
         <v>93</v>
       </c>
-      <c r="U356" s="3">
+      <c r="U356">
         <v>97</v>
       </c>
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A357" s="2">
+      <c r="A357">
         <v>2863</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357">
         <v>18</v>
       </c>
-      <c r="C357" s="3">
+      <c r="C357">
         <v>28</v>
       </c>
-      <c r="D357" s="3">
+      <c r="D357">
         <v>29</v>
       </c>
-      <c r="E357" s="3">
+      <c r="E357">
         <v>30</v>
       </c>
-      <c r="F357" s="3">
+      <c r="F357">
         <v>32</v>
       </c>
-      <c r="G357" s="3">
+      <c r="G357">
         <v>37</v>
       </c>
-      <c r="H357" s="3">
+      <c r="H357">
         <v>47</v>
       </c>
-      <c r="I357" s="3">
+      <c r="I357">
         <v>60</v>
       </c>
-      <c r="J357" s="3">
+      <c r="J357">
         <v>61</v>
       </c>
-      <c r="K357" s="3">
+      <c r="K357">
         <v>71</v>
       </c>
-      <c r="L357" s="3">
+      <c r="L357">
         <v>72</v>
       </c>
-      <c r="M357" s="3">
+      <c r="M357">
         <v>78</v>
       </c>
-      <c r="N357" s="3">
+      <c r="N357">
         <v>81</v>
       </c>
-      <c r="O357" s="3">
+      <c r="O357">
         <v>82</v>
       </c>
-      <c r="P357" s="3">
+      <c r="P357">
         <v>85</v>
       </c>
-      <c r="Q357" s="3">
+      <c r="Q357">
         <v>87</v>
       </c>
-      <c r="R357" s="3">
+      <c r="R357">
         <v>88</v>
       </c>
-      <c r="S357" s="3">
+      <c r="S357">
         <v>89</v>
       </c>
-      <c r="T357" s="3">
+      <c r="T357">
         <v>93</v>
       </c>
-      <c r="U357" s="3">
+      <c r="U357">
         <v>96</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A358">
+        <v>2864</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>4</v>
+      </c>
+      <c r="D358">
+        <v>15</v>
+      </c>
+      <c r="E358">
+        <v>17</v>
+      </c>
+      <c r="F358">
+        <v>18</v>
+      </c>
+      <c r="G358">
+        <v>22</v>
+      </c>
+      <c r="H358">
+        <v>23</v>
+      </c>
+      <c r="I358">
+        <v>32</v>
+      </c>
+      <c r="J358">
+        <v>37</v>
+      </c>
+      <c r="K358">
+        <v>40</v>
+      </c>
+      <c r="L358">
+        <v>42</v>
+      </c>
+      <c r="M358">
+        <v>71</v>
+      </c>
+      <c r="N358">
+        <v>73</v>
+      </c>
+      <c r="O358">
+        <v>77</v>
+      </c>
+      <c r="P358">
+        <v>79</v>
+      </c>
+      <c r="Q358">
+        <v>81</v>
+      </c>
+      <c r="R358">
+        <v>84</v>
+      </c>
+      <c r="S358">
+        <v>96</v>
+      </c>
+      <c r="T358">
+        <v>98</v>
+      </c>
+      <c r="U358">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -23712,16 +23775,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -23889,6 +23942,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
   <ds:schemaRefs>
@@ -23898,17 +23961,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDEE3BD0-E82A-45EA-BF5A-733EBB4C31D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23926,4 +23978,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871E7098-AAA9-4AFC-9808-50141B65F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60F853B-3D87-4832-9031-511E335F3DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69420" yWindow="330" windowWidth="25020" windowHeight="11430" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57555" yWindow="315" windowWidth="19740" windowHeight="16020" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -148,11 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:V358"/>
+  <dimension ref="A1:V368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="K358" sqref="K358"/>
+    <sheetView tabSelected="1" topLeftCell="F339" workbookViewId="0">
+      <selection activeCell="B359" sqref="B359:U368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -23760,18 +23762,669 @@
         <v>99</v>
       </c>
     </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A359" s="2">
+        <v>2865</v>
+      </c>
+      <c r="B359" s="3">
+        <v>2</v>
+      </c>
+      <c r="C359" s="3">
+        <v>17</v>
+      </c>
+      <c r="D359" s="3">
+        <v>25</v>
+      </c>
+      <c r="E359" s="3">
+        <v>34</v>
+      </c>
+      <c r="F359" s="3">
+        <v>40</v>
+      </c>
+      <c r="G359" s="3">
+        <v>41</v>
+      </c>
+      <c r="H359" s="3">
+        <v>46</v>
+      </c>
+      <c r="I359" s="3">
+        <v>49</v>
+      </c>
+      <c r="J359" s="3">
+        <v>52</v>
+      </c>
+      <c r="K359" s="3">
+        <v>55</v>
+      </c>
+      <c r="L359" s="3">
+        <v>57</v>
+      </c>
+      <c r="M359" s="3">
+        <v>63</v>
+      </c>
+      <c r="N359" s="3">
+        <v>71</v>
+      </c>
+      <c r="O359" s="3">
+        <v>75</v>
+      </c>
+      <c r="P359" s="3">
+        <v>76</v>
+      </c>
+      <c r="Q359" s="3">
+        <v>80</v>
+      </c>
+      <c r="R359" s="3">
+        <v>84</v>
+      </c>
+      <c r="S359" s="3">
+        <v>88</v>
+      </c>
+      <c r="T359" s="3">
+        <v>97</v>
+      </c>
+      <c r="U359" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A360" s="2">
+        <v>2866</v>
+      </c>
+      <c r="B360" s="3">
+        <v>7</v>
+      </c>
+      <c r="C360" s="3">
+        <v>16</v>
+      </c>
+      <c r="D360" s="3">
+        <v>17</v>
+      </c>
+      <c r="E360" s="3">
+        <v>18</v>
+      </c>
+      <c r="F360" s="3">
+        <v>23</v>
+      </c>
+      <c r="G360" s="3">
+        <v>24</v>
+      </c>
+      <c r="H360" s="3">
+        <v>38</v>
+      </c>
+      <c r="I360" s="3">
+        <v>41</v>
+      </c>
+      <c r="J360" s="3">
+        <v>44</v>
+      </c>
+      <c r="K360" s="3">
+        <v>45</v>
+      </c>
+      <c r="L360" s="3">
+        <v>50</v>
+      </c>
+      <c r="M360" s="3">
+        <v>52</v>
+      </c>
+      <c r="N360" s="3">
+        <v>56</v>
+      </c>
+      <c r="O360" s="3">
+        <v>58</v>
+      </c>
+      <c r="P360" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q360" s="3">
+        <v>75</v>
+      </c>
+      <c r="R360" s="3">
+        <v>76</v>
+      </c>
+      <c r="S360" s="3">
+        <v>80</v>
+      </c>
+      <c r="T360" s="3">
+        <v>90</v>
+      </c>
+      <c r="U360" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A361" s="2">
+        <v>2867</v>
+      </c>
+      <c r="B361" s="3">
+        <v>4</v>
+      </c>
+      <c r="C361" s="3">
+        <v>5</v>
+      </c>
+      <c r="D361" s="3">
+        <v>11</v>
+      </c>
+      <c r="E361" s="3">
+        <v>22</v>
+      </c>
+      <c r="F361" s="3">
+        <v>27</v>
+      </c>
+      <c r="G361" s="3">
+        <v>28</v>
+      </c>
+      <c r="H361" s="3">
+        <v>34</v>
+      </c>
+      <c r="I361" s="3">
+        <v>36</v>
+      </c>
+      <c r="J361" s="3">
+        <v>38</v>
+      </c>
+      <c r="K361" s="3">
+        <v>44</v>
+      </c>
+      <c r="L361" s="3">
+        <v>47</v>
+      </c>
+      <c r="M361" s="3">
+        <v>48</v>
+      </c>
+      <c r="N361" s="3">
+        <v>51</v>
+      </c>
+      <c r="O361" s="3">
+        <v>62</v>
+      </c>
+      <c r="P361" s="3">
+        <v>65</v>
+      </c>
+      <c r="Q361" s="3">
+        <v>66</v>
+      </c>
+      <c r="R361" s="3">
+        <v>72</v>
+      </c>
+      <c r="S361" s="3">
+        <v>87</v>
+      </c>
+      <c r="T361" s="3">
+        <v>89</v>
+      </c>
+      <c r="U361" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A362" s="2">
+        <v>2868</v>
+      </c>
+      <c r="B362" s="3">
+        <v>3</v>
+      </c>
+      <c r="C362" s="3">
+        <v>18</v>
+      </c>
+      <c r="D362" s="3">
+        <v>19</v>
+      </c>
+      <c r="E362" s="3">
+        <v>24</v>
+      </c>
+      <c r="F362" s="3">
+        <v>25</v>
+      </c>
+      <c r="G362" s="3">
+        <v>26</v>
+      </c>
+      <c r="H362" s="3">
+        <v>28</v>
+      </c>
+      <c r="I362" s="3">
+        <v>31</v>
+      </c>
+      <c r="J362" s="3">
+        <v>41</v>
+      </c>
+      <c r="K362" s="3">
+        <v>48</v>
+      </c>
+      <c r="L362" s="3">
+        <v>62</v>
+      </c>
+      <c r="M362" s="3">
+        <v>63</v>
+      </c>
+      <c r="N362" s="3">
+        <v>68</v>
+      </c>
+      <c r="O362" s="3">
+        <v>73</v>
+      </c>
+      <c r="P362" s="3">
+        <v>81</v>
+      </c>
+      <c r="Q362" s="3">
+        <v>85</v>
+      </c>
+      <c r="R362" s="3">
+        <v>88</v>
+      </c>
+      <c r="S362" s="3">
+        <v>92</v>
+      </c>
+      <c r="T362" s="3">
+        <v>94</v>
+      </c>
+      <c r="U362" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A363" s="2">
+        <v>2869</v>
+      </c>
+      <c r="B363" s="3">
+        <v>1</v>
+      </c>
+      <c r="C363" s="3">
+        <v>11</v>
+      </c>
+      <c r="D363" s="3">
+        <v>18</v>
+      </c>
+      <c r="E363" s="3">
+        <v>22</v>
+      </c>
+      <c r="F363" s="3">
+        <v>27</v>
+      </c>
+      <c r="G363" s="3">
+        <v>32</v>
+      </c>
+      <c r="H363" s="3">
+        <v>36</v>
+      </c>
+      <c r="I363" s="3">
+        <v>37</v>
+      </c>
+      <c r="J363" s="3">
+        <v>44</v>
+      </c>
+      <c r="K363" s="3">
+        <v>45</v>
+      </c>
+      <c r="L363" s="3">
+        <v>47</v>
+      </c>
+      <c r="M363" s="3">
+        <v>53</v>
+      </c>
+      <c r="N363" s="3">
+        <v>66</v>
+      </c>
+      <c r="O363" s="3">
+        <v>70</v>
+      </c>
+      <c r="P363" s="3">
+        <v>77</v>
+      </c>
+      <c r="Q363" s="3">
+        <v>84</v>
+      </c>
+      <c r="R363" s="3">
+        <v>86</v>
+      </c>
+      <c r="S363" s="3">
+        <v>92</v>
+      </c>
+      <c r="T363" s="3">
+        <v>93</v>
+      </c>
+      <c r="U363" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A364" s="2">
+        <v>2870</v>
+      </c>
+      <c r="B364" s="3">
+        <v>4</v>
+      </c>
+      <c r="C364" s="3">
+        <v>6</v>
+      </c>
+      <c r="D364" s="3">
+        <v>12</v>
+      </c>
+      <c r="E364" s="3">
+        <v>13</v>
+      </c>
+      <c r="F364" s="3">
+        <v>25</v>
+      </c>
+      <c r="G364" s="3">
+        <v>28</v>
+      </c>
+      <c r="H364" s="3">
+        <v>29</v>
+      </c>
+      <c r="I364" s="3">
+        <v>38</v>
+      </c>
+      <c r="J364" s="3">
+        <v>40</v>
+      </c>
+      <c r="K364" s="3">
+        <v>43</v>
+      </c>
+      <c r="L364" s="3">
+        <v>44</v>
+      </c>
+      <c r="M364" s="3">
+        <v>48</v>
+      </c>
+      <c r="N364" s="3">
+        <v>53</v>
+      </c>
+      <c r="O364" s="3">
+        <v>60</v>
+      </c>
+      <c r="P364" s="3">
+        <v>65</v>
+      </c>
+      <c r="Q364" s="3">
+        <v>67</v>
+      </c>
+      <c r="R364" s="3">
+        <v>68</v>
+      </c>
+      <c r="S364" s="3">
+        <v>72</v>
+      </c>
+      <c r="T364" s="3">
+        <v>84</v>
+      </c>
+      <c r="U364" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A365" s="2">
+        <v>2871</v>
+      </c>
+      <c r="B365" s="3">
+        <v>1</v>
+      </c>
+      <c r="C365" s="3">
+        <v>5</v>
+      </c>
+      <c r="D365" s="3">
+        <v>9</v>
+      </c>
+      <c r="E365" s="3">
+        <v>10</v>
+      </c>
+      <c r="F365" s="3">
+        <v>12</v>
+      </c>
+      <c r="G365" s="3">
+        <v>14</v>
+      </c>
+      <c r="H365" s="3">
+        <v>20</v>
+      </c>
+      <c r="I365" s="3">
+        <v>22</v>
+      </c>
+      <c r="J365" s="3">
+        <v>28</v>
+      </c>
+      <c r="K365" s="3">
+        <v>30</v>
+      </c>
+      <c r="L365" s="3">
+        <v>31</v>
+      </c>
+      <c r="M365" s="3">
+        <v>51</v>
+      </c>
+      <c r="N365" s="3">
+        <v>55</v>
+      </c>
+      <c r="O365" s="3">
+        <v>67</v>
+      </c>
+      <c r="P365" s="3">
+        <v>74</v>
+      </c>
+      <c r="Q365" s="3">
+        <v>80</v>
+      </c>
+      <c r="R365" s="3">
+        <v>86</v>
+      </c>
+      <c r="S365" s="3">
+        <v>87</v>
+      </c>
+      <c r="T365" s="3">
+        <v>93</v>
+      </c>
+      <c r="U365" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A366" s="2">
+        <v>2872</v>
+      </c>
+      <c r="B366" s="3">
+        <v>1</v>
+      </c>
+      <c r="C366" s="3">
+        <v>10</v>
+      </c>
+      <c r="D366" s="3">
+        <v>12</v>
+      </c>
+      <c r="E366" s="3">
+        <v>14</v>
+      </c>
+      <c r="F366" s="3">
+        <v>16</v>
+      </c>
+      <c r="G366" s="3">
+        <v>18</v>
+      </c>
+      <c r="H366" s="3">
+        <v>21</v>
+      </c>
+      <c r="I366" s="3">
+        <v>27</v>
+      </c>
+      <c r="J366" s="3">
+        <v>47</v>
+      </c>
+      <c r="K366" s="3">
+        <v>53</v>
+      </c>
+      <c r="L366" s="3">
+        <v>57</v>
+      </c>
+      <c r="M366" s="3">
+        <v>58</v>
+      </c>
+      <c r="N366" s="3">
+        <v>61</v>
+      </c>
+      <c r="O366" s="3">
+        <v>69</v>
+      </c>
+      <c r="P366" s="3">
+        <v>70</v>
+      </c>
+      <c r="Q366" s="3">
+        <v>76</v>
+      </c>
+      <c r="R366" s="3">
+        <v>80</v>
+      </c>
+      <c r="S366" s="3">
+        <v>81</v>
+      </c>
+      <c r="T366" s="3">
+        <v>89</v>
+      </c>
+      <c r="U366" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A367" s="2">
+        <v>2873</v>
+      </c>
+      <c r="B367" s="3">
+        <v>2</v>
+      </c>
+      <c r="C367" s="3">
+        <v>3</v>
+      </c>
+      <c r="D367" s="3">
+        <v>5</v>
+      </c>
+      <c r="E367" s="3">
+        <v>10</v>
+      </c>
+      <c r="F367" s="3">
+        <v>11</v>
+      </c>
+      <c r="G367" s="3">
+        <v>19</v>
+      </c>
+      <c r="H367" s="3">
+        <v>23</v>
+      </c>
+      <c r="I367" s="3">
+        <v>24</v>
+      </c>
+      <c r="J367" s="3">
+        <v>38</v>
+      </c>
+      <c r="K367" s="3">
+        <v>39</v>
+      </c>
+      <c r="L367" s="3">
+        <v>49</v>
+      </c>
+      <c r="M367" s="3">
+        <v>50</v>
+      </c>
+      <c r="N367" s="3">
+        <v>57</v>
+      </c>
+      <c r="O367" s="3">
+        <v>60</v>
+      </c>
+      <c r="P367" s="3">
+        <v>62</v>
+      </c>
+      <c r="Q367" s="3">
+        <v>74</v>
+      </c>
+      <c r="R367" s="3">
+        <v>75</v>
+      </c>
+      <c r="S367" s="3">
+        <v>80</v>
+      </c>
+      <c r="T367" s="3">
+        <v>86</v>
+      </c>
+      <c r="U367" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A368" s="2">
+        <v>2874</v>
+      </c>
+      <c r="B368" s="3">
+        <v>1</v>
+      </c>
+      <c r="C368" s="3">
+        <v>4</v>
+      </c>
+      <c r="D368" s="3">
+        <v>11</v>
+      </c>
+      <c r="E368" s="3">
+        <v>15</v>
+      </c>
+      <c r="F368" s="3">
+        <v>18</v>
+      </c>
+      <c r="G368" s="3">
+        <v>32</v>
+      </c>
+      <c r="H368" s="3">
+        <v>36</v>
+      </c>
+      <c r="I368" s="3">
+        <v>37</v>
+      </c>
+      <c r="J368" s="3">
+        <v>43</v>
+      </c>
+      <c r="K368" s="3">
+        <v>44</v>
+      </c>
+      <c r="L368" s="3">
+        <v>45</v>
+      </c>
+      <c r="M368" s="3">
+        <v>46</v>
+      </c>
+      <c r="N368" s="3">
+        <v>48</v>
+      </c>
+      <c r="O368" s="3">
+        <v>50</v>
+      </c>
+      <c r="P368" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q368" s="3">
+        <v>76</v>
+      </c>
+      <c r="R368" s="3">
+        <v>78</v>
+      </c>
+      <c r="S368" s="3">
+        <v>80</v>
+      </c>
+      <c r="T368" s="3">
+        <v>81</v>
+      </c>
+      <c r="U368" s="3">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23943,19 +24596,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23981,12 +24636,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60F853B-3D87-4832-9031-511E335F3DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE626C28-886A-47BD-A60E-76DB322F9718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57555" yWindow="315" windowWidth="19740" windowHeight="16020" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57810" yWindow="1050" windowWidth="23235" windowHeight="16920" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -148,13 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:V368"/>
+  <dimension ref="A1:V375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F339" workbookViewId="0">
-      <selection activeCell="B359" sqref="B359:U368"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="B369" sqref="B369:U375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -23763,653 +23761,1108 @@
       </c>
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A359" s="2">
+      <c r="A359">
         <v>2865</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359">
         <v>2</v>
       </c>
-      <c r="C359" s="3">
+      <c r="C359">
         <v>17</v>
       </c>
-      <c r="D359" s="3">
+      <c r="D359">
         <v>25</v>
       </c>
-      <c r="E359" s="3">
+      <c r="E359">
         <v>34</v>
       </c>
-      <c r="F359" s="3">
+      <c r="F359">
         <v>40</v>
       </c>
-      <c r="G359" s="3">
+      <c r="G359">
         <v>41</v>
       </c>
-      <c r="H359" s="3">
+      <c r="H359">
         <v>46</v>
       </c>
-      <c r="I359" s="3">
+      <c r="I359">
         <v>49</v>
       </c>
-      <c r="J359" s="3">
+      <c r="J359">
         <v>52</v>
       </c>
-      <c r="K359" s="3">
+      <c r="K359">
         <v>55</v>
       </c>
-      <c r="L359" s="3">
+      <c r="L359">
         <v>57</v>
       </c>
-      <c r="M359" s="3">
+      <c r="M359">
         <v>63</v>
       </c>
-      <c r="N359" s="3">
+      <c r="N359">
         <v>71</v>
       </c>
-      <c r="O359" s="3">
+      <c r="O359">
         <v>75</v>
       </c>
-      <c r="P359" s="3">
+      <c r="P359">
         <v>76</v>
       </c>
-      <c r="Q359" s="3">
+      <c r="Q359">
         <v>80</v>
       </c>
-      <c r="R359" s="3">
+      <c r="R359">
         <v>84</v>
       </c>
-      <c r="S359" s="3">
+      <c r="S359">
         <v>88</v>
       </c>
-      <c r="T359" s="3">
+      <c r="T359">
         <v>97</v>
       </c>
-      <c r="U359" s="3">
+      <c r="U359">
         <v>99</v>
       </c>
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A360" s="2">
+      <c r="A360">
         <v>2866</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360">
         <v>7</v>
       </c>
-      <c r="C360" s="3">
+      <c r="C360">
         <v>16</v>
       </c>
-      <c r="D360" s="3">
+      <c r="D360">
         <v>17</v>
       </c>
-      <c r="E360" s="3">
+      <c r="E360">
         <v>18</v>
       </c>
-      <c r="F360" s="3">
+      <c r="F360">
         <v>23</v>
       </c>
-      <c r="G360" s="3">
+      <c r="G360">
         <v>24</v>
       </c>
-      <c r="H360" s="3">
+      <c r="H360">
         <v>38</v>
       </c>
-      <c r="I360" s="3">
+      <c r="I360">
         <v>41</v>
       </c>
-      <c r="J360" s="3">
+      <c r="J360">
         <v>44</v>
       </c>
-      <c r="K360" s="3">
+      <c r="K360">
         <v>45</v>
       </c>
-      <c r="L360" s="3">
+      <c r="L360">
         <v>50</v>
       </c>
-      <c r="M360" s="3">
+      <c r="M360">
         <v>52</v>
       </c>
-      <c r="N360" s="3">
+      <c r="N360">
         <v>56</v>
       </c>
-      <c r="O360" s="3">
+      <c r="O360">
         <v>58</v>
       </c>
-      <c r="P360" s="3">
+      <c r="P360">
         <v>66</v>
       </c>
-      <c r="Q360" s="3">
+      <c r="Q360">
         <v>75</v>
       </c>
-      <c r="R360" s="3">
+      <c r="R360">
         <v>76</v>
       </c>
-      <c r="S360" s="3">
+      <c r="S360">
         <v>80</v>
       </c>
-      <c r="T360" s="3">
+      <c r="T360">
         <v>90</v>
       </c>
-      <c r="U360" s="3">
+      <c r="U360">
         <v>94</v>
       </c>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A361" s="2">
+      <c r="A361">
         <v>2867</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361">
         <v>4</v>
       </c>
-      <c r="C361" s="3">
+      <c r="C361">
         <v>5</v>
       </c>
-      <c r="D361" s="3">
+      <c r="D361">
         <v>11</v>
       </c>
-      <c r="E361" s="3">
+      <c r="E361">
         <v>22</v>
       </c>
-      <c r="F361" s="3">
+      <c r="F361">
         <v>27</v>
       </c>
-      <c r="G361" s="3">
+      <c r="G361">
         <v>28</v>
       </c>
-      <c r="H361" s="3">
+      <c r="H361">
         <v>34</v>
       </c>
-      <c r="I361" s="3">
+      <c r="I361">
         <v>36</v>
       </c>
-      <c r="J361" s="3">
+      <c r="J361">
         <v>38</v>
       </c>
-      <c r="K361" s="3">
+      <c r="K361">
         <v>44</v>
       </c>
-      <c r="L361" s="3">
+      <c r="L361">
         <v>47</v>
       </c>
-      <c r="M361" s="3">
+      <c r="M361">
         <v>48</v>
       </c>
-      <c r="N361" s="3">
+      <c r="N361">
         <v>51</v>
       </c>
-      <c r="O361" s="3">
+      <c r="O361">
         <v>62</v>
       </c>
-      <c r="P361" s="3">
+      <c r="P361">
         <v>65</v>
       </c>
-      <c r="Q361" s="3">
+      <c r="Q361">
         <v>66</v>
       </c>
-      <c r="R361" s="3">
+      <c r="R361">
         <v>72</v>
       </c>
-      <c r="S361" s="3">
+      <c r="S361">
         <v>87</v>
       </c>
-      <c r="T361" s="3">
+      <c r="T361">
         <v>89</v>
       </c>
-      <c r="U361" s="3">
+      <c r="U361">
         <v>93</v>
       </c>
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A362" s="2">
+      <c r="A362">
         <v>2868</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362">
         <v>3</v>
       </c>
-      <c r="C362" s="3">
+      <c r="C362">
         <v>18</v>
       </c>
-      <c r="D362" s="3">
+      <c r="D362">
         <v>19</v>
       </c>
-      <c r="E362" s="3">
+      <c r="E362">
         <v>24</v>
       </c>
-      <c r="F362" s="3">
+      <c r="F362">
         <v>25</v>
       </c>
-      <c r="G362" s="3">
+      <c r="G362">
         <v>26</v>
       </c>
-      <c r="H362" s="3">
+      <c r="H362">
         <v>28</v>
       </c>
-      <c r="I362" s="3">
+      <c r="I362">
         <v>31</v>
       </c>
-      <c r="J362" s="3">
+      <c r="J362">
         <v>41</v>
       </c>
-      <c r="K362" s="3">
+      <c r="K362">
         <v>48</v>
       </c>
-      <c r="L362" s="3">
+      <c r="L362">
         <v>62</v>
       </c>
-      <c r="M362" s="3">
+      <c r="M362">
         <v>63</v>
       </c>
-      <c r="N362" s="3">
+      <c r="N362">
         <v>68</v>
       </c>
-      <c r="O362" s="3">
+      <c r="O362">
         <v>73</v>
       </c>
-      <c r="P362" s="3">
+      <c r="P362">
         <v>81</v>
       </c>
-      <c r="Q362" s="3">
+      <c r="Q362">
         <v>85</v>
       </c>
-      <c r="R362" s="3">
+      <c r="R362">
         <v>88</v>
       </c>
-      <c r="S362" s="3">
+      <c r="S362">
         <v>92</v>
       </c>
-      <c r="T362" s="3">
+      <c r="T362">
         <v>94</v>
       </c>
-      <c r="U362" s="3">
+      <c r="U362">
         <v>96</v>
       </c>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A363" s="2">
+      <c r="A363">
         <v>2869</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363">
         <v>1</v>
       </c>
-      <c r="C363" s="3">
+      <c r="C363">
         <v>11</v>
       </c>
-      <c r="D363" s="3">
+      <c r="D363">
         <v>18</v>
       </c>
-      <c r="E363" s="3">
+      <c r="E363">
         <v>22</v>
       </c>
-      <c r="F363" s="3">
+      <c r="F363">
         <v>27</v>
       </c>
-      <c r="G363" s="3">
+      <c r="G363">
         <v>32</v>
       </c>
-      <c r="H363" s="3">
+      <c r="H363">
         <v>36</v>
       </c>
-      <c r="I363" s="3">
+      <c r="I363">
         <v>37</v>
       </c>
-      <c r="J363" s="3">
+      <c r="J363">
         <v>44</v>
       </c>
-      <c r="K363" s="3">
+      <c r="K363">
         <v>45</v>
       </c>
-      <c r="L363" s="3">
+      <c r="L363">
         <v>47</v>
       </c>
-      <c r="M363" s="3">
+      <c r="M363">
         <v>53</v>
       </c>
-      <c r="N363" s="3">
+      <c r="N363">
         <v>66</v>
       </c>
-      <c r="O363" s="3">
+      <c r="O363">
         <v>70</v>
       </c>
-      <c r="P363" s="3">
+      <c r="P363">
         <v>77</v>
       </c>
-      <c r="Q363" s="3">
+      <c r="Q363">
         <v>84</v>
       </c>
-      <c r="R363" s="3">
+      <c r="R363">
         <v>86</v>
       </c>
-      <c r="S363" s="3">
+      <c r="S363">
         <v>92</v>
       </c>
-      <c r="T363" s="3">
+      <c r="T363">
         <v>93</v>
       </c>
-      <c r="U363" s="3">
+      <c r="U363">
         <v>95</v>
       </c>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A364" s="2">
+      <c r="A364">
         <v>2870</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364">
         <v>4</v>
       </c>
-      <c r="C364" s="3">
+      <c r="C364">
         <v>6</v>
       </c>
-      <c r="D364" s="3">
+      <c r="D364">
         <v>12</v>
       </c>
-      <c r="E364" s="3">
+      <c r="E364">
         <v>13</v>
       </c>
-      <c r="F364" s="3">
+      <c r="F364">
         <v>25</v>
       </c>
-      <c r="G364" s="3">
+      <c r="G364">
         <v>28</v>
       </c>
-      <c r="H364" s="3">
+      <c r="H364">
         <v>29</v>
       </c>
-      <c r="I364" s="3">
+      <c r="I364">
         <v>38</v>
       </c>
-      <c r="J364" s="3">
+      <c r="J364">
         <v>40</v>
       </c>
-      <c r="K364" s="3">
+      <c r="K364">
         <v>43</v>
       </c>
-      <c r="L364" s="3">
+      <c r="L364">
         <v>44</v>
       </c>
-      <c r="M364" s="3">
+      <c r="M364">
         <v>48</v>
       </c>
-      <c r="N364" s="3">
+      <c r="N364">
         <v>53</v>
       </c>
-      <c r="O364" s="3">
+      <c r="O364">
         <v>60</v>
       </c>
-      <c r="P364" s="3">
+      <c r="P364">
         <v>65</v>
       </c>
-      <c r="Q364" s="3">
+      <c r="Q364">
         <v>67</v>
       </c>
-      <c r="R364" s="3">
+      <c r="R364">
         <v>68</v>
       </c>
-      <c r="S364" s="3">
+      <c r="S364">
         <v>72</v>
       </c>
-      <c r="T364" s="3">
+      <c r="T364">
         <v>84</v>
       </c>
-      <c r="U364" s="3">
+      <c r="U364">
         <v>92</v>
       </c>
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A365" s="2">
+      <c r="A365">
         <v>2871</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365">
         <v>1</v>
       </c>
-      <c r="C365" s="3">
+      <c r="C365">
         <v>5</v>
       </c>
-      <c r="D365" s="3">
+      <c r="D365">
         <v>9</v>
       </c>
-      <c r="E365" s="3">
+      <c r="E365">
         <v>10</v>
       </c>
-      <c r="F365" s="3">
+      <c r="F365">
         <v>12</v>
       </c>
-      <c r="G365" s="3">
+      <c r="G365">
         <v>14</v>
       </c>
-      <c r="H365" s="3">
+      <c r="H365">
         <v>20</v>
       </c>
-      <c r="I365" s="3">
+      <c r="I365">
         <v>22</v>
       </c>
-      <c r="J365" s="3">
+      <c r="J365">
         <v>28</v>
       </c>
-      <c r="K365" s="3">
+      <c r="K365">
         <v>30</v>
       </c>
-      <c r="L365" s="3">
+      <c r="L365">
         <v>31</v>
       </c>
-      <c r="M365" s="3">
+      <c r="M365">
         <v>51</v>
       </c>
-      <c r="N365" s="3">
+      <c r="N365">
         <v>55</v>
       </c>
-      <c r="O365" s="3">
+      <c r="O365">
         <v>67</v>
       </c>
-      <c r="P365" s="3">
+      <c r="P365">
         <v>74</v>
       </c>
-      <c r="Q365" s="3">
+      <c r="Q365">
         <v>80</v>
       </c>
-      <c r="R365" s="3">
+      <c r="R365">
         <v>86</v>
       </c>
-      <c r="S365" s="3">
+      <c r="S365">
         <v>87</v>
       </c>
-      <c r="T365" s="3">
+      <c r="T365">
         <v>93</v>
       </c>
-      <c r="U365" s="3">
+      <c r="U365">
         <v>97</v>
       </c>
     </row>
     <row r="366" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A366" s="2">
+      <c r="A366">
         <v>2872</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366">
         <v>1</v>
       </c>
-      <c r="C366" s="3">
+      <c r="C366">
         <v>10</v>
       </c>
-      <c r="D366" s="3">
+      <c r="D366">
         <v>12</v>
       </c>
-      <c r="E366" s="3">
+      <c r="E366">
         <v>14</v>
       </c>
-      <c r="F366" s="3">
+      <c r="F366">
         <v>16</v>
       </c>
-      <c r="G366" s="3">
+      <c r="G366">
         <v>18</v>
       </c>
-      <c r="H366" s="3">
+      <c r="H366">
         <v>21</v>
       </c>
-      <c r="I366" s="3">
+      <c r="I366">
         <v>27</v>
       </c>
-      <c r="J366" s="3">
+      <c r="J366">
         <v>47</v>
       </c>
-      <c r="K366" s="3">
+      <c r="K366">
         <v>53</v>
       </c>
-      <c r="L366" s="3">
+      <c r="L366">
         <v>57</v>
       </c>
-      <c r="M366" s="3">
+      <c r="M366">
         <v>58</v>
       </c>
-      <c r="N366" s="3">
+      <c r="N366">
         <v>61</v>
       </c>
-      <c r="O366" s="3">
+      <c r="O366">
         <v>69</v>
       </c>
-      <c r="P366" s="3">
+      <c r="P366">
         <v>70</v>
       </c>
-      <c r="Q366" s="3">
+      <c r="Q366">
         <v>76</v>
       </c>
-      <c r="R366" s="3">
+      <c r="R366">
         <v>80</v>
       </c>
-      <c r="S366" s="3">
+      <c r="S366">
         <v>81</v>
       </c>
-      <c r="T366" s="3">
+      <c r="T366">
         <v>89</v>
       </c>
-      <c r="U366" s="3">
+      <c r="U366">
         <v>90</v>
       </c>
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A367" s="2">
+      <c r="A367">
         <v>2873</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367">
         <v>2</v>
       </c>
-      <c r="C367" s="3">
+      <c r="C367">
         <v>3</v>
       </c>
-      <c r="D367" s="3">
+      <c r="D367">
         <v>5</v>
       </c>
-      <c r="E367" s="3">
+      <c r="E367">
         <v>10</v>
       </c>
-      <c r="F367" s="3">
+      <c r="F367">
         <v>11</v>
       </c>
-      <c r="G367" s="3">
+      <c r="G367">
         <v>19</v>
       </c>
-      <c r="H367" s="3">
+      <c r="H367">
         <v>23</v>
       </c>
-      <c r="I367" s="3">
+      <c r="I367">
         <v>24</v>
       </c>
-      <c r="J367" s="3">
+      <c r="J367">
         <v>38</v>
       </c>
-      <c r="K367" s="3">
+      <c r="K367">
         <v>39</v>
       </c>
-      <c r="L367" s="3">
+      <c r="L367">
         <v>49</v>
       </c>
-      <c r="M367" s="3">
+      <c r="M367">
         <v>50</v>
       </c>
-      <c r="N367" s="3">
+      <c r="N367">
         <v>57</v>
       </c>
-      <c r="O367" s="3">
+      <c r="O367">
         <v>60</v>
       </c>
-      <c r="P367" s="3">
+      <c r="P367">
         <v>62</v>
       </c>
-      <c r="Q367" s="3">
+      <c r="Q367">
         <v>74</v>
       </c>
-      <c r="R367" s="3">
+      <c r="R367">
         <v>75</v>
       </c>
-      <c r="S367" s="3">
+      <c r="S367">
         <v>80</v>
       </c>
-      <c r="T367" s="3">
+      <c r="T367">
         <v>86</v>
       </c>
-      <c r="U367" s="3">
+      <c r="U367">
         <v>92</v>
       </c>
     </row>
     <row r="368" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A368" s="2">
+      <c r="A368">
         <v>2874</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368">
         <v>1</v>
       </c>
-      <c r="C368" s="3">
+      <c r="C368">
         <v>4</v>
       </c>
-      <c r="D368" s="3">
+      <c r="D368">
         <v>11</v>
       </c>
-      <c r="E368" s="3">
+      <c r="E368">
         <v>15</v>
       </c>
-      <c r="F368" s="3">
+      <c r="F368">
         <v>18</v>
       </c>
-      <c r="G368" s="3">
+      <c r="G368">
         <v>32</v>
       </c>
-      <c r="H368" s="3">
+      <c r="H368">
         <v>36</v>
       </c>
-      <c r="I368" s="3">
+      <c r="I368">
         <v>37</v>
       </c>
-      <c r="J368" s="3">
+      <c r="J368">
         <v>43</v>
       </c>
-      <c r="K368" s="3">
+      <c r="K368">
         <v>44</v>
       </c>
-      <c r="L368" s="3">
+      <c r="L368">
         <v>45</v>
       </c>
-      <c r="M368" s="3">
+      <c r="M368">
         <v>46</v>
       </c>
-      <c r="N368" s="3">
+      <c r="N368">
         <v>48</v>
       </c>
-      <c r="O368" s="3">
+      <c r="O368">
         <v>50</v>
       </c>
-      <c r="P368" s="3">
+      <c r="P368">
         <v>66</v>
       </c>
-      <c r="Q368" s="3">
+      <c r="Q368">
         <v>76</v>
       </c>
-      <c r="R368" s="3">
+      <c r="R368">
         <v>78</v>
       </c>
-      <c r="S368" s="3">
+      <c r="S368">
         <v>80</v>
       </c>
-      <c r="T368" s="3">
+      <c r="T368">
         <v>81</v>
       </c>
-      <c r="U368" s="3">
+      <c r="U368">
         <v>86</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A369">
+        <v>2875</v>
+      </c>
+      <c r="B369">
+        <v>9</v>
+      </c>
+      <c r="C369">
+        <v>11</v>
+      </c>
+      <c r="D369">
+        <v>12</v>
+      </c>
+      <c r="E369">
+        <v>24</v>
+      </c>
+      <c r="F369">
+        <v>27</v>
+      </c>
+      <c r="G369">
+        <v>32</v>
+      </c>
+      <c r="H369">
+        <v>34</v>
+      </c>
+      <c r="I369">
+        <v>44</v>
+      </c>
+      <c r="J369">
+        <v>51</v>
+      </c>
+      <c r="K369">
+        <v>53</v>
+      </c>
+      <c r="L369">
+        <v>54</v>
+      </c>
+      <c r="M369">
+        <v>55</v>
+      </c>
+      <c r="N369">
+        <v>67</v>
+      </c>
+      <c r="O369">
+        <v>69</v>
+      </c>
+      <c r="P369">
+        <v>71</v>
+      </c>
+      <c r="Q369">
+        <v>75</v>
+      </c>
+      <c r="R369">
+        <v>80</v>
+      </c>
+      <c r="S369">
+        <v>81</v>
+      </c>
+      <c r="T369">
+        <v>88</v>
+      </c>
+      <c r="U369">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A370">
+        <v>2876</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370">
+        <v>22</v>
+      </c>
+      <c r="D370">
+        <v>29</v>
+      </c>
+      <c r="E370">
+        <v>30</v>
+      </c>
+      <c r="F370">
+        <v>36</v>
+      </c>
+      <c r="G370">
+        <v>37</v>
+      </c>
+      <c r="H370">
+        <v>41</v>
+      </c>
+      <c r="I370">
+        <v>48</v>
+      </c>
+      <c r="J370">
+        <v>51</v>
+      </c>
+      <c r="K370">
+        <v>55</v>
+      </c>
+      <c r="L370">
+        <v>67</v>
+      </c>
+      <c r="M370">
+        <v>68</v>
+      </c>
+      <c r="N370">
+        <v>69</v>
+      </c>
+      <c r="O370">
+        <v>75</v>
+      </c>
+      <c r="P370">
+        <v>82</v>
+      </c>
+      <c r="Q370">
+        <v>85</v>
+      </c>
+      <c r="R370">
+        <v>89</v>
+      </c>
+      <c r="S370">
+        <v>90</v>
+      </c>
+      <c r="T370">
+        <v>91</v>
+      </c>
+      <c r="U370">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A371">
+        <v>2877</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371">
+        <v>4</v>
+      </c>
+      <c r="D371">
+        <v>5</v>
+      </c>
+      <c r="E371">
+        <v>9</v>
+      </c>
+      <c r="F371">
+        <v>17</v>
+      </c>
+      <c r="G371">
+        <v>18</v>
+      </c>
+      <c r="H371">
+        <v>21</v>
+      </c>
+      <c r="I371">
+        <v>24</v>
+      </c>
+      <c r="J371">
+        <v>36</v>
+      </c>
+      <c r="K371">
+        <v>42</v>
+      </c>
+      <c r="L371">
+        <v>43</v>
+      </c>
+      <c r="M371">
+        <v>52</v>
+      </c>
+      <c r="N371">
+        <v>60</v>
+      </c>
+      <c r="O371">
+        <v>62</v>
+      </c>
+      <c r="P371">
+        <v>69</v>
+      </c>
+      <c r="Q371">
+        <v>72</v>
+      </c>
+      <c r="R371">
+        <v>85</v>
+      </c>
+      <c r="S371">
+        <v>86</v>
+      </c>
+      <c r="T371">
+        <v>91</v>
+      </c>
+      <c r="U371">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A372">
+        <v>2878</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>5</v>
+      </c>
+      <c r="D372">
+        <v>14</v>
+      </c>
+      <c r="E372">
+        <v>17</v>
+      </c>
+      <c r="F372">
+        <v>30</v>
+      </c>
+      <c r="G372">
+        <v>33</v>
+      </c>
+      <c r="H372">
+        <v>41</v>
+      </c>
+      <c r="I372">
+        <v>42</v>
+      </c>
+      <c r="J372">
+        <v>49</v>
+      </c>
+      <c r="K372">
+        <v>52</v>
+      </c>
+      <c r="L372">
+        <v>55</v>
+      </c>
+      <c r="M372">
+        <v>65</v>
+      </c>
+      <c r="N372">
+        <v>68</v>
+      </c>
+      <c r="O372">
+        <v>77</v>
+      </c>
+      <c r="P372">
+        <v>79</v>
+      </c>
+      <c r="Q372">
+        <v>81</v>
+      </c>
+      <c r="R372">
+        <v>84</v>
+      </c>
+      <c r="S372">
+        <v>90</v>
+      </c>
+      <c r="T372">
+        <v>93</v>
+      </c>
+      <c r="U372">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A373">
+        <v>2879</v>
+      </c>
+      <c r="B373">
+        <v>5</v>
+      </c>
+      <c r="C373">
+        <v>11</v>
+      </c>
+      <c r="D373">
+        <v>14</v>
+      </c>
+      <c r="E373">
+        <v>15</v>
+      </c>
+      <c r="F373">
+        <v>19</v>
+      </c>
+      <c r="G373">
+        <v>21</v>
+      </c>
+      <c r="H373">
+        <v>28</v>
+      </c>
+      <c r="I373">
+        <v>32</v>
+      </c>
+      <c r="J373">
+        <v>53</v>
+      </c>
+      <c r="K373">
+        <v>57</v>
+      </c>
+      <c r="L373">
+        <v>58</v>
+      </c>
+      <c r="M373">
+        <v>61</v>
+      </c>
+      <c r="N373">
+        <v>64</v>
+      </c>
+      <c r="O373">
+        <v>68</v>
+      </c>
+      <c r="P373">
+        <v>78</v>
+      </c>
+      <c r="Q373">
+        <v>79</v>
+      </c>
+      <c r="R373">
+        <v>84</v>
+      </c>
+      <c r="S373">
+        <v>86</v>
+      </c>
+      <c r="T373">
+        <v>92</v>
+      </c>
+      <c r="U373">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A374">
+        <v>2880</v>
+      </c>
+      <c r="B374">
+        <v>10</v>
+      </c>
+      <c r="C374">
+        <v>23</v>
+      </c>
+      <c r="D374">
+        <v>24</v>
+      </c>
+      <c r="E374">
+        <v>26</v>
+      </c>
+      <c r="F374">
+        <v>27</v>
+      </c>
+      <c r="G374">
+        <v>38</v>
+      </c>
+      <c r="H374">
+        <v>39</v>
+      </c>
+      <c r="I374">
+        <v>40</v>
+      </c>
+      <c r="J374">
+        <v>42</v>
+      </c>
+      <c r="K374">
+        <v>46</v>
+      </c>
+      <c r="L374">
+        <v>47</v>
+      </c>
+      <c r="M374">
+        <v>51</v>
+      </c>
+      <c r="N374">
+        <v>58</v>
+      </c>
+      <c r="O374">
+        <v>59</v>
+      </c>
+      <c r="P374">
+        <v>67</v>
+      </c>
+      <c r="Q374">
+        <v>69</v>
+      </c>
+      <c r="R374">
+        <v>87</v>
+      </c>
+      <c r="S374">
+        <v>89</v>
+      </c>
+      <c r="T374">
+        <v>94</v>
+      </c>
+      <c r="U374">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A375">
+        <v>2881</v>
+      </c>
+      <c r="B375">
+        <v>5</v>
+      </c>
+      <c r="C375">
+        <v>7</v>
+      </c>
+      <c r="D375">
+        <v>10</v>
+      </c>
+      <c r="E375">
+        <v>16</v>
+      </c>
+      <c r="F375">
+        <v>24</v>
+      </c>
+      <c r="G375">
+        <v>25</v>
+      </c>
+      <c r="H375">
+        <v>27</v>
+      </c>
+      <c r="I375">
+        <v>33</v>
+      </c>
+      <c r="J375">
+        <v>47</v>
+      </c>
+      <c r="K375">
+        <v>48</v>
+      </c>
+      <c r="L375">
+        <v>50</v>
+      </c>
+      <c r="M375">
+        <v>60</v>
+      </c>
+      <c r="N375">
+        <v>64</v>
+      </c>
+      <c r="O375">
+        <v>74</v>
+      </c>
+      <c r="P375">
+        <v>79</v>
+      </c>
+      <c r="Q375">
+        <v>83</v>
+      </c>
+      <c r="R375">
+        <v>84</v>
+      </c>
+      <c r="S375">
+        <v>85</v>
+      </c>
+      <c r="T375">
+        <v>88</v>
+      </c>
+      <c r="U375">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -24418,13 +24871,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24596,21 +25048,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-09T04:04:08+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24636,9 +25086,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Lotomania_edt.xlsx
+++ b/LoteriasExcel/Lotomania_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE626C28-886A-47BD-A60E-76DB322F9718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE8DF4A-AFC7-4297-9003-DDCF0B0B8A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57810" yWindow="1050" windowWidth="23235" windowHeight="16920" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="78675" yWindow="615" windowWidth="17280" windowHeight="18765" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LOTOMANIA" sheetId="6" r:id="rId1"/>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50A779-EE49-4F4E-A3D3-22C3D200C502}">
-  <dimension ref="A1:V375"/>
+  <dimension ref="A1:V381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="B369" sqref="B369:U375"/>
+      <selection activeCell="B376" sqref="B376:U381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -24865,21 +24865,402 @@
         <v>99</v>
       </c>
     </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A376">
+        <v>2882</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>3</v>
+      </c>
+      <c r="D376">
+        <v>6</v>
+      </c>
+      <c r="E376">
+        <v>9</v>
+      </c>
+      <c r="F376">
+        <v>14</v>
+      </c>
+      <c r="G376">
+        <v>15</v>
+      </c>
+      <c r="H376">
+        <v>16</v>
+      </c>
+      <c r="I376">
+        <v>19</v>
+      </c>
+      <c r="J376">
+        <v>23</v>
+      </c>
+      <c r="K376">
+        <v>31</v>
+      </c>
+      <c r="L376">
+        <v>32</v>
+      </c>
+      <c r="M376">
+        <v>41</v>
+      </c>
+      <c r="N376">
+        <v>44</v>
+      </c>
+      <c r="O376">
+        <v>63</v>
+      </c>
+      <c r="P376">
+        <v>64</v>
+      </c>
+      <c r="Q376">
+        <v>66</v>
+      </c>
+      <c r="R376">
+        <v>71</v>
+      </c>
+      <c r="S376">
+        <v>77</v>
+      </c>
+      <c r="T376">
+        <v>91</v>
+      </c>
+      <c r="U376">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A377">
+        <v>2883</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+      <c r="C377">
+        <v>5</v>
+      </c>
+      <c r="D377">
+        <v>13</v>
+      </c>
+      <c r="E377">
+        <v>16</v>
+      </c>
+      <c r="F377">
+        <v>21</v>
+      </c>
+      <c r="G377">
+        <v>28</v>
+      </c>
+      <c r="H377">
+        <v>33</v>
+      </c>
+      <c r="I377">
+        <v>35</v>
+      </c>
+      <c r="J377">
+        <v>40</v>
+      </c>
+      <c r="K377">
+        <v>43</v>
+      </c>
+      <c r="L377">
+        <v>47</v>
+      </c>
+      <c r="M377">
+        <v>53</v>
+      </c>
+      <c r="N377">
+        <v>61</v>
+      </c>
+      <c r="O377">
+        <v>63</v>
+      </c>
+      <c r="P377">
+        <v>71</v>
+      </c>
+      <c r="Q377">
+        <v>73</v>
+      </c>
+      <c r="R377">
+        <v>76</v>
+      </c>
+      <c r="S377">
+        <v>77</v>
+      </c>
+      <c r="T377">
+        <v>81</v>
+      </c>
+      <c r="U377">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A378">
+        <v>2884</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>3</v>
+      </c>
+      <c r="D378">
+        <v>8</v>
+      </c>
+      <c r="E378">
+        <v>14</v>
+      </c>
+      <c r="F378">
+        <v>23</v>
+      </c>
+      <c r="G378">
+        <v>30</v>
+      </c>
+      <c r="H378">
+        <v>32</v>
+      </c>
+      <c r="I378">
+        <v>37</v>
+      </c>
+      <c r="J378">
+        <v>38</v>
+      </c>
+      <c r="K378">
+        <v>41</v>
+      </c>
+      <c r="L378">
+        <v>45</v>
+      </c>
+      <c r="M378">
+        <v>55</v>
+      </c>
+      <c r="N378">
+        <v>58</v>
+      </c>
+      <c r="O378">
+        <v>60</v>
+      </c>
+      <c r="P378">
+        <v>71</v>
+      </c>
+      <c r="Q378">
+        <v>74</v>
+      </c>
+      <c r="R378">
+        <v>77</v>
+      </c>
+      <c r="S378">
+        <v>78</v>
+      </c>
+      <c r="T378">
+        <v>80</v>
+      </c>
+      <c r="U378">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A379">
+        <v>2885</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>10</v>
+      </c>
+      <c r="D379">
+        <v>13</v>
+      </c>
+      <c r="E379">
+        <v>14</v>
+      </c>
+      <c r="F379">
+        <v>18</v>
+      </c>
+      <c r="G379">
+        <v>27</v>
+      </c>
+      <c r="H379">
+        <v>32</v>
+      </c>
+      <c r="I379">
+        <v>42</v>
+      </c>
+      <c r="J379">
+        <v>43</v>
+      </c>
+      <c r="K379">
+        <v>44</v>
+      </c>
+      <c r="L379">
+        <v>49</v>
+      </c>
+      <c r="M379">
+        <v>52</v>
+      </c>
+      <c r="N379">
+        <v>55</v>
+      </c>
+      <c r="O379">
+        <v>60</v>
+      </c>
+      <c r="P379">
+        <v>61</v>
+      </c>
+      <c r="Q379">
+        <v>69</v>
+      </c>
+      <c r="R379">
+        <v>73</v>
+      </c>
+      <c r="S379">
+        <v>76</v>
+      </c>
+      <c r="T379">
+        <v>81</v>
+      </c>
+      <c r="U379">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A380">
+        <v>2886</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>3</v>
+      </c>
+      <c r="D380">
+        <v>5</v>
+      </c>
+      <c r="E380">
+        <v>12</v>
+      </c>
+      <c r="F380">
+        <v>13</v>
+      </c>
+      <c r="G380">
+        <v>28</v>
+      </c>
+      <c r="H380">
+        <v>35</v>
+      </c>
+      <c r="I380">
+        <v>48</v>
+      </c>
+      <c r="J380">
+        <v>49</v>
+      </c>
+      <c r="K380">
+        <v>50</v>
+      </c>
+      <c r="L380">
+        <v>72</v>
+      </c>
+      <c r="M380">
+        <v>74</v>
+      </c>
+      <c r="N380">
+        <v>75</v>
+      </c>
+      <c r="O380">
+        <v>76</v>
+      </c>
+      <c r="P380">
+        <v>77</v>
+      </c>
+      <c r="Q380">
+        <v>80</v>
+      </c>
+      <c r="R380">
+        <v>81</v>
+      </c>
+      <c r="S380">
+        <v>82</v>
+      </c>
+      <c r="T380">
+        <v>90</v>
+      </c>
+      <c r="U380">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A381">
+        <v>2887</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+      <c r="D381">
+        <v>4</v>
+      </c>
+      <c r="E381">
+        <v>5</v>
+      </c>
+      <c r="F381">
+        <v>13</v>
+      </c>
+      <c r="G381">
+        <v>14</v>
+      </c>
+      <c r="H381">
+        <v>20</v>
+      </c>
+      <c r="I381">
+        <v>30</v>
+      </c>
+      <c r="J381">
+        <v>36</v>
+      </c>
+      <c r="K381">
+        <v>49</v>
+      </c>
+      <c r="L381">
+        <v>69</v>
+      </c>
+      <c r="M381">
+        <v>76</v>
+      </c>
+      <c r="N381">
+        <v>77</v>
+      </c>
+      <c r="O381">
+        <v>78</v>
+      </c>
+      <c r="P381">
+        <v>81</v>
+      </c>
+      <c r="Q381">
+        <v>85</v>
+      </c>
+      <c r="R381">
+        <v>88</v>
+      </c>
+      <c r="S381">
+        <v>90</v>
+      </c>
+      <c r="T381">
+        <v>96</v>
+      </c>
+      <c r="U381">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25047,6 +25428,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -25058,14 +25448,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDEE3BD0-E82A-45EA-BF5A-733EBB4C31D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25085,6 +25467,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5603705F-A6C5-47C9-9C54-F9F7DF9013C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF4B058-BA16-41FB-9728-59896EB3A3A3}">
   <ds:schemaRefs>
